--- a/Data/Techmap/DEModel_V2.xlsx
+++ b/Data/Techmap/DEModel_V2.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GIT-OTHER\CESM\Data\Techmap\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2FC27DF5-720F-4F3D-8E5C-789B8FD58FB6}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{255D9439-9A0F-47F1-8739-947D2587B4D2}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="10236" yWindow="120" windowWidth="6492" windowHeight="8172" activeTab="4" xr2:uid="{EC78BDD3-7137-425A-8228-7CE92A9A1C25}"/>
   </bookViews>
@@ -35,95 +35,8 @@
 </workbook>
 </file>
 
-<file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
-  <authors>
-    <author>Julia Barbosa</author>
-  </authors>
-  <commentList>
-    <comment ref="P8" authorId="0" shapeId="0" xr:uid="{3280D080-C8B9-4589-9F0D-9951B0085697}">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Segoe UI"/>
-            <family val="2"/>
-          </rPr>
-          <t>Julia_HiWi:
-e2010</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="U40" authorId="0" shapeId="0" xr:uid="{9EA72051-5A6A-43BE-8FC5-86617ECD0F07}">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Segoe UI"/>
-            <family val="2"/>
-          </rPr>
-          <t>Julia_HiWi:
-[2015 0.2; 2035 0]</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="V40" authorId="0" shapeId="0" xr:uid="{93CE86A8-E4A8-4061-B4D2-D47E8DC1D70B}">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Segoe UI"/>
-            <family val="2"/>
-          </rPr>
-          <t>Julia_HiWi:
-0.2</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="A47" authorId="0" shapeId="0" xr:uid="{D8091E34-3A39-4E0E-BC88-A59362A5C67F}">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Segoe UI"/>
-            <family val="2"/>
-          </rPr>
-          <t>Julia_HiWi:
-Killed</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="R70" authorId="0" shapeId="0" xr:uid="{A05842B0-5DE2-42BE-9951-7586F921D278}">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Segoe UI"/>
-            <family val="2"/>
-          </rPr>
-          <t>[Kommentarthread]
-Ihre Version von Excel gestattet Ihnen das Lesen dieses Kommentarthreads. Jegliche Bearbeitungen daran werden jedoch entfernt, wenn die Datei in einer neueren Version von Excel geöffnet wird. Weitere Informationen: https://go.microsoft.com/fwlink/?linkid=870924.
-Kommentar:
-    Biogas</t>
-        </r>
-      </text>
-    </comment>
-  </commentList>
-</comments>
-</file>
-
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="598" uniqueCount="251">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="597" uniqueCount="243">
   <si>
     <t>Base</t>
   </si>
@@ -278,144 +191,24 @@
     <t>ICV</t>
   </si>
   <si>
-    <t>[2015 3320;2050 2280]</t>
-  </si>
-  <si>
-    <t>[2015 1250;2050 900]</t>
-  </si>
-  <si>
-    <t>[2015 1360;2050 397]</t>
-  </si>
-  <si>
-    <t>[2015 700;2050 530]</t>
-  </si>
-  <si>
-    <t>[2015 583; 2050 587]</t>
-  </si>
-  <si>
-    <t>[2015 600; 2050 450]</t>
-  </si>
-  <si>
-    <t>[2020 662.5; 2050 555.9]</t>
-  </si>
-  <si>
-    <t>[2015 503;2050 296]</t>
-  </si>
-  <si>
-    <t>[2015 2030;2050 2030]</t>
-  </si>
-  <si>
-    <t>[2015 17000;2050 5000]</t>
-  </si>
-  <si>
     <t>Investment Cost  power</t>
   </si>
   <si>
-    <t>[2015 112.7;2050 52.44]</t>
-  </si>
-  <si>
-    <t>[2015 25;2050 18]</t>
-  </si>
-  <si>
-    <t>[2020 3.4; 2050 3.1]</t>
-  </si>
-  <si>
-    <t>[2020 0.18;2050 0.15]</t>
-  </si>
-  <si>
-    <t>[2020 5.76;2050 5.13]</t>
-  </si>
-  <si>
-    <t>[2020 20.9; 2050 18.1]</t>
-  </si>
-  <si>
-    <t>[2015 72;2050 60]</t>
-  </si>
-  <si>
-    <t>[2020  16.63; 2050 14.3]</t>
-  </si>
-  <si>
-    <t>[2020 0.31;2050 0.26]</t>
-  </si>
-  <si>
-    <t>[2015 20;2050 12]</t>
-  </si>
-  <si>
-    <t>[2015 82;2050 58.4]</t>
-  </si>
-  <si>
     <t>EUR/kW/a</t>
   </si>
   <si>
     <t>EUR/MWh/a</t>
   </si>
   <si>
-    <t>[2015 8.2;2020 9.2; 2025 9.5; 2030 9.3; 2035 9.1; 2040 8.9 ; 2045 8.7; 2050 8.5]</t>
-  </si>
-  <si>
-    <t>[2015 24.2;2020 31.6;2025 41.6;2030 40;2035 38.5;2040 36.9;2045 35.4; 2050 33.9]</t>
-  </si>
-  <si>
-    <t>[2015 15.4;2020 18.7; 2025 22.5; 2030 28.9;2035 25.3;2040 26.8;2045 28.8;2050 29.7]</t>
-  </si>
-  <si>
-    <t>[2015 9.9138;2035 0]</t>
-  </si>
-  <si>
-    <t>[2015 20.4;2045 0]</t>
-  </si>
-  <si>
-    <t>[2015 12.5;2045 0]</t>
-  </si>
-  <si>
-    <t>[2015 23.3;2035 0]</t>
-  </si>
-  <si>
-    <t>[2015 11.4;2036 0]</t>
-  </si>
-  <si>
-    <t>[2015 4.1;2030 4.1;2035 0]</t>
-  </si>
-  <si>
-    <t>[2015 45.4;2030 30;2035 0]</t>
-  </si>
-  <si>
-    <t>[2015 40.7;2030 30;2035 0]</t>
-  </si>
-  <si>
     <t>[2015 0; 2016 NaN]</t>
   </si>
   <si>
-    <t>[2015 26;2040 0]</t>
-  </si>
-  <si>
-    <t>[2015 26; 2035 0]</t>
-  </si>
-  <si>
-    <t>[2015 135; 2035 0]</t>
-  </si>
-  <si>
-    <t>[2015 75; 2035 0]</t>
-  </si>
-  <si>
-    <t>[2015 12.2;2045 0]</t>
-  </si>
-  <si>
-    <t>[2015 14.3;2045 0]</t>
-  </si>
-  <si>
     <t>[2015 28;2050 0]</t>
   </si>
   <si>
-    <t>[2015 11.4;2022 0]</t>
-  </si>
-  <si>
     <t>[2015 0;2016 NaN]</t>
   </si>
   <si>
-    <t>[2015 20.5; 2016 24 ]</t>
-  </si>
-  <si>
     <t>Min Energy Output</t>
   </si>
   <si>
@@ -449,21 +242,6 @@
     <t>2016_PV_Rescaled_1004</t>
   </si>
   <si>
-    <t>[2015 0.09; 2030 0]</t>
-  </si>
-  <si>
-    <t>[2015 0.09; 2050 0.12]</t>
-  </si>
-  <si>
-    <t>[2015 0.48; 2030 0]</t>
-  </si>
-  <si>
-    <t>[2015 0.26; 2030 0]</t>
-  </si>
-  <si>
-    <t>[2015 0.021; 2030 0]</t>
-  </si>
-  <si>
     <t>Max fraction of output commodity supply</t>
   </si>
   <si>
@@ -530,135 +308,15 @@
     <t>Demand_Rail_Traffic</t>
   </si>
   <si>
-    <t>Demand_Shipping_and_Airplanes</t>
-  </si>
-  <si>
-    <t>Wind_Offshore_New</t>
-  </si>
-  <si>
-    <t>Wind_Onshore_New</t>
-  </si>
-  <si>
-    <t>Run_of_River</t>
-  </si>
-  <si>
-    <t>PV_New</t>
-  </si>
-  <si>
-    <t>Coal_Furnace</t>
-  </si>
-  <si>
-    <t>Gas_Furnace</t>
-  </si>
-  <si>
-    <t>Resistive_Heater_Industrial</t>
-  </si>
-  <si>
-    <t>Temperatur_Downgrade</t>
-  </si>
-  <si>
-    <t>Waste_Heating_Central</t>
-  </si>
-  <si>
-    <t>Biomass_Heating_Central</t>
-  </si>
-  <si>
-    <t>Heat_Pump_Central</t>
-  </si>
-  <si>
     <t>District_Heating</t>
   </si>
   <si>
-    <t>Decentral_Heat_from_DHS</t>
-  </si>
-  <si>
-    <t>Biomass_Heating_Decentral</t>
-  </si>
-  <si>
-    <t>Decentral_Heat_from_BM</t>
-  </si>
-  <si>
-    <t>Gas_Heating_Decentral</t>
-  </si>
-  <si>
-    <t>Decentral_Heat_from_GH</t>
-  </si>
-  <si>
-    <t>Heat_Pump_Decentral</t>
-  </si>
-  <si>
-    <t>Decentral_Heat_from_HP</t>
-  </si>
-  <si>
-    <t>Oil_Heating_Decentral</t>
-  </si>
-  <si>
-    <t>Decentral_Heat_from_OH</t>
-  </si>
-  <si>
-    <t>Resistive_Heater_Decentral</t>
-  </si>
-  <si>
-    <t>Decentral_Heat_from_RH</t>
-  </si>
-  <si>
-    <t>Decentral_Heat_from_BM_combi</t>
-  </si>
-  <si>
-    <t>Decentral_Heat_from_DHS_combi</t>
-  </si>
-  <si>
-    <t>Decentral_Heat_from_GH_combi</t>
-  </si>
-  <si>
-    <t>Decentral_Heat_from_HP_combi</t>
-  </si>
-  <si>
-    <t>Decentral_Heat_from_OH_combi</t>
-  </si>
-  <si>
-    <t>Decentral_Heat_from_RH_combi</t>
-  </si>
-  <si>
     <t>Help_Biomass_CHP</t>
   </si>
   <si>
     <t>Help_Coal_CHP</t>
   </si>
   <si>
-    <t>Gas_CC</t>
-  </si>
-  <si>
-    <t>Help_Gas_CC</t>
-  </si>
-  <si>
-    <t>[2015 6.1; 2020 6.1;2030 7;2050 10]</t>
-  </si>
-  <si>
-    <t>[2015 2690; 2020 2690; 2050 1285]</t>
-  </si>
-  <si>
-    <t>[2015 780; 2020 780; 2050 483]</t>
-  </si>
-  <si>
-    <t>[2015 220; 2020 220; 2050 184.6]</t>
-  </si>
-  <si>
-    <t>[2015 320; 2020 320; 2050 268]</t>
-  </si>
-  <si>
-    <t>[2015 400; 2020 400; 2050 336]</t>
-  </si>
-  <si>
-    <t>[2015 1113; 2020 1113;2050 938]</t>
-  </si>
-  <si>
-    <t>[2015 3.4; 2020 3.4; 2050 3.1]</t>
-  </si>
-  <si>
-    <t>[2015 26;2026 NaN]</t>
-  </si>
-  <si>
     <t>[2015 26; 2016 NaN]</t>
   </si>
   <si>
@@ -683,33 +341,6 @@
     <t>in_frac_max</t>
   </si>
   <si>
-    <t>Base2015</t>
-  </si>
-  <si>
-    <t>[2015 9.9138; 2016 NaN]</t>
-  </si>
-  <si>
-    <t>[2015 0; 2060 355 ]</t>
-  </si>
-  <si>
-    <t>[2015 0; 2060 1791]</t>
-  </si>
-  <si>
-    <t>[2015 20.4;2016 NaN]</t>
-  </si>
-  <si>
-    <t>[2015 12.5;2016 NaN]</t>
-  </si>
-  <si>
-    <t>[2015 23.3;2016 NaN]</t>
-  </si>
-  <si>
-    <t>[2015 4.1;2035 0]</t>
-  </si>
-  <si>
-    <t>[2015 4.1; 2035 0]</t>
-  </si>
-  <si>
     <t>[2020 900; 2060 400]</t>
   </si>
   <si>
@@ -761,42 +392,6 @@
     <t>Output temporal availability</t>
   </si>
   <si>
-    <t>Wind_Offshore_Res</t>
-  </si>
-  <si>
-    <t>Wind_Onshore_Res</t>
-  </si>
-  <si>
-    <t>Biomass_CHP_Res</t>
-  </si>
-  <si>
-    <t>Coal_CHP_Res</t>
-  </si>
-  <si>
-    <t>Gas_CC_Res</t>
-  </si>
-  <si>
-    <t>Help_Gas_CC_Res</t>
-  </si>
-  <si>
-    <t>PV_Res</t>
-  </si>
-  <si>
-    <t>Biomass_PP_Res</t>
-  </si>
-  <si>
-    <t>Coal_SPP_Res</t>
-  </si>
-  <si>
-    <t>Gas_SC_Res</t>
-  </si>
-  <si>
-    <t>Lignite_Res</t>
-  </si>
-  <si>
-    <t>Uranium_Res</t>
-  </si>
-  <si>
     <t>scenario_name</t>
   </si>
   <si>
@@ -869,20 +464,314 @@
     <t>[2020 135;2030 105;2050 70;2070 70]</t>
   </si>
   <si>
-    <t>[2020 0;2029 0;2030 100;2040 NaN;2050 NaN]</t>
-  </si>
-  <si>
     <t>[2020 650;2030 442;2050 250]</t>
   </si>
   <si>
     <t>[2020 19.5;2030 13.3;2050 7.5]</t>
+  </si>
+  <si>
+    <t>color</t>
+  </si>
+  <si>
+    <t>order</t>
+  </si>
+  <si>
+    <t>#00b300</t>
+  </si>
+  <si>
+    <t>#000000</t>
+  </si>
+  <si>
+    <t>#999999</t>
+  </si>
+  <si>
+    <t>#b38033</t>
+  </si>
+  <si>
+    <t>#800000</t>
+  </si>
+  <si>
+    <t>#00ff00</t>
+  </si>
+  <si>
+    <t>#999966</t>
+  </si>
+  <si>
+    <t>#0000ff</t>
+  </si>
+  <si>
+    <t>#000080</t>
+  </si>
+  <si>
+    <t>#ffcc00</t>
+  </si>
+  <si>
+    <t>#00bdff</t>
+  </si>
+  <si>
+    <t>#101010</t>
+  </si>
+  <si>
+    <t>#00c300</t>
+  </si>
+  <si>
+    <t>#a00000</t>
+  </si>
+  <si>
+    <t>#FF0000</t>
+  </si>
+  <si>
+    <t>#FFC2B4</t>
+  </si>
+  <si>
+    <t>#B14AED</t>
+  </si>
+  <si>
+    <t>#00C49A</t>
+  </si>
+  <si>
+    <t>#156064</t>
+  </si>
+  <si>
+    <t>#0011ff</t>
+  </si>
+  <si>
+    <t>Demand_International_Transport</t>
+  </si>
+  <si>
+    <t>Gas_CHP</t>
+  </si>
+  <si>
+    <t>Coal_CHP</t>
+  </si>
+  <si>
+    <t>Biomass_CHP</t>
+  </si>
+  <si>
+    <t>PP_Nuclear</t>
+  </si>
+  <si>
+    <t>PP_Lignite</t>
+  </si>
+  <si>
+    <t>PP_Gas</t>
+  </si>
+  <si>
+    <t>PP_Coal</t>
+  </si>
+  <si>
+    <t>PP_Biomass</t>
+  </si>
+  <si>
+    <t>PP_Run_of_River</t>
+  </si>
+  <si>
+    <t>Temperature_Downgrade</t>
+  </si>
+  <si>
+    <t>[2016 15600;2050 3950]</t>
+  </si>
+  <si>
+    <t>Help_Gas_CHP</t>
+  </si>
+  <si>
+    <t>[2016 14.3;2040 0]</t>
+  </si>
+  <si>
+    <t>[2016 12.2;2040 0]</t>
+  </si>
+  <si>
+    <t>[2016 12.2;2020 0]</t>
+  </si>
+  <si>
+    <t>[2016 28;2040 0]</t>
+  </si>
+  <si>
+    <t>[2016 8.2;2030 9.3;2050 8.5]</t>
+  </si>
+  <si>
+    <t>[2016 24.2;2030 40;2050 33.9]</t>
+  </si>
+  <si>
+    <t>[2016 15.4;2030 28.9;2050 29.7]</t>
+  </si>
+  <si>
+    <t>[2016 720;2050 430]</t>
+  </si>
+  <si>
+    <t>[2020 3297;2050 3287]</t>
+  </si>
+  <si>
+    <t>[2016 9.9138;2040 0]</t>
+  </si>
+  <si>
+    <t>[2016 20.4;2040 0]</t>
+  </si>
+  <si>
+    <t>[2016 12.5;2040 0]</t>
+  </si>
+  <si>
+    <t>[2016 23.3;2040 0]</t>
+  </si>
+  <si>
+    <t>[2016 11.4;2022 0]</t>
+  </si>
+  <si>
+    <t>[2016 9.9138;2017 NaN]</t>
+  </si>
+  <si>
+    <t>[2016 20.4;2017 NaN]</t>
+  </si>
+  <si>
+    <t>[2016 12.5;2017 NaN]</t>
+  </si>
+  <si>
+    <t>[16 23.3;2017 NaN]</t>
+  </si>
+  <si>
+    <t>PP_WindOff_Res</t>
+  </si>
+  <si>
+    <t>PP_WindOff_New</t>
+  </si>
+  <si>
+    <t>PP_WindOn_Res</t>
+  </si>
+  <si>
+    <t>PP_WindOn_New</t>
+  </si>
+  <si>
+    <t>PP_PV_Res</t>
+  </si>
+  <si>
+    <t>PP_PV_New</t>
+  </si>
+  <si>
+    <t>[2020 780;2050 483]</t>
+  </si>
+  <si>
+    <t>[2020 2690;2050 1285]</t>
+  </si>
+  <si>
+    <t>[2020 1113;2050 938]</t>
+  </si>
+  <si>
+    <t>[2016 40.7;2030 30;2040 0]</t>
+  </si>
+  <si>
+    <t>[2016 4.1;2030 4.1;2040 0]</t>
+  </si>
+  <si>
+    <t>[2016 45.4;2030 30;2040 0]</t>
+  </si>
+  <si>
+    <t>[2016 0;2017 158]</t>
+  </si>
+  <si>
+    <t>Furnace_Gas</t>
+  </si>
+  <si>
+    <t>Furnace_Electric</t>
+  </si>
+  <si>
+    <t>Furnace_Coal</t>
+  </si>
+  <si>
+    <t>Central_Heat_Pump</t>
+  </si>
+  <si>
+    <t>Central_Biomass_Boiler</t>
+  </si>
+  <si>
+    <t>Central_Waste_Boiler</t>
+  </si>
+  <si>
+    <t>[2016 870;2050 710]</t>
+  </si>
+  <si>
+    <t>[2020 120;2050 103]</t>
+  </si>
+  <si>
+    <t>[2016 26;2040 0]</t>
+  </si>
+  <si>
+    <t>[2015 26;2016 NaN]</t>
+  </si>
+  <si>
+    <t>[2016 0.14; 2050 0.3]</t>
+  </si>
+  <si>
+    <t>Decentral_Heat_Pump</t>
+  </si>
+  <si>
+    <t>Decentral_Resistive_Heater</t>
+  </si>
+  <si>
+    <t>Decentral_Biomass_Heater</t>
+  </si>
+  <si>
+    <t>Decentral_Gas_Heater</t>
+  </si>
+  <si>
+    <t>Decentral_Oil_Heater</t>
+  </si>
+  <si>
+    <t>[2016 0.05; 2040 0]</t>
+  </si>
+  <si>
+    <t>[2016 0.49; 2040 0]</t>
+  </si>
+  <si>
+    <t>[2016 0.26; 2040 0]</t>
+  </si>
+  <si>
+    <t>[2016 0.03; 2040 0]</t>
+  </si>
+  <si>
+    <t>[2020 390;2050 316]</t>
+  </si>
+  <si>
+    <t>[2020 230;2050 200]</t>
+  </si>
+  <si>
+    <t>[2020 850;2050 630]</t>
+  </si>
+  <si>
+    <t>[2020 400;2050 335]</t>
+  </si>
+  <si>
+    <t>[2020 660;2050 555]</t>
+  </si>
+  <si>
+    <t>[2016 135;2040 0]</t>
+  </si>
+  <si>
+    <t>[2016 75;2040 0]</t>
+  </si>
+  <si>
+    <t>DEBUG</t>
+  </si>
+  <si>
+    <t>[2016 0.1; 2040 0]</t>
+  </si>
+  <si>
+    <t>[2016 0.0; 2040 0]</t>
+  </si>
+  <si>
+    <t>Test</t>
+  </si>
+  <si>
+    <t>[2016 0;2035 180]</t>
+  </si>
+  <si>
+    <t>[2016 0;2035 355]</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -897,13 +786,6 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="9"/>
-      <color indexed="81"/>
-      <name val="Segoe UI"/>
-      <family val="2"/>
     </font>
     <font>
       <b/>
@@ -996,13 +878,7 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyProtection="1">
-      <protection locked="0"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyProtection="1">
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyProtection="1">
       <protection locked="0"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
@@ -1010,7 +886,11 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1046,30 +926,34 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{C14D454B-12DF-41D4-B756-57EA49F00895}" name="Tabelle3" displayName="Tabelle3" ref="A1:B27" totalsRowShown="0">
-  <autoFilter ref="A1:B27" xr:uid="{801D801C-681D-47E7-ACE2-316227FD6501}"/>
-  <tableColumns count="2">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{C14D454B-12DF-41D4-B756-57EA49F00895}" name="Tabelle3" displayName="Tabelle3" ref="A1:D21" totalsRowShown="0">
+  <autoFilter ref="A1:D21" xr:uid="{801D801C-681D-47E7-ACE2-316227FD6501}"/>
+  <tableColumns count="4">
     <tableColumn id="1" xr3:uid="{0AF4638F-3EEB-48E0-AC29-8DF8557BEA8D}" name="commodity_name"/>
     <tableColumn id="2" xr3:uid="{C6986DB7-7572-49F8-AEB6-52667D90A759}" name="description"/>
+    <tableColumn id="3" xr3:uid="{2CD986DB-A33F-4A88-8051-B266BC6BCF68}" name="color"/>
+    <tableColumn id="4" xr3:uid="{5F52F28B-3696-492C-8457-559A80A516B7}" name="order"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium6" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{74A02AEB-67CD-4D1C-8FE9-7365E46D98F4}" name="Tabelle4" displayName="Tabelle4" ref="A1:B65" totalsRowShown="0">
-  <autoFilter ref="A1:B65" xr:uid="{A4F2E66D-1024-44EB-B26C-9EF3C2ACFA7D}"/>
-  <tableColumns count="2">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{74A02AEB-67CD-4D1C-8FE9-7365E46D98F4}" name="Tabelle4" displayName="Tabelle4" ref="A1:D63" totalsRowShown="0">
+  <autoFilter ref="A1:D63" xr:uid="{A4F2E66D-1024-44EB-B26C-9EF3C2ACFA7D}"/>
+  <tableColumns count="4">
     <tableColumn id="1" xr3:uid="{68045503-4D44-4DCF-9110-03DFC110F65E}" name="conversion_process_name"/>
     <tableColumn id="2" xr3:uid="{B201BB8F-62F7-4A39-95D4-A92A4057D6C7}" name="description"/>
+    <tableColumn id="3" xr3:uid="{A6AD2D5F-370F-461E-BA24-1EDBC8DE63B2}" name="color"/>
+    <tableColumn id="4" xr3:uid="{609B58FC-54FF-408C-8003-E50D9235908A}" name="order"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium6" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="5" xr:uid="{3B410155-A5BA-46F0-9E6F-5ACE99BE50CB}" name="Tabelle5" displayName="Tabelle5" ref="A1:Z92" totalsRowShown="0">
-  <autoFilter ref="A1:Z92" xr:uid="{CC8370AE-B0DF-4511-8343-A59356928224}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="5" xr:uid="{3B410155-A5BA-46F0-9E6F-5ACE99BE50CB}" name="Tabelle5" displayName="Tabelle5" ref="A1:Z93" totalsRowShown="0">
+  <autoFilter ref="A1:Z93" xr:uid="{CC8370AE-B0DF-4511-8343-A59356928224}"/>
   <tableColumns count="26">
     <tableColumn id="2" xr3:uid="{54C95160-A387-4A69-A36D-F51CAC324BA8}" name="conversion_process_name"/>
     <tableColumn id="3" xr3:uid="{F734FC28-E1F0-40DB-9868-A9E76CEF9705}" name="commodity_in"/>
@@ -1423,14 +1307,14 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A1" s="14" t="s">
-        <v>228</v>
-      </c>
-      <c r="B1" s="14" t="s">
-        <v>229</v>
-      </c>
-      <c r="C1" s="14" t="s">
-        <v>230</v>
+      <c r="A1" s="12" t="s">
+        <v>122</v>
+      </c>
+      <c r="B1" s="12" t="s">
+        <v>123</v>
+      </c>
+      <c r="C1" s="12" t="s">
+        <v>124</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.3">
@@ -1459,7 +1343,7 @@
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>204</v>
+        <v>110</v>
       </c>
       <c r="B4" t="str">
         <f>IF(B2="kW","t",IF(B2="MW","kilo t","Mio t"))</f>
@@ -1507,10 +1391,10 @@
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>205</v>
+        <v>111</v>
       </c>
       <c r="B8" t="s">
-        <v>198</v>
+        <v>104</v>
       </c>
       <c r="C8">
         <v>1</v>
@@ -1532,7 +1416,7 @@
   <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+      <selection activeCell="F15" sqref="F15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.44140625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1548,10 +1432,10 @@
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>224</v>
+        <v>118</v>
       </c>
       <c r="B1" t="s">
-        <v>225</v>
+        <v>119</v>
       </c>
       <c r="C1" t="s">
         <v>43</v>
@@ -1560,13 +1444,13 @@
         <v>44</v>
       </c>
       <c r="E1" t="s">
-        <v>226</v>
+        <v>120</v>
       </c>
       <c r="F1" t="s">
-        <v>239</v>
+        <v>133</v>
       </c>
       <c r="G1" t="s">
-        <v>227</v>
+        <v>121</v>
       </c>
       <c r="H1" t="s">
         <v>28</v>
@@ -1580,7 +1464,7 @@
         <v>0.05</v>
       </c>
       <c r="C2" t="s">
-        <v>195</v>
+        <v>101</v>
       </c>
       <c r="E2">
         <v>2015</v>
@@ -1591,13 +1475,13 @@
       <c r="G2">
         <v>5</v>
       </c>
-      <c r="H2" s="11" t="s">
-        <v>196</v>
+      <c r="H2" s="9" t="s">
+        <v>102</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>186</v>
+        <v>240</v>
       </c>
       <c r="B3">
         <v>0.05</v>
@@ -1606,24 +1490,24 @@
         <v>2015</v>
       </c>
       <c r="F3">
-        <v>2015</v>
+        <v>2060</v>
       </c>
       <c r="G3">
         <v>5</v>
       </c>
       <c r="H3" t="s">
-        <v>199</v>
+        <v>105</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>197</v>
+        <v>103</v>
       </c>
       <c r="B4">
         <v>0.05</v>
       </c>
       <c r="C4" t="s">
-        <v>195</v>
+        <v>101</v>
       </c>
       <c r="E4">
         <v>2015</v>
@@ -1635,7 +1519,7 @@
         <v>5</v>
       </c>
       <c r="H4" t="s">
-        <v>196</v>
+        <v>102</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.3">
@@ -1660,7 +1544,7 @@
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>181</v>
+        <v>96</v>
       </c>
       <c r="B6">
         <v>0.05</v>
@@ -1675,7 +1559,7 @@
         <v>5</v>
       </c>
       <c r="H6" t="s">
-        <v>182</v>
+        <v>97</v>
       </c>
     </row>
   </sheetData>
@@ -1689,10 +1573,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A0387EA4-7159-4CF0-ABE0-71D3891C6DB9}">
-  <dimension ref="A1:B27"/>
+  <dimension ref="A1:D21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E32" sqref="E32"/>
+      <selection activeCell="A22" sqref="A22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.44140625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1701,142 +1585,190 @@
     <col min="2" max="2" width="12.77734375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>240</v>
+        <v>134</v>
       </c>
       <c r="B1" t="s">
-        <v>231</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+        <v>125</v>
+      </c>
+      <c r="C1" t="s">
+        <v>144</v>
+      </c>
+      <c r="D1" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>168</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>217</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>166</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
+        <v>88</v>
+      </c>
+      <c r="C6" s="4" t="s">
+        <v>162</v>
+      </c>
+      <c r="D6" s="4">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
+        <v>86</v>
+      </c>
+      <c r="C8" s="4" t="s">
+        <v>161</v>
+      </c>
+      <c r="D8" s="4">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
+        <v>84</v>
+      </c>
+      <c r="C9" s="13" t="s">
+        <v>160</v>
+      </c>
+      <c r="D9" s="4">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
+        <v>19</v>
+      </c>
+      <c r="C10" s="4" t="s">
+        <v>163</v>
+      </c>
+      <c r="D10" s="4">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
+        <v>45</v>
+      </c>
+      <c r="C11" s="4" t="s">
+        <v>164</v>
+      </c>
+      <c r="D11" s="4">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A12" t="s">
+        <v>46</v>
+      </c>
+      <c r="C12" s="14" t="s">
+        <v>152</v>
+      </c>
+      <c r="D12" s="4">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A13" t="s">
+        <v>47</v>
+      </c>
+      <c r="C13" s="4" t="s">
+        <v>151</v>
+      </c>
+      <c r="D13" s="4">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A14" t="s">
+        <v>80</v>
+      </c>
+      <c r="C14" s="13" t="s">
         <v>148</v>
       </c>
-    </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A12" t="s">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A13" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A14" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="D14" s="4">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.3">
+        <v>73</v>
+      </c>
+      <c r="C15" s="13" t="s">
+        <v>148</v>
+      </c>
+      <c r="D15" s="4">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.3">
+        <v>48</v>
+      </c>
+      <c r="C16" s="4" t="s">
+        <v>149</v>
+      </c>
+      <c r="D16" s="4">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.3">
+        <v>18</v>
+      </c>
+      <c r="C17" s="13" t="s">
+        <v>147</v>
+      </c>
+      <c r="D17" s="4">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.3">
+        <v>76</v>
+      </c>
+      <c r="C18" s="4" t="s">
+        <v>159</v>
+      </c>
+      <c r="D18" s="4">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.3">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.3">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="22" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A22" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="23" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A23" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="24" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A24" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="25" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A25" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="26" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A26" t="s">
-        <v>246</v>
-      </c>
-    </row>
-    <row r="27" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A27" t="s">
-        <v>243</v>
+        <v>237</v>
       </c>
     </row>
   </sheetData>
@@ -1850,10 +1782,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{70369A52-6DA6-442B-A9B0-7FE85C1EDFA1}">
-  <dimension ref="A1:B65"/>
+  <dimension ref="A1:D63"/>
   <sheetViews>
-    <sheetView topLeftCell="A34" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A63" sqref="A63"/>
+    <sheetView topLeftCell="A22" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B63" sqref="B63"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.44140625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1862,292 +1794,449 @@
     <col min="2" max="2" width="12.21875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>232</v>
+        <v>126</v>
       </c>
       <c r="B1" t="s">
-        <v>231</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A2" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+        <v>125</v>
+      </c>
+      <c r="C1" t="s">
+        <v>144</v>
+      </c>
+      <c r="D1" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
+        <v>71</v>
+      </c>
+      <c r="C3" s="4" t="s">
+        <v>146</v>
+      </c>
+      <c r="D3" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C4" s="13" t="s">
+        <v>147</v>
+      </c>
+      <c r="D4" s="4">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
+        <v>72</v>
+      </c>
+      <c r="C5" s="13" t="s">
+        <v>148</v>
+      </c>
+      <c r="D5" s="4">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
+        <v>74</v>
+      </c>
+      <c r="C6" s="4" t="s">
+        <v>149</v>
+      </c>
+      <c r="D6" s="4">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
+        <v>75</v>
+      </c>
+      <c r="C7" s="4" t="s">
+        <v>150</v>
+      </c>
+      <c r="D7" s="4">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
+        <v>77</v>
+      </c>
+      <c r="C8" s="4" t="s">
+        <v>151</v>
+      </c>
+      <c r="D8" s="4">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
+        <v>78</v>
+      </c>
+      <c r="C9" s="14" t="s">
+        <v>152</v>
+      </c>
+      <c r="D9" s="4">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.3">
+        <v>79</v>
+      </c>
+      <c r="D11">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.3">
+        <v>81</v>
+      </c>
+      <c r="D13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="D14" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.3">
+        <v>83</v>
+      </c>
+      <c r="D15" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.3">
+        <v>85</v>
+      </c>
+      <c r="D16" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.3">
+        <v>87</v>
+      </c>
+      <c r="D17" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.3">
+        <v>89</v>
+      </c>
+      <c r="D18" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
+        <v>166</v>
+      </c>
+      <c r="D19" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A21" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A22" t="s">
+        <v>223</v>
+      </c>
+      <c r="C22" s="4" t="s">
+        <v>146</v>
+      </c>
+      <c r="D22" s="4">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A23" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A24" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A25" t="s">
+        <v>225</v>
+      </c>
+      <c r="C25" s="9"/>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A26" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" s="9" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A28" t="s">
+        <v>214</v>
+      </c>
+      <c r="D28">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A29" t="s">
+        <v>213</v>
+      </c>
+      <c r="C29" s="4" t="s">
+        <v>165</v>
+      </c>
+      <c r="D29" s="4">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A30" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" s="9" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A32" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" s="9" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="34" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A34" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A35" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A36" t="s">
+        <v>212</v>
+      </c>
+      <c r="C36" s="13" t="s">
+        <v>147</v>
+      </c>
+      <c r="D36" s="4">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4" s="9" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="38" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A38" t="s">
+        <v>168</v>
+      </c>
+      <c r="C38" s="13" t="s">
+        <v>157</v>
+      </c>
+      <c r="D38" s="4">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A39" t="s">
+        <v>167</v>
+      </c>
+      <c r="C39" s="4" t="s">
+        <v>159</v>
+      </c>
+      <c r="D39" s="4">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A40" t="s">
+        <v>169</v>
+      </c>
+      <c r="C40" s="4" t="s">
+        <v>158</v>
+      </c>
+      <c r="D40" s="4">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4" s="9" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="42" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A42" t="s">
+        <v>197</v>
+      </c>
+      <c r="C42" s="4" t="s">
+        <v>153</v>
+      </c>
+      <c r="D42">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A43" t="s">
+        <v>198</v>
+      </c>
+      <c r="C43" s="4" t="s">
+        <v>153</v>
+      </c>
+      <c r="D43" s="9">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A44" t="s">
+        <v>199</v>
+      </c>
+      <c r="C44" s="4" t="s">
+        <v>154</v>
+      </c>
+      <c r="D44" s="9">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A45" t="s">
+        <v>200</v>
+      </c>
+      <c r="C45" s="4" t="s">
+        <v>154</v>
+      </c>
+      <c r="D45">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A46" t="s">
+        <v>201</v>
+      </c>
+      <c r="C46" s="4" t="s">
+        <v>155</v>
+      </c>
+      <c r="D46" s="4">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A47" t="s">
+        <v>202</v>
+      </c>
+      <c r="C47" s="4" t="s">
+        <v>155</v>
+      </c>
+      <c r="D47" s="4">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="48" spans="1:4" s="9" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A48" t="s">
+        <v>175</v>
+      </c>
+      <c r="B48"/>
+      <c r="C48"/>
+      <c r="D48"/>
+    </row>
+    <row r="49" spans="1:4" s="9" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="50" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A50" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="51" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A51" t="s">
+        <v>171</v>
+      </c>
+      <c r="C51" s="4" t="s">
+        <v>149</v>
+      </c>
+      <c r="D51" s="4">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="52" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A52" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="53" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A53" t="s">
+        <v>173</v>
+      </c>
+      <c r="C53" s="13" t="s">
+        <v>147</v>
+      </c>
+      <c r="D53" s="4">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="54" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A54" t="s">
+        <v>174</v>
+      </c>
+      <c r="C54" s="4" t="s">
+        <v>146</v>
+      </c>
+      <c r="D54" s="4">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="56" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A56" t="s">
+        <v>50</v>
+      </c>
+      <c r="C56" s="13" t="s">
+        <v>148</v>
+      </c>
+      <c r="D56" s="4">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="57" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A57" t="s">
+        <v>49</v>
+      </c>
+      <c r="C57" s="4" t="s">
+        <v>156</v>
+      </c>
+      <c r="D57" s="4">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="59" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A59" t="s">
         <v>135</v>
       </c>
     </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A21" t="s">
-        <v>212</v>
-      </c>
-    </row>
-    <row r="22" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A22" t="s">
+    <row r="60" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A60" s="9" t="s">
         <v>136</v>
       </c>
     </row>
-    <row r="23" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A23" t="s">
-        <v>213</v>
-      </c>
-    </row>
-    <row r="24" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A24" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="25" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A25" t="s">
-        <v>218</v>
-      </c>
-    </row>
-    <row r="26" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A26" t="s">
+    <row r="61" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A61" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="62" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A62" t="s">
         <v>139</v>
       </c>
     </row>
-    <row r="28" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A28" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="30" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A30" t="s">
-        <v>214</v>
-      </c>
-    </row>
-    <row r="32" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A32" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="33" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A33" t="s">
-        <v>219</v>
-      </c>
-    </row>
-    <row r="34" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A34" t="s">
-        <v>215</v>
-      </c>
-    </row>
-    <row r="35" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A35" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="36" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A36" t="s">
-        <v>220</v>
-      </c>
-    </row>
-    <row r="37" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A37" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="38" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A38" t="s">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="39" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A39" t="s">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="40" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A40" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="41" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A41" t="s">
-        <v>163</v>
-      </c>
-    </row>
-    <row r="42" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A42" t="s">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="43" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A43" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="44" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A44" t="s">
-        <v>167</v>
-      </c>
-    </row>
-    <row r="45" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A45" t="s">
-        <v>216</v>
-      </c>
-    </row>
-    <row r="46" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A46" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="47" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A47" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="48" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A48" t="s">
-        <v>221</v>
-      </c>
-    </row>
-    <row r="49" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A49" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="50" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A50" t="s">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="51" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A51" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="53" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A53" t="s">
-        <v>222</v>
-      </c>
-    </row>
-    <row r="54" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A54" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="56" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A56" t="s">
-        <v>157</v>
-      </c>
-    </row>
-    <row r="57" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A57" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="58" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A58" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="59" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A59" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="60" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A60" t="s">
-        <v>223</v>
-      </c>
-    </row>
-    <row r="61" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A61" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="62" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A62" t="s">
-        <v>241</v>
-      </c>
-    </row>
-    <row r="63" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A63" s="11" t="s">
-        <v>242</v>
-      </c>
-    </row>
-    <row r="64" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A64" t="s">
-        <v>244</v>
-      </c>
-    </row>
-    <row r="65" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A65" t="s">
-        <v>245</v>
+    <row r="63" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A63" t="s">
+        <v>237</v>
       </c>
     </row>
   </sheetData>
@@ -2160,22 +2249,23 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{042B031A-8F6B-4A01-B2DE-DD19A2E3D336}">
-  <dimension ref="A1:Z92"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{042B031A-8F6B-4A01-B2DE-DD19A2E3D336}">
+  <dimension ref="A1:Z93"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <pane xSplit="4" ySplit="3" topLeftCell="E45" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="4" ySplit="3" topLeftCell="I29" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="F1" sqref="F1"/>
       <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
-      <selection pane="bottomRight" activeCell="B96" sqref="B96"/>
+      <selection pane="bottomRight" activeCell="N34" sqref="N34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="13" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="27.77734375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="17.21875" customWidth="1"/>
-    <col min="3" max="3" width="17.77734375" customWidth="1"/>
-    <col min="4" max="5" width="10.77734375" customWidth="1"/>
+    <col min="2" max="2" width="21.77734375" customWidth="1"/>
+    <col min="3" max="3" width="24.88671875" customWidth="1"/>
+    <col min="4" max="4" width="14" customWidth="1"/>
+    <col min="5" max="5" width="10.77734375" customWidth="1"/>
     <col min="6" max="6" width="14.77734375" customWidth="1"/>
     <col min="7" max="9" width="10.77734375" customWidth="1"/>
     <col min="10" max="10" width="20.21875" customWidth="1"/>
@@ -2199,25 +2289,25 @@
   <sheetData>
     <row r="1" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>232</v>
+        <v>126</v>
       </c>
       <c r="B1" t="s">
-        <v>233</v>
+        <v>127</v>
       </c>
       <c r="C1" t="s">
-        <v>234</v>
+        <v>128</v>
       </c>
       <c r="D1" t="s">
-        <v>235</v>
-      </c>
-      <c r="E1" s="11" t="s">
-        <v>200</v>
-      </c>
-      <c r="F1" s="11" t="s">
-        <v>206</v>
-      </c>
-      <c r="G1" s="11" t="s">
-        <v>201</v>
+        <v>129</v>
+      </c>
+      <c r="E1" s="9" t="s">
+        <v>106</v>
+      </c>
+      <c r="F1" s="9" t="s">
+        <v>112</v>
+      </c>
+      <c r="G1" s="9" t="s">
+        <v>107</v>
       </c>
       <c r="H1" t="s">
         <v>40</v>
@@ -2268,24 +2358,24 @@
         <v>16</v>
       </c>
       <c r="X1" t="s">
-        <v>185</v>
+        <v>100</v>
       </c>
       <c r="Y1" t="s">
-        <v>208</v>
+        <v>114</v>
       </c>
       <c r="Z1" t="s">
-        <v>209</v>
+        <v>115</v>
       </c>
     </row>
     <row r="2" spans="1:26" s="7" customFormat="1" ht="58.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="E2" s="13" t="s">
-        <v>202</v>
-      </c>
-      <c r="F2" s="13" t="s">
-        <v>207</v>
-      </c>
-      <c r="G2" s="13" t="s">
-        <v>203</v>
+      <c r="E2" s="11" t="s">
+        <v>108</v>
+      </c>
+      <c r="F2" s="11" t="s">
+        <v>113</v>
+      </c>
+      <c r="G2" s="11" t="s">
+        <v>109</v>
       </c>
       <c r="K2" s="7" t="s">
         <v>23</v>
@@ -2294,52 +2384,52 @@
         <v>24</v>
       </c>
       <c r="M2" s="7" t="s">
-        <v>236</v>
+        <v>130</v>
       </c>
       <c r="N2" s="7" t="s">
         <v>22</v>
       </c>
       <c r="O2" s="7" t="s">
-        <v>237</v>
+        <v>131</v>
       </c>
       <c r="P2" s="7" t="s">
-        <v>184</v>
+        <v>99</v>
       </c>
       <c r="Q2" s="7" t="s">
-        <v>183</v>
+        <v>98</v>
       </c>
       <c r="R2" s="7" t="s">
-        <v>61</v>
+        <v>51</v>
       </c>
       <c r="S2" s="7" t="s">
-        <v>98</v>
+        <v>58</v>
       </c>
       <c r="T2" s="7" t="s">
-        <v>97</v>
+        <v>57</v>
       </c>
       <c r="U2" s="7" t="s">
-        <v>114</v>
+        <v>69</v>
       </c>
       <c r="V2" s="7" t="s">
-        <v>113</v>
+        <v>68</v>
       </c>
       <c r="W2" s="7" t="s">
-        <v>238</v>
+        <v>132</v>
       </c>
       <c r="X2" s="7" t="s">
-        <v>115</v>
+        <v>70</v>
       </c>
       <c r="Y2" s="7" t="s">
-        <v>210</v>
+        <v>116</v>
       </c>
       <c r="Z2" s="7" t="s">
-        <v>211</v>
+        <v>117</v>
       </c>
     </row>
     <row r="3" spans="1:26" s="1" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="E3" s="12"/>
-      <c r="F3" s="12"/>
-      <c r="G3" s="12"/>
+      <c r="E3" s="10"/>
+      <c r="F3" s="10"/>
+      <c r="G3" s="10"/>
       <c r="H3" s="1" t="s">
         <v>41</v>
       </c>
@@ -2363,10 +2453,10 @@
         <v>25</v>
       </c>
       <c r="P3" s="1" t="s">
-        <v>74</v>
+        <v>53</v>
       </c>
       <c r="Q3" s="1" t="s">
-        <v>73</v>
+        <v>52</v>
       </c>
       <c r="R3" s="1" t="s">
         <v>35</v>
@@ -2381,22 +2471,39 @@
       </c>
     </row>
     <row r="4" spans="1:26" x14ac:dyDescent="0.3">
-      <c r="A4" s="3"/>
-      <c r="B4" s="3"/>
-      <c r="C4" s="10"/>
-      <c r="D4" s="3"/>
+      <c r="A4" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="D4" s="3" t="s">
+        <v>0</v>
+      </c>
       <c r="E4" s="3"/>
       <c r="F4" s="3"/>
       <c r="G4" s="3"/>
-      <c r="I4" s="3"/>
+      <c r="H4" s="5">
+        <v>0</v>
+      </c>
+      <c r="I4" s="3">
+        <v>1</v>
+      </c>
       <c r="J4" s="6"/>
       <c r="K4" s="5"/>
       <c r="N4" s="6"/>
       <c r="O4" s="5"/>
-      <c r="P4" s="6"/>
+      <c r="P4" s="6">
+        <v>20</v>
+      </c>
       <c r="Q4" s="6"/>
       <c r="R4" s="6"/>
-      <c r="S4" s="5"/>
+      <c r="S4" s="5">
+        <v>310</v>
+      </c>
       <c r="T4" s="6"/>
       <c r="U4" s="3"/>
       <c r="V4" s="3"/>
@@ -2407,13 +2514,13 @@
     </row>
     <row r="5" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A5" s="3" t="s">
-        <v>116</v>
+        <v>20</v>
       </c>
       <c r="B5" s="3" t="s">
         <v>17</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>45</v>
+        <v>18</v>
       </c>
       <c r="D5" s="3" t="s">
         <v>0</v>
@@ -2422,7 +2529,7 @@
       <c r="F5" s="3"/>
       <c r="G5" s="3"/>
       <c r="H5" s="5">
-        <v>0</v>
+        <v>0.34</v>
       </c>
       <c r="I5" s="3">
         <v>1</v>
@@ -2431,14 +2538,12 @@
       <c r="K5" s="5"/>
       <c r="N5" s="6"/>
       <c r="O5" s="5"/>
-      <c r="P5" s="6">
-        <v>20</v>
+      <c r="P5" s="6" t="s">
+        <v>183</v>
       </c>
       <c r="Q5" s="6"/>
       <c r="R5" s="6"/>
-      <c r="S5" s="5">
-        <v>310</v>
-      </c>
+      <c r="S5" s="5"/>
       <c r="T5" s="6"/>
       <c r="U5" s="3"/>
       <c r="V5" s="3"/>
@@ -2449,13 +2554,13 @@
     </row>
     <row r="6" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A6" s="3" t="s">
-        <v>20</v>
+        <v>72</v>
       </c>
       <c r="B6" s="3" t="s">
         <v>17</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>18</v>
+        <v>73</v>
       </c>
       <c r="D6" s="3" t="s">
         <v>0</v>
@@ -2464,7 +2569,7 @@
       <c r="F6" s="3"/>
       <c r="G6" s="3"/>
       <c r="H6" s="5">
-        <v>0.36</v>
+        <v>0.27</v>
       </c>
       <c r="I6" s="3">
         <v>1</v>
@@ -2474,7 +2579,7 @@
       <c r="N6" s="6"/>
       <c r="O6" s="5"/>
       <c r="P6" s="6" t="s">
-        <v>75</v>
+        <v>184</v>
       </c>
       <c r="Q6" s="6"/>
       <c r="R6" s="6"/>
@@ -2489,13 +2594,13 @@
     </row>
     <row r="7" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A7" s="3" t="s">
-        <v>117</v>
+        <v>74</v>
       </c>
       <c r="B7" s="3" t="s">
         <v>17</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>118</v>
+        <v>48</v>
       </c>
       <c r="D7" s="3" t="s">
         <v>0</v>
@@ -2504,7 +2609,7 @@
       <c r="F7" s="3"/>
       <c r="G7" s="3"/>
       <c r="H7" s="5">
-        <v>0.26</v>
+        <v>0.4</v>
       </c>
       <c r="I7" s="3">
         <v>1</v>
@@ -2513,8 +2618,8 @@
       <c r="K7" s="5"/>
       <c r="N7" s="6"/>
       <c r="O7" s="5"/>
-      <c r="P7" s="6" t="s">
-        <v>76</v>
+      <c r="P7" s="6">
+        <v>6.1</v>
       </c>
       <c r="Q7" s="6"/>
       <c r="R7" s="6"/>
@@ -2529,13 +2634,13 @@
     </row>
     <row r="8" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A8" s="3" t="s">
-        <v>119</v>
+        <v>75</v>
       </c>
       <c r="B8" s="3" t="s">
         <v>17</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>48</v>
+        <v>76</v>
       </c>
       <c r="D8" s="3" t="s">
         <v>0</v>
@@ -2544,7 +2649,7 @@
       <c r="F8" s="3"/>
       <c r="G8" s="3"/>
       <c r="H8" s="5">
-        <v>0.40400000000000003</v>
+        <v>0.2</v>
       </c>
       <c r="I8" s="3">
         <v>1</v>
@@ -2554,7 +2659,7 @@
       <c r="N8" s="6"/>
       <c r="O8" s="5"/>
       <c r="P8" s="6" t="s">
-        <v>169</v>
+        <v>185</v>
       </c>
       <c r="Q8" s="6"/>
       <c r="R8" s="6"/>
@@ -2569,13 +2674,13 @@
     </row>
     <row r="9" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A9" s="3" t="s">
-        <v>120</v>
+        <v>77</v>
       </c>
       <c r="B9" s="3" t="s">
         <v>17</v>
       </c>
       <c r="C9" s="3" t="s">
-        <v>121</v>
+        <v>47</v>
       </c>
       <c r="D9" s="3" t="s">
         <v>0</v>
@@ -2584,7 +2689,7 @@
       <c r="F9" s="3"/>
       <c r="G9" s="3"/>
       <c r="H9" s="5">
-        <v>0.2</v>
+        <v>0</v>
       </c>
       <c r="I9" s="3">
         <v>1</v>
@@ -2593,9 +2698,6 @@
       <c r="K9" s="5"/>
       <c r="N9" s="6"/>
       <c r="O9" s="5"/>
-      <c r="P9" s="6" t="s">
-        <v>77</v>
-      </c>
       <c r="Q9" s="6"/>
       <c r="R9" s="6"/>
       <c r="S9" s="5"/>
@@ -2609,13 +2711,13 @@
     </row>
     <row r="10" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A10" s="3" t="s">
-        <v>122</v>
+        <v>78</v>
       </c>
       <c r="B10" s="3" t="s">
         <v>17</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D10" s="3" t="s">
         <v>0</v>
@@ -2624,7 +2726,7 @@
       <c r="F10" s="3"/>
       <c r="G10" s="3"/>
       <c r="H10" s="5">
-        <v>0</v>
+        <v>0.38</v>
       </c>
       <c r="I10" s="3">
         <v>1</v>
@@ -2635,7 +2737,9 @@
       <c r="O10" s="5"/>
       <c r="Q10" s="6"/>
       <c r="R10" s="6"/>
-      <c r="S10" s="5"/>
+      <c r="S10" s="5">
+        <v>69</v>
+      </c>
       <c r="T10" s="6"/>
       <c r="U10" s="3"/>
       <c r="V10" s="3"/>
@@ -2644,15 +2748,15 @@
       <c r="Y10" s="6"/>
       <c r="Z10" s="6"/>
     </row>
-    <row r="11" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:26" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A11" s="3" t="s">
-        <v>123</v>
+        <v>135</v>
       </c>
       <c r="B11" s="3" t="s">
         <v>17</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>46</v>
+        <v>140</v>
       </c>
       <c r="D11" s="3" t="s">
         <v>0</v>
@@ -2660,8 +2764,8 @@
       <c r="E11" s="3"/>
       <c r="F11" s="3"/>
       <c r="G11" s="3"/>
-      <c r="H11" s="5">
-        <v>0.28999999999999998</v>
+      <c r="H11" s="6">
+        <v>0</v>
       </c>
       <c r="I11" s="3">
         <v>1</v>
@@ -2670,10 +2774,13 @@
       <c r="K11" s="5"/>
       <c r="N11" s="6"/>
       <c r="O11" s="5"/>
+      <c r="P11" s="6" t="s">
+        <v>141</v>
+      </c>
       <c r="Q11" s="6"/>
       <c r="R11" s="6"/>
-      <c r="S11" s="5">
-        <v>69</v>
+      <c r="S11" s="6">
+        <v>0</v>
       </c>
       <c r="T11" s="6"/>
       <c r="U11" s="3"/>
@@ -2683,40 +2790,22 @@
       <c r="Y11" s="6"/>
       <c r="Z11" s="6"/>
     </row>
-    <row r="12" spans="1:26" s="11" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="3" t="s">
-        <v>241</v>
-      </c>
-      <c r="B12" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="C12" s="3" t="s">
-        <v>246</v>
-      </c>
-      <c r="D12" s="3" t="s">
-        <v>0</v>
-      </c>
+    <row r="12" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="A12" s="3"/>
+      <c r="B12" s="3"/>
+      <c r="C12" s="3"/>
+      <c r="D12" s="3"/>
       <c r="E12" s="3"/>
       <c r="F12" s="3"/>
       <c r="G12" s="3"/>
-      <c r="H12" s="6">
-        <v>0</v>
-      </c>
-      <c r="I12" s="3">
-        <v>1</v>
-      </c>
+      <c r="I12" s="3"/>
       <c r="J12" s="6"/>
       <c r="K12" s="5"/>
       <c r="N12" s="6"/>
       <c r="O12" s="5"/>
-      <c r="P12" s="6" t="s">
-        <v>247</v>
-      </c>
       <c r="Q12" s="6"/>
       <c r="R12" s="6"/>
-      <c r="S12" s="6" t="s">
-        <v>248</v>
-      </c>
+      <c r="S12" s="5"/>
       <c r="T12" s="6"/>
       <c r="U12" s="3"/>
       <c r="V12" s="3"/>
@@ -2726,14 +2815,24 @@
       <c r="Z12" s="6"/>
     </row>
     <row r="13" spans="1:26" x14ac:dyDescent="0.3">
-      <c r="A13" s="3"/>
-      <c r="B13" s="3"/>
-      <c r="C13" s="3"/>
-      <c r="D13" s="3"/>
+      <c r="A13" s="3" t="s">
+        <v>79</v>
+      </c>
+      <c r="B13" s="3" t="s">
+        <v>73</v>
+      </c>
+      <c r="C13" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="D13" s="3" t="s">
+        <v>0</v>
+      </c>
       <c r="E13" s="3"/>
       <c r="F13" s="3"/>
       <c r="G13" s="3"/>
-      <c r="I13" s="3"/>
+      <c r="I13" s="3">
+        <v>0.88</v>
+      </c>
       <c r="J13" s="6"/>
       <c r="K13" s="5"/>
       <c r="N13" s="6"/>
@@ -2749,15 +2848,15 @@
       <c r="Y13" s="6"/>
       <c r="Z13" s="6"/>
     </row>
-    <row r="14" spans="1:26" x14ac:dyDescent="0.3">
-      <c r="A14" s="3" t="s">
-        <v>124</v>
+    <row r="14" spans="1:26" s="9" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A14" s="9" t="s">
+        <v>138</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>118</v>
+        <v>76</v>
       </c>
       <c r="C14" s="3" t="s">
-        <v>125</v>
+        <v>137</v>
       </c>
       <c r="D14" s="3" t="s">
         <v>0</v>
@@ -2766,7 +2865,7 @@
       <c r="F14" s="3"/>
       <c r="G14" s="3"/>
       <c r="I14" s="3">
-        <v>0.88</v>
+        <v>1</v>
       </c>
       <c r="J14" s="6"/>
       <c r="K14" s="5"/>
@@ -2783,15 +2882,15 @@
       <c r="Y14" s="6"/>
       <c r="Z14" s="6"/>
     </row>
-    <row r="15" spans="1:26" s="11" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="11" t="s">
-        <v>244</v>
+    <row r="15" spans="1:26" s="9" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A15" s="9" t="s">
+        <v>139</v>
       </c>
       <c r="B15" s="3" t="s">
-        <v>121</v>
+        <v>140</v>
       </c>
       <c r="C15" s="3" t="s">
-        <v>243</v>
+        <v>137</v>
       </c>
       <c r="D15" s="3" t="s">
         <v>0</v>
@@ -2817,25 +2916,15 @@
       <c r="Y15" s="6"/>
       <c r="Z15" s="6"/>
     </row>
-    <row r="16" spans="1:26" s="11" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="11" t="s">
-        <v>245</v>
-      </c>
-      <c r="B16" s="3" t="s">
-        <v>246</v>
-      </c>
-      <c r="C16" s="3" t="s">
-        <v>243</v>
-      </c>
-      <c r="D16" s="3" t="s">
-        <v>0</v>
-      </c>
+    <row r="16" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="A16" s="3"/>
+      <c r="B16" s="3"/>
+      <c r="C16" s="3"/>
+      <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
       <c r="G16" s="3"/>
-      <c r="I16" s="3">
-        <v>1</v>
-      </c>
+      <c r="I16" s="3"/>
       <c r="J16" s="6"/>
       <c r="K16" s="5"/>
       <c r="N16" s="6"/>
@@ -2852,35 +2941,48 @@
       <c r="Z16" s="6"/>
     </row>
     <row r="17" spans="1:26" x14ac:dyDescent="0.3">
-      <c r="A17" s="3"/>
-      <c r="B17" s="3"/>
-      <c r="C17" s="3"/>
-      <c r="D17" s="3"/>
+      <c r="A17" s="3" t="s">
+        <v>81</v>
+      </c>
+      <c r="B17" s="3" t="s">
+        <v>82</v>
+      </c>
+      <c r="C17" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="D17" s="3" t="s">
+        <v>0</v>
+      </c>
       <c r="E17" s="3"/>
       <c r="F17" s="3"/>
       <c r="G17" s="3"/>
-      <c r="I17" s="3"/>
+      <c r="I17" s="3">
+        <v>1</v>
+      </c>
       <c r="J17" s="6"/>
       <c r="K17" s="5"/>
       <c r="N17" s="6"/>
       <c r="O17" s="5"/>
       <c r="Q17" s="6"/>
       <c r="R17" s="6"/>
-      <c r="S17" s="5"/>
-      <c r="T17" s="6"/>
+      <c r="T17" s="5" t="s">
+        <v>186</v>
+      </c>
       <c r="U17" s="3"/>
       <c r="V17" s="3"/>
       <c r="W17" s="3"/>
       <c r="X17" s="3"/>
-      <c r="Y17" s="6"/>
+      <c r="Y17" s="6" t="s">
+        <v>59</v>
+      </c>
       <c r="Z17" s="6"/>
     </row>
     <row r="18" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A18" s="3" t="s">
-        <v>126</v>
+        <v>21</v>
       </c>
       <c r="B18" s="3" t="s">
-        <v>127</v>
+        <v>19</v>
       </c>
       <c r="C18" s="3" t="s">
         <v>17</v>
@@ -2901,23 +3003,23 @@
       <c r="Q18" s="6"/>
       <c r="R18" s="6"/>
       <c r="T18" s="5">
-        <v>720</v>
+        <v>511</v>
       </c>
       <c r="U18" s="3"/>
       <c r="V18" s="3"/>
       <c r="W18" s="3"/>
       <c r="X18" s="3"/>
       <c r="Y18" s="6" t="s">
-        <v>99</v>
+        <v>60</v>
       </c>
       <c r="Z18" s="6"/>
     </row>
     <row r="19" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A19" s="3" t="s">
-        <v>21</v>
+        <v>83</v>
       </c>
       <c r="B19" s="3" t="s">
-        <v>19</v>
+        <v>84</v>
       </c>
       <c r="C19" s="3" t="s">
         <v>17</v>
@@ -2938,23 +3040,23 @@
       <c r="Q19" s="6"/>
       <c r="R19" s="6"/>
       <c r="T19" s="5">
-        <v>556</v>
+        <v>250</v>
       </c>
       <c r="U19" s="3"/>
       <c r="V19" s="3"/>
       <c r="W19" s="3"/>
       <c r="X19" s="3"/>
       <c r="Y19" s="6" t="s">
-        <v>100</v>
+        <v>61</v>
       </c>
       <c r="Z19" s="6"/>
     </row>
     <row r="20" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A20" s="3" t="s">
-        <v>128</v>
+        <v>85</v>
       </c>
       <c r="B20" s="3" t="s">
-        <v>129</v>
+        <v>86</v>
       </c>
       <c r="C20" s="3" t="s">
         <v>17</v>
@@ -2975,23 +3077,23 @@
       <c r="Q20" s="6"/>
       <c r="R20" s="6"/>
       <c r="T20" s="5">
-        <v>250</v>
+        <v>245</v>
       </c>
       <c r="U20" s="3"/>
       <c r="V20" s="3"/>
       <c r="W20" s="3"/>
       <c r="X20" s="3"/>
       <c r="Y20" s="6" t="s">
-        <v>101</v>
+        <v>61</v>
       </c>
       <c r="Z20" s="6"/>
     </row>
     <row r="21" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A21" s="3" t="s">
-        <v>130</v>
+        <v>87</v>
       </c>
       <c r="B21" s="3" t="s">
-        <v>131</v>
+        <v>88</v>
       </c>
       <c r="C21" s="3" t="s">
         <v>17</v>
@@ -3012,23 +3114,23 @@
       <c r="Q21" s="6"/>
       <c r="R21" s="6"/>
       <c r="T21" s="5">
-        <v>245</v>
+        <v>210</v>
       </c>
       <c r="U21" s="3"/>
       <c r="V21" s="3"/>
       <c r="W21" s="3"/>
       <c r="X21" s="3"/>
       <c r="Y21" s="6" t="s">
-        <v>101</v>
+        <v>61</v>
       </c>
       <c r="Z21" s="6"/>
     </row>
     <row r="22" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A22" s="3" t="s">
-        <v>132</v>
+        <v>89</v>
       </c>
       <c r="B22" s="3" t="s">
-        <v>133</v>
+        <v>19</v>
       </c>
       <c r="C22" s="3" t="s">
         <v>17</v>
@@ -3049,23 +3151,23 @@
       <c r="Q22" s="6"/>
       <c r="R22" s="6"/>
       <c r="T22" s="5">
-        <v>209</v>
+        <v>11</v>
       </c>
       <c r="U22" s="3"/>
       <c r="V22" s="3"/>
       <c r="W22" s="3"/>
       <c r="X22" s="3"/>
       <c r="Y22" s="6" t="s">
-        <v>101</v>
+        <v>61</v>
       </c>
       <c r="Z22" s="6"/>
     </row>
     <row r="23" spans="1:26" x14ac:dyDescent="0.3">
-      <c r="A23" s="3" t="s">
-        <v>134</v>
+      <c r="A23" s="9" t="s">
+        <v>166</v>
       </c>
       <c r="B23" s="3" t="s">
-        <v>19</v>
+        <v>80</v>
       </c>
       <c r="C23" s="3" t="s">
         <v>17</v>
@@ -3086,69 +3188,79 @@
       <c r="Q23" s="6"/>
       <c r="R23" s="6"/>
       <c r="T23" s="5">
-        <v>11</v>
+        <v>135</v>
       </c>
       <c r="U23" s="3"/>
       <c r="V23" s="3"/>
       <c r="W23" s="3"/>
       <c r="X23" s="3"/>
       <c r="Y23" s="6" t="s">
-        <v>101</v>
+        <v>61</v>
       </c>
       <c r="Z23" s="6"/>
     </row>
     <row r="24" spans="1:26" x14ac:dyDescent="0.3">
-      <c r="A24" s="3" t="s">
-        <v>135</v>
-      </c>
-      <c r="B24" s="3" t="s">
-        <v>125</v>
-      </c>
-      <c r="C24" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="D24" s="3" t="s">
-        <v>0</v>
-      </c>
+      <c r="A24" s="3"/>
+      <c r="B24" s="3"/>
+      <c r="C24" s="3"/>
+      <c r="D24" s="3"/>
       <c r="E24" s="3"/>
       <c r="F24" s="3"/>
       <c r="G24" s="3"/>
-      <c r="I24" s="3">
-        <v>1</v>
-      </c>
+      <c r="I24" s="3"/>
       <c r="J24" s="6"/>
       <c r="K24" s="5"/>
       <c r="N24" s="6"/>
       <c r="O24" s="5"/>
       <c r="Q24" s="6"/>
       <c r="R24" s="6"/>
-      <c r="T24" s="5">
-        <v>135</v>
-      </c>
+      <c r="S24" s="5"/>
+      <c r="T24" s="6"/>
       <c r="U24" s="3"/>
       <c r="V24" s="3"/>
       <c r="W24" s="3"/>
       <c r="X24" s="3"/>
-      <c r="Y24" s="6" t="s">
-        <v>101</v>
-      </c>
+      <c r="Y24" s="6"/>
       <c r="Z24" s="6"/>
     </row>
     <row r="25" spans="1:26" x14ac:dyDescent="0.3">
-      <c r="A25" s="3"/>
-      <c r="B25" s="3"/>
-      <c r="C25" s="3"/>
-      <c r="D25" s="3"/>
+      <c r="A25" s="3" t="s">
+        <v>174</v>
+      </c>
+      <c r="B25" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="C25" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="D25" s="3" t="s">
+        <v>0</v>
+      </c>
       <c r="E25" s="3"/>
       <c r="F25" s="3"/>
       <c r="G25" s="3"/>
-      <c r="I25" s="3"/>
-      <c r="J25" s="6"/>
-      <c r="K25" s="5"/>
-      <c r="N25" s="6"/>
-      <c r="O25" s="5"/>
-      <c r="Q25" s="6"/>
-      <c r="R25" s="6"/>
+      <c r="I25" s="3">
+        <v>0.3</v>
+      </c>
+      <c r="J25" s="6">
+        <v>0.86</v>
+      </c>
+      <c r="K25" s="5" t="s">
+        <v>188</v>
+      </c>
+      <c r="L25" s="6"/>
+      <c r="N25" s="6" t="s">
+        <v>193</v>
+      </c>
+      <c r="O25" s="5">
+        <v>30</v>
+      </c>
+      <c r="Q25" s="6">
+        <v>165</v>
+      </c>
+      <c r="R25" s="6" t="s">
+        <v>187</v>
+      </c>
       <c r="S25" s="5"/>
       <c r="T25" s="6"/>
       <c r="U25" s="3"/>
@@ -3160,10 +3272,10 @@
     </row>
     <row r="26" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A26" s="3" t="s">
-        <v>219</v>
+        <v>173</v>
       </c>
       <c r="B26" s="3" t="s">
-        <v>45</v>
+        <v>18</v>
       </c>
       <c r="C26" s="3" t="s">
         <v>19</v>
@@ -3175,26 +3287,26 @@
       <c r="F26" s="3"/>
       <c r="G26" s="3"/>
       <c r="I26" s="3">
-        <v>0.3</v>
-      </c>
-      <c r="J26" s="6"/>
-      <c r="K26" s="6" t="s">
-        <v>78</v>
-      </c>
-      <c r="L26" s="6" t="s">
-        <v>78</v>
-      </c>
+        <v>0.38</v>
+      </c>
+      <c r="J26" s="6">
+        <v>0.86</v>
+      </c>
+      <c r="K26" s="5" t="s">
+        <v>189</v>
+      </c>
+      <c r="L26" s="5"/>
       <c r="N26" s="6" t="s">
-        <v>187</v>
+        <v>194</v>
       </c>
       <c r="O26" s="5">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="Q26" s="6">
-        <v>165</v>
+        <v>20</v>
       </c>
       <c r="R26" s="6">
-        <v>3300</v>
+        <v>1500</v>
       </c>
       <c r="S26" s="5"/>
       <c r="T26" s="6"/>
@@ -3202,17 +3314,15 @@
       <c r="V26" s="3"/>
       <c r="W26" s="3"/>
       <c r="X26" s="3"/>
-      <c r="Y26" s="6" t="s">
-        <v>101</v>
-      </c>
+      <c r="Y26" s="6"/>
       <c r="Z26" s="6"/>
     </row>
     <row r="27" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A27" s="3" t="s">
-        <v>220</v>
+        <v>172</v>
       </c>
       <c r="B27" s="3" t="s">
-        <v>18</v>
+        <v>137</v>
       </c>
       <c r="C27" s="3" t="s">
         <v>19</v>
@@ -3224,28 +3334,26 @@
       <c r="F27" s="3"/>
       <c r="G27" s="3"/>
       <c r="I27" s="3">
-        <v>0.38</v>
+        <v>0.4</v>
       </c>
       <c r="J27" s="6">
-        <v>0.75</v>
+        <v>0.95</v>
       </c>
       <c r="K27" s="5" t="s">
-        <v>79</v>
-      </c>
-      <c r="L27" s="5" t="s">
-        <v>79</v>
-      </c>
+        <v>190</v>
+      </c>
+      <c r="L27" s="5"/>
       <c r="N27" s="6" t="s">
-        <v>190</v>
+        <v>195</v>
       </c>
       <c r="O27" s="5">
-        <v>40</v>
+        <v>25</v>
       </c>
       <c r="Q27" s="6">
-        <v>20</v>
+        <v>13</v>
       </c>
       <c r="R27" s="6">
-        <v>1500</v>
+        <v>400</v>
       </c>
       <c r="S27" s="5"/>
       <c r="T27" s="6"/>
@@ -3258,10 +3366,10 @@
     </row>
     <row r="28" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A28" s="3" t="s">
-        <v>221</v>
+        <v>171</v>
       </c>
       <c r="B28" s="3" t="s">
-        <v>243</v>
+        <v>48</v>
       </c>
       <c r="C28" s="3" t="s">
         <v>19</v>
@@ -3273,28 +3381,26 @@
       <c r="F28" s="3"/>
       <c r="G28" s="3"/>
       <c r="I28" s="3">
-        <v>0.4</v>
+        <v>0.37</v>
       </c>
       <c r="J28" s="6">
-        <v>0.95</v>
+        <v>0.76</v>
       </c>
       <c r="K28" s="5" t="s">
-        <v>80</v>
-      </c>
-      <c r="L28" s="5" t="s">
-        <v>80</v>
-      </c>
+        <v>191</v>
+      </c>
+      <c r="L28" s="5"/>
       <c r="N28" s="6" t="s">
-        <v>191</v>
+        <v>196</v>
       </c>
       <c r="O28" s="5">
-        <v>25</v>
+        <v>40</v>
       </c>
       <c r="Q28" s="6">
-        <v>14.25</v>
+        <v>50</v>
       </c>
       <c r="R28" s="6">
-        <v>400</v>
+        <v>1600</v>
       </c>
       <c r="S28" s="5"/>
       <c r="T28" s="6"/>
@@ -3307,10 +3413,10 @@
     </row>
     <row r="29" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A29" s="3" t="s">
-        <v>222</v>
+        <v>170</v>
       </c>
       <c r="B29" s="3" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C29" s="3" t="s">
         <v>19</v>
@@ -3322,28 +3428,26 @@
       <c r="F29" s="3"/>
       <c r="G29" s="3"/>
       <c r="I29" s="3">
-        <v>0.35</v>
+        <v>0.33</v>
       </c>
       <c r="J29" s="6">
-        <v>0.75</v>
+        <v>0.95</v>
       </c>
       <c r="K29" s="5" t="s">
-        <v>81</v>
-      </c>
-      <c r="L29" s="5" t="s">
-        <v>81</v>
-      </c>
+        <v>192</v>
+      </c>
+      <c r="L29" s="5"/>
       <c r="N29" s="6" t="s">
         <v>192</v>
       </c>
       <c r="O29" s="5">
-        <v>40</v>
+        <v>60</v>
       </c>
       <c r="Q29" s="6">
-        <v>50</v>
+        <v>102</v>
       </c>
       <c r="R29" s="6">
-        <v>1600</v>
+        <v>3323</v>
       </c>
       <c r="S29" s="5"/>
       <c r="T29" s="6"/>
@@ -3351,49 +3455,27 @@
       <c r="V29" s="3"/>
       <c r="W29" s="3"/>
       <c r="X29" s="3"/>
-      <c r="Y29" s="6"/>
+      <c r="Y29" s="6" t="s">
+        <v>61</v>
+      </c>
       <c r="Z29" s="6"/>
     </row>
     <row r="30" spans="1:26" x14ac:dyDescent="0.3">
-      <c r="A30" s="3" t="s">
-        <v>223</v>
-      </c>
-      <c r="B30" s="3" t="s">
-        <v>47</v>
-      </c>
-      <c r="C30" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="D30" s="3" t="s">
-        <v>0</v>
-      </c>
+      <c r="A30" s="3"/>
+      <c r="B30" s="3"/>
+      <c r="C30" s="3"/>
+      <c r="D30" s="3"/>
       <c r="E30" s="3"/>
       <c r="F30" s="3"/>
       <c r="G30" s="3"/>
-      <c r="I30" s="3">
-        <v>0.33</v>
-      </c>
-      <c r="J30" s="6">
-        <v>0.98</v>
-      </c>
-      <c r="K30" s="5" t="s">
-        <v>82</v>
-      </c>
-      <c r="L30" s="5" t="s">
-        <v>94</v>
-      </c>
-      <c r="N30" s="6" t="s">
-        <v>94</v>
-      </c>
-      <c r="O30" s="5">
-        <v>60</v>
-      </c>
-      <c r="Q30" s="6">
-        <v>102</v>
-      </c>
-      <c r="R30" s="6">
-        <v>3323</v>
-      </c>
+      <c r="I30" s="3"/>
+      <c r="J30" s="6"/>
+      <c r="K30" s="5"/>
+      <c r="L30" s="5"/>
+      <c r="N30" s="6"/>
+      <c r="O30" s="5"/>
+      <c r="Q30" s="6"/>
+      <c r="R30" s="6"/>
       <c r="S30" s="5"/>
       <c r="T30" s="6"/>
       <c r="U30" s="3"/>
@@ -3404,20 +3486,36 @@
       <c r="Z30" s="6"/>
     </row>
     <row r="31" spans="1:26" x14ac:dyDescent="0.3">
-      <c r="A31" s="3"/>
-      <c r="B31" s="3"/>
-      <c r="C31" s="3"/>
-      <c r="D31" s="3"/>
+      <c r="A31" s="9" t="s">
+        <v>201</v>
+      </c>
+      <c r="B31" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="C31" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="D31" s="3" t="s">
+        <v>0</v>
+      </c>
       <c r="E31" s="3"/>
       <c r="F31" s="3"/>
       <c r="G31" s="3"/>
-      <c r="I31" s="3"/>
+      <c r="I31" s="3">
+        <v>1</v>
+      </c>
       <c r="J31" s="6"/>
-      <c r="K31" s="5"/>
-      <c r="L31" s="5"/>
-      <c r="N31" s="6"/>
+      <c r="K31" s="5" t="s">
+        <v>206</v>
+      </c>
+      <c r="L31" s="6"/>
+      <c r="N31" s="6" t="s">
+        <v>206</v>
+      </c>
       <c r="O31" s="5"/>
-      <c r="Q31" s="6"/>
+      <c r="Q31" s="6">
+        <v>15</v>
+      </c>
       <c r="R31" s="6"/>
       <c r="S31" s="5"/>
       <c r="T31" s="6"/>
@@ -3426,11 +3524,13 @@
       <c r="W31" s="3"/>
       <c r="X31" s="3"/>
       <c r="Y31" s="6"/>
-      <c r="Z31" s="6"/>
+      <c r="Z31" s="6" t="s">
+        <v>66</v>
+      </c>
     </row>
     <row r="32" spans="1:26" x14ac:dyDescent="0.3">
-      <c r="A32" s="3" t="s">
-        <v>212</v>
+      <c r="A32" s="9" t="s">
+        <v>202</v>
       </c>
       <c r="B32" s="3" t="s">
         <v>17</v>
@@ -3448,23 +3548,21 @@
         <v>1</v>
       </c>
       <c r="J32" s="6"/>
-      <c r="K32" s="5" t="s">
-        <v>83</v>
-      </c>
-      <c r="L32" s="5" t="s">
-        <v>193</v>
-      </c>
-      <c r="N32" s="5" t="s">
-        <v>194</v>
+      <c r="K32" s="5">
+        <v>0</v>
+      </c>
+      <c r="L32" s="6"/>
+      <c r="N32" s="6" t="s">
+        <v>209</v>
       </c>
       <c r="O32" s="5">
         <v>25</v>
       </c>
-      <c r="Q32" s="6" t="s">
-        <v>62</v>
+      <c r="Q32" s="6">
+        <v>15</v>
       </c>
       <c r="R32" s="6" t="s">
-        <v>51</v>
+        <v>203</v>
       </c>
       <c r="S32" s="5"/>
       <c r="T32" s="6"/>
@@ -3473,13 +3571,13 @@
       <c r="W32" s="3"/>
       <c r="X32" s="3"/>
       <c r="Y32" s="6"/>
-      <c r="Z32" s="6" t="s">
-        <v>102</v>
+      <c r="Z32" s="8" t="s">
+        <v>67</v>
       </c>
     </row>
     <row r="33" spans="1:26" x14ac:dyDescent="0.3">
-      <c r="A33" s="3" t="s">
-        <v>136</v>
+      <c r="A33" s="9" t="s">
+        <v>175</v>
       </c>
       <c r="B33" s="3" t="s">
         <v>17</v>
@@ -3497,19 +3595,21 @@
         <v>1</v>
       </c>
       <c r="J33" s="6"/>
-      <c r="K33" s="5"/>
-      <c r="L33" s="5"/>
-      <c r="N33" s="6" t="s">
-        <v>188</v>
+      <c r="K33" s="5">
+        <v>3.8</v>
+      </c>
+      <c r="L33" s="6"/>
+      <c r="N33" s="6">
+        <v>3.8</v>
       </c>
       <c r="O33" s="5">
-        <v>25</v>
+        <v>100</v>
       </c>
       <c r="Q33" s="6">
-        <v>93</v>
-      </c>
-      <c r="R33" s="6" t="s">
-        <v>170</v>
+        <v>12</v>
+      </c>
+      <c r="R33" s="6">
+        <v>5000</v>
       </c>
       <c r="S33" s="5"/>
       <c r="T33" s="6"/>
@@ -3518,13 +3618,11 @@
       <c r="W33" s="3"/>
       <c r="X33" s="3"/>
       <c r="Y33" s="6"/>
-      <c r="Z33" s="6" t="s">
-        <v>103</v>
-      </c>
+      <c r="Z33" s="6"/>
     </row>
     <row r="34" spans="1:26" x14ac:dyDescent="0.3">
-      <c r="A34" s="3" t="s">
-        <v>213</v>
+      <c r="A34" s="9" t="s">
+        <v>197</v>
       </c>
       <c r="B34" s="3" t="s">
         <v>17</v>
@@ -3543,23 +3641,19 @@
       </c>
       <c r="J34" s="6"/>
       <c r="K34" s="5" t="s">
-        <v>84</v>
-      </c>
-      <c r="L34" s="5" t="s">
-        <v>84</v>
-      </c>
-      <c r="N34" s="5" t="s">
-        <v>84</v>
-      </c>
-      <c r="O34" s="5">
-        <v>25</v>
-      </c>
-      <c r="Q34" s="6" t="s">
-        <v>63</v>
-      </c>
-      <c r="R34" s="6" t="s">
-        <v>52</v>
-      </c>
+        <v>207</v>
+      </c>
+      <c r="L34" s="6" t="s">
+        <v>207</v>
+      </c>
+      <c r="N34" s="6" t="s">
+        <v>207</v>
+      </c>
+      <c r="O34" s="5"/>
+      <c r="Q34" s="6">
+        <v>93</v>
+      </c>
+      <c r="R34" s="6"/>
       <c r="S34" s="5"/>
       <c r="T34" s="6"/>
       <c r="U34" s="3"/>
@@ -3568,12 +3662,12 @@
       <c r="X34" s="3"/>
       <c r="Y34" s="6"/>
       <c r="Z34" s="6" t="s">
-        <v>104</v>
+        <v>62</v>
       </c>
     </row>
     <row r="35" spans="1:26" x14ac:dyDescent="0.3">
-      <c r="A35" s="3" t="s">
-        <v>137</v>
+      <c r="A35" s="9" t="s">
+        <v>198</v>
       </c>
       <c r="B35" s="3" t="s">
         <v>17</v>
@@ -3594,20 +3688,18 @@
       <c r="K35" s="5">
         <v>0</v>
       </c>
-      <c r="L35" s="5">
-        <v>0</v>
-      </c>
+      <c r="L35" s="6"/>
       <c r="N35" s="6" t="s">
-        <v>189</v>
+        <v>242</v>
       </c>
       <c r="O35" s="5">
         <v>25</v>
       </c>
       <c r="Q35" s="6">
-        <v>13</v>
+        <v>93</v>
       </c>
       <c r="R35" s="6" t="s">
-        <v>175</v>
+        <v>204</v>
       </c>
       <c r="S35" s="5"/>
       <c r="T35" s="6"/>
@@ -3617,12 +3709,12 @@
       <c r="X35" s="3"/>
       <c r="Y35" s="6"/>
       <c r="Z35" s="6" t="s">
-        <v>105</v>
+        <v>63</v>
       </c>
     </row>
     <row r="36" spans="1:26" x14ac:dyDescent="0.3">
-      <c r="A36" s="3" t="s">
-        <v>138</v>
+      <c r="A36" s="9" t="s">
+        <v>199</v>
       </c>
       <c r="B36" s="3" t="s">
         <v>17</v>
@@ -3640,40 +3732,34 @@
         <v>1</v>
       </c>
       <c r="J36" s="6"/>
-      <c r="K36" s="5">
-        <v>3.8388200000000001</v>
-      </c>
-      <c r="L36" s="5">
-        <v>3.8388200000000001</v>
-      </c>
-      <c r="N36" s="5">
-        <v>3.8388200000000001</v>
-      </c>
-      <c r="O36" s="5">
-        <v>100</v>
-      </c>
+      <c r="K36" s="5" t="s">
+        <v>208</v>
+      </c>
+      <c r="L36" s="6" t="s">
+        <v>208</v>
+      </c>
+      <c r="N36" s="6" t="s">
+        <v>208</v>
+      </c>
+      <c r="O36" s="5"/>
       <c r="Q36" s="6">
-        <v>12</v>
-      </c>
-      <c r="R36" s="6">
-        <v>5000</v>
-      </c>
-      <c r="S36" s="5" t="s">
-        <v>96</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="R36" s="6"/>
+      <c r="S36" s="5"/>
       <c r="T36" s="6"/>
       <c r="U36" s="3"/>
       <c r="V36" s="3"/>
       <c r="W36" s="3"/>
       <c r="X36" s="3"/>
-      <c r="Y36" s="6" t="s">
-        <v>101</v>
-      </c>
-      <c r="Z36" s="6"/>
+      <c r="Y36" s="6"/>
+      <c r="Z36" s="6" t="s">
+        <v>64</v>
+      </c>
     </row>
     <row r="37" spans="1:26" x14ac:dyDescent="0.3">
-      <c r="A37" s="3" t="s">
-        <v>218</v>
+      <c r="A37" s="9" t="s">
+        <v>200</v>
       </c>
       <c r="B37" s="3" t="s">
         <v>17</v>
@@ -3691,23 +3777,21 @@
         <v>1</v>
       </c>
       <c r="J37" s="6"/>
-      <c r="K37" s="5" t="s">
-        <v>85</v>
-      </c>
-      <c r="L37" s="5" t="s">
-        <v>85</v>
-      </c>
-      <c r="N37" s="5" t="s">
-        <v>85</v>
+      <c r="K37" s="5">
+        <v>0</v>
+      </c>
+      <c r="L37" s="6"/>
+      <c r="N37" s="6" t="s">
+        <v>241</v>
       </c>
       <c r="O37" s="5">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="Q37" s="6">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="R37" s="6" t="s">
-        <v>53</v>
+        <v>205</v>
       </c>
       <c r="S37" s="5"/>
       <c r="T37" s="6"/>
@@ -3717,91 +3801,18 @@
       <c r="X37" s="3"/>
       <c r="Y37" s="6"/>
       <c r="Z37" s="6" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="38" spans="1:26" x14ac:dyDescent="0.3">
-      <c r="A38" s="3" t="s">
-        <v>139</v>
-      </c>
-      <c r="B38" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="C38" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="D38" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="E38" s="3"/>
-      <c r="F38" s="3"/>
-      <c r="G38" s="3"/>
-      <c r="I38" s="3">
-        <v>1</v>
-      </c>
-      <c r="J38" s="6"/>
-      <c r="K38" s="5">
-        <v>0</v>
-      </c>
-      <c r="L38" s="5">
-        <v>0</v>
-      </c>
-      <c r="N38" s="6" t="s">
-        <v>86</v>
-      </c>
-      <c r="O38" s="5">
-        <v>25</v>
-      </c>
-      <c r="Q38" s="6">
-        <v>15</v>
-      </c>
-      <c r="R38" s="6" t="s">
-        <v>171</v>
-      </c>
-      <c r="S38" s="5"/>
-      <c r="T38" s="6"/>
-      <c r="U38" s="3"/>
-      <c r="V38" s="3"/>
-      <c r="W38" s="3"/>
-      <c r="X38" s="3"/>
-      <c r="Y38" s="6"/>
-      <c r="Z38" s="9" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="39" spans="1:26" x14ac:dyDescent="0.3">
-      <c r="A39" s="3"/>
-      <c r="B39" s="3"/>
-      <c r="C39" s="3"/>
-      <c r="D39" s="3"/>
-      <c r="E39" s="3"/>
-      <c r="F39" s="3"/>
-      <c r="G39" s="3"/>
-      <c r="I39" s="3"/>
-      <c r="J39" s="6"/>
-      <c r="K39" s="5"/>
-      <c r="N39" s="6"/>
-      <c r="O39" s="5"/>
-      <c r="Q39" s="6"/>
-      <c r="R39" s="6"/>
-      <c r="S39" s="5"/>
-      <c r="T39" s="6"/>
-      <c r="U39" s="3"/>
-      <c r="V39" s="3"/>
-      <c r="W39" s="3"/>
-      <c r="X39" s="3"/>
-      <c r="Y39" s="6"/>
-      <c r="Z39" s="6"/>
+        <v>65</v>
+      </c>
     </row>
     <row r="40" spans="1:26" x14ac:dyDescent="0.3">
-      <c r="A40" s="3" t="s">
-        <v>140</v>
+      <c r="A40" s="9" t="s">
+        <v>212</v>
       </c>
       <c r="B40" s="3" t="s">
         <v>18</v>
       </c>
       <c r="C40" s="3" t="s">
-        <v>129</v>
+        <v>84</v>
       </c>
       <c r="D40" s="3" t="s">
         <v>0</v>
@@ -3810,7 +3821,7 @@
       <c r="F40" s="3"/>
       <c r="G40" s="3"/>
       <c r="I40" s="3">
-        <v>0.85</v>
+        <v>0.83</v>
       </c>
       <c r="J40" s="6"/>
       <c r="K40" s="5"/>
@@ -3818,8 +3829,8 @@
       <c r="O40" s="5">
         <v>15</v>
       </c>
-      <c r="Q40" s="6" t="s">
-        <v>176</v>
+      <c r="Q40" s="6">
+        <v>3.2</v>
       </c>
       <c r="R40" s="6">
         <v>220</v>
@@ -3838,14 +3849,14 @@
       <c r="Z40" s="6"/>
     </row>
     <row r="41" spans="1:26" x14ac:dyDescent="0.3">
-      <c r="A41" s="3" t="s">
-        <v>141</v>
+      <c r="A41" s="9" t="s">
+        <v>211</v>
       </c>
       <c r="B41" s="3" t="s">
-        <v>243</v>
+        <v>19</v>
       </c>
       <c r="C41" s="3" t="s">
-        <v>129</v>
+        <v>84</v>
       </c>
       <c r="D41" s="3" t="s">
         <v>0</v>
@@ -3854,38 +3865,42 @@
       <c r="F41" s="3"/>
       <c r="G41" s="3"/>
       <c r="I41" s="3">
-        <v>0.95</v>
+        <v>1</v>
       </c>
       <c r="J41" s="6"/>
       <c r="K41" s="5"/>
       <c r="N41" s="6"/>
       <c r="O41" s="5">
-        <v>15</v>
-      </c>
-      <c r="Q41" s="6" t="s">
-        <v>65</v>
+        <v>13</v>
+      </c>
+      <c r="Q41" s="6">
+        <v>0</v>
       </c>
       <c r="R41" s="6">
-        <v>15</v>
+        <v>60</v>
       </c>
       <c r="S41" s="5"/>
-      <c r="T41" s="6"/>
+      <c r="T41" s="6">
+        <v>40</v>
+      </c>
       <c r="U41" s="3"/>
       <c r="V41" s="3"/>
       <c r="W41" s="3"/>
       <c r="X41" s="3"/>
-      <c r="Y41" s="6"/>
+      <c r="Y41" s="6" t="s">
+        <v>61</v>
+      </c>
       <c r="Z41" s="6"/>
     </row>
     <row r="42" spans="1:26" x14ac:dyDescent="0.3">
-      <c r="A42" s="3" t="s">
-        <v>142</v>
+      <c r="A42" s="9" t="s">
+        <v>210</v>
       </c>
       <c r="B42" s="3" t="s">
-        <v>19</v>
+        <v>137</v>
       </c>
       <c r="C42" s="3" t="s">
-        <v>129</v>
+        <v>84</v>
       </c>
       <c r="D42" s="3" t="s">
         <v>0</v>
@@ -3894,66 +3909,38 @@
       <c r="F42" s="3"/>
       <c r="G42" s="3"/>
       <c r="I42" s="3">
-        <v>1</v>
+        <v>0.95</v>
       </c>
       <c r="J42" s="6"/>
       <c r="K42" s="5"/>
       <c r="N42" s="6"/>
       <c r="O42" s="5">
-        <v>12.5</v>
+        <v>15</v>
       </c>
       <c r="Q42" s="6">
-        <v>0</v>
+        <v>0.2</v>
       </c>
       <c r="R42" s="6">
-        <v>60</v>
+        <v>15</v>
       </c>
       <c r="S42" s="5"/>
-      <c r="T42" s="6">
-        <v>40.061100000000003</v>
-      </c>
+      <c r="T42" s="6"/>
       <c r="U42" s="3"/>
       <c r="V42" s="3"/>
       <c r="W42" s="3"/>
       <c r="X42" s="3"/>
-      <c r="Y42" s="6" t="s">
-        <v>101</v>
-      </c>
+      <c r="Y42" s="6"/>
       <c r="Z42" s="6"/>
-    </row>
-    <row r="43" spans="1:26" x14ac:dyDescent="0.3">
-      <c r="A43" s="3"/>
-      <c r="B43" s="3"/>
-      <c r="C43" s="3"/>
-      <c r="D43" s="3"/>
-      <c r="E43" s="3"/>
-      <c r="F43" s="3"/>
-      <c r="G43" s="3"/>
-      <c r="I43" s="3"/>
-      <c r="J43" s="6"/>
-      <c r="K43" s="5"/>
-      <c r="N43" s="6"/>
-      <c r="O43" s="5"/>
-      <c r="Q43" s="6"/>
-      <c r="R43" s="6"/>
-      <c r="S43" s="5"/>
-      <c r="T43" s="6"/>
-      <c r="U43" s="3"/>
-      <c r="V43" s="3"/>
-      <c r="W43" s="3"/>
-      <c r="X43" s="3"/>
-      <c r="Y43" s="6"/>
-      <c r="Z43" s="6"/>
     </row>
     <row r="44" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A44" s="3" t="s">
-        <v>143</v>
+        <v>176</v>
       </c>
       <c r="B44" s="3" t="s">
-        <v>129</v>
+        <v>84</v>
       </c>
       <c r="C44" s="3" t="s">
-        <v>131</v>
+        <v>86</v>
       </c>
       <c r="D44" s="3" t="s">
         <v>0</v>
@@ -3977,39 +3964,15 @@
       <c r="Y44" s="6"/>
       <c r="Z44" s="6"/>
     </row>
-    <row r="45" spans="1:26" x14ac:dyDescent="0.3">
-      <c r="A45" s="3"/>
-      <c r="B45" s="3"/>
-      <c r="C45" s="3"/>
-      <c r="D45" s="3"/>
-      <c r="E45" s="3"/>
-      <c r="F45" s="3"/>
-      <c r="G45" s="3"/>
-      <c r="I45" s="3"/>
-      <c r="J45" s="6"/>
-      <c r="K45" s="5"/>
-      <c r="N45" s="6"/>
-      <c r="O45" s="5"/>
-      <c r="Q45" s="6"/>
-      <c r="R45" s="6"/>
-      <c r="S45" s="5"/>
-      <c r="T45" s="6"/>
-      <c r="U45" s="3"/>
-      <c r="V45" s="3"/>
-      <c r="W45" s="3"/>
-      <c r="X45" s="3"/>
-      <c r="Y45" s="6"/>
-      <c r="Z45" s="6"/>
-    </row>
     <row r="46" spans="1:26" x14ac:dyDescent="0.3">
-      <c r="A46" s="3" t="s">
-        <v>144</v>
+      <c r="A46" s="9" t="s">
+        <v>214</v>
       </c>
       <c r="B46" s="3" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C46" s="3" t="s">
-        <v>131</v>
+        <v>86</v>
       </c>
       <c r="D46" s="3" t="s">
         <v>0</v>
@@ -4018,7 +3981,7 @@
       <c r="F46" s="3"/>
       <c r="G46" s="3"/>
       <c r="I46" s="3">
-        <v>0.7</v>
+        <v>0.9</v>
       </c>
       <c r="J46" s="6"/>
       <c r="K46" s="5"/>
@@ -4026,8 +3989,8 @@
       <c r="O46" s="5">
         <v>15</v>
       </c>
-      <c r="Q46" s="6" t="s">
-        <v>64</v>
+      <c r="Q46" s="6">
+        <v>3.2</v>
       </c>
       <c r="R46" s="6">
         <v>220</v>
@@ -4038,20 +4001,18 @@
       <c r="V46" s="3"/>
       <c r="W46" s="3"/>
       <c r="X46" s="3"/>
-      <c r="Y46" s="6" t="s">
-        <v>101</v>
-      </c>
+      <c r="Y46" s="6"/>
       <c r="Z46" s="6"/>
     </row>
     <row r="47" spans="1:26" x14ac:dyDescent="0.3">
-      <c r="A47" s="3" t="s">
-        <v>145</v>
+      <c r="A47" s="9" t="s">
+        <v>213</v>
       </c>
       <c r="B47" s="3" t="s">
-        <v>45</v>
+        <v>19</v>
       </c>
       <c r="C47" s="3" t="s">
-        <v>131</v>
+        <v>86</v>
       </c>
       <c r="D47" s="3" t="s">
         <v>0</v>
@@ -4060,19 +4021,19 @@
       <c r="F47" s="3"/>
       <c r="G47" s="3"/>
       <c r="I47" s="3">
-        <v>0.8</v>
+        <v>3</v>
       </c>
       <c r="J47" s="6"/>
       <c r="K47" s="5"/>
       <c r="N47" s="6"/>
       <c r="O47" s="5">
-        <v>15</v>
-      </c>
-      <c r="Q47" s="6" t="s">
-        <v>64</v>
-      </c>
-      <c r="R47" s="6">
-        <v>220</v>
+        <v>20</v>
+      </c>
+      <c r="Q47" s="6">
+        <v>1.5</v>
+      </c>
+      <c r="R47" s="6" t="s">
+        <v>216</v>
       </c>
       <c r="S47" s="5"/>
       <c r="T47" s="6"/>
@@ -4084,14 +4045,14 @@
       <c r="Z47" s="6"/>
     </row>
     <row r="48" spans="1:26" x14ac:dyDescent="0.3">
-      <c r="A48" s="3" t="s">
-        <v>146</v>
+      <c r="A48" s="9" t="s">
+        <v>215</v>
       </c>
       <c r="B48" s="3" t="s">
-        <v>19</v>
+        <v>46</v>
       </c>
       <c r="C48" s="3" t="s">
-        <v>131</v>
+        <v>86</v>
       </c>
       <c r="D48" s="3" t="s">
         <v>0</v>
@@ -4100,19 +4061,19 @@
       <c r="F48" s="3"/>
       <c r="G48" s="3"/>
       <c r="I48" s="3">
-        <v>3.2</v>
+        <v>0.7</v>
       </c>
       <c r="J48" s="6"/>
       <c r="K48" s="5"/>
       <c r="N48" s="6"/>
       <c r="O48" s="5">
-        <v>25</v>
+        <v>15</v>
       </c>
       <c r="Q48" s="6">
-        <v>2</v>
-      </c>
-      <c r="R48" s="6" t="s">
-        <v>54</v>
+        <v>3.2</v>
+      </c>
+      <c r="R48" s="6">
+        <v>220</v>
       </c>
       <c r="S48" s="5"/>
       <c r="T48" s="6"/>
@@ -4120,7 +4081,9 @@
       <c r="V48" s="3"/>
       <c r="W48" s="3"/>
       <c r="X48" s="3"/>
-      <c r="Y48" s="6"/>
+      <c r="Y48" s="6" t="s">
+        <v>61</v>
+      </c>
       <c r="Z48" s="6"/>
     </row>
     <row r="49" spans="1:26" x14ac:dyDescent="0.3">
@@ -4148,67 +4111,72 @@
       <c r="Z49" s="6"/>
     </row>
     <row r="50" spans="1:26" x14ac:dyDescent="0.3">
-      <c r="A50" s="3"/>
-      <c r="B50" s="3"/>
-      <c r="C50" s="3"/>
-      <c r="D50" s="3"/>
+      <c r="A50" s="3" t="s">
+        <v>90</v>
+      </c>
+      <c r="B50" s="3" t="s">
+        <v>86</v>
+      </c>
+      <c r="C50" s="3" t="s">
+        <v>82</v>
+      </c>
+      <c r="D50" s="3" t="s">
+        <v>0</v>
+      </c>
       <c r="E50" s="3"/>
       <c r="F50" s="3"/>
       <c r="G50" s="3"/>
-      <c r="I50" s="3"/>
+      <c r="I50" s="3">
+        <v>0.9</v>
+      </c>
       <c r="J50" s="6"/>
-      <c r="K50" s="5"/>
-      <c r="N50" s="6"/>
-      <c r="O50" s="5"/>
-      <c r="Q50" s="6"/>
-      <c r="R50" s="6"/>
+      <c r="K50" s="5" t="s">
+        <v>218</v>
+      </c>
+      <c r="L50" s="6" t="s">
+        <v>218</v>
+      </c>
+      <c r="N50" s="5" t="s">
+        <v>219</v>
+      </c>
+      <c r="O50" s="5">
+        <v>25</v>
+      </c>
+      <c r="Q50" s="6">
+        <v>1.93</v>
+      </c>
+      <c r="R50" s="6" t="s">
+        <v>217</v>
+      </c>
       <c r="S50" s="5"/>
       <c r="T50" s="6"/>
-      <c r="U50" s="3"/>
-      <c r="V50" s="3"/>
+      <c r="U50" s="3" t="s">
+        <v>238</v>
+      </c>
+      <c r="V50" s="3" t="s">
+        <v>220</v>
+      </c>
       <c r="W50" s="3"/>
       <c r="X50" s="3"/>
       <c r="Y50" s="6"/>
       <c r="Z50" s="6"/>
     </row>
     <row r="51" spans="1:26" x14ac:dyDescent="0.3">
-      <c r="A51" s="3" t="s">
-        <v>147</v>
-      </c>
-      <c r="B51" s="3" t="s">
-        <v>131</v>
-      </c>
-      <c r="C51" s="3" t="s">
-        <v>148</v>
-      </c>
-      <c r="D51" s="3" t="s">
-        <v>0</v>
-      </c>
+      <c r="A51" s="3"/>
+      <c r="B51" s="3"/>
+      <c r="C51" s="3"/>
+      <c r="D51" s="3"/>
       <c r="E51" s="3"/>
       <c r="F51" s="3"/>
       <c r="G51" s="3"/>
-      <c r="I51" s="3">
-        <v>0.9</v>
-      </c>
+      <c r="I51" s="3"/>
       <c r="J51" s="6"/>
-      <c r="K51" s="5" t="s">
-        <v>87</v>
-      </c>
-      <c r="L51" s="5" t="s">
-        <v>87</v>
-      </c>
-      <c r="N51" s="5" t="s">
-        <v>177</v>
-      </c>
-      <c r="O51" s="5">
-        <v>25</v>
-      </c>
-      <c r="Q51" s="6" t="s">
-        <v>66</v>
-      </c>
-      <c r="R51" s="6" t="s">
-        <v>172</v>
-      </c>
+      <c r="K51" s="5"/>
+      <c r="L51" s="5"/>
+      <c r="N51" s="5"/>
+      <c r="O51" s="5"/>
+      <c r="Q51" s="6"/>
+      <c r="R51" s="6"/>
       <c r="S51" s="5"/>
       <c r="T51" s="6"/>
       <c r="U51" s="3"/>
@@ -4219,39 +4187,65 @@
       <c r="Z51" s="6"/>
     </row>
     <row r="52" spans="1:26" x14ac:dyDescent="0.3">
-      <c r="A52" s="3"/>
-      <c r="B52" s="3"/>
-      <c r="C52" s="3"/>
-      <c r="D52" s="3"/>
+      <c r="A52" s="9" t="s">
+        <v>223</v>
+      </c>
+      <c r="B52" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="C52" s="3" t="s">
+        <v>82</v>
+      </c>
+      <c r="D52" s="3" t="s">
+        <v>0</v>
+      </c>
       <c r="E52" s="3"/>
       <c r="F52" s="3"/>
       <c r="G52" s="3"/>
-      <c r="I52" s="3"/>
+      <c r="I52" s="3">
+        <v>0.62</v>
+      </c>
       <c r="J52" s="6"/>
-      <c r="K52" s="5"/>
-      <c r="L52" s="5"/>
-      <c r="N52" s="5"/>
-      <c r="O52" s="5"/>
-      <c r="Q52" s="6"/>
-      <c r="R52" s="6"/>
+      <c r="K52" s="5" t="s">
+        <v>218</v>
+      </c>
+      <c r="L52" s="6" t="s">
+        <v>218</v>
+      </c>
+      <c r="N52" s="5" t="s">
+        <v>93</v>
+      </c>
+      <c r="O52" s="5">
+        <v>20</v>
+      </c>
+      <c r="Q52" s="6">
+        <v>20</v>
+      </c>
+      <c r="R52" s="6" t="s">
+        <v>230</v>
+      </c>
       <c r="S52" s="5"/>
       <c r="T52" s="6"/>
-      <c r="U52" s="3"/>
+      <c r="U52" s="3" t="s">
+        <v>226</v>
+      </c>
       <c r="V52" s="3"/>
       <c r="W52" s="3"/>
       <c r="X52" s="3"/>
-      <c r="Y52" s="6"/>
+      <c r="Y52" s="6" t="s">
+        <v>59</v>
+      </c>
       <c r="Z52" s="6"/>
     </row>
     <row r="53" spans="1:26" x14ac:dyDescent="0.3">
-      <c r="A53" s="3" t="s">
-        <v>149</v>
+      <c r="A53" s="9" t="s">
+        <v>224</v>
       </c>
       <c r="B53" s="3" t="s">
-        <v>45</v>
+        <v>137</v>
       </c>
       <c r="C53" s="3" t="s">
-        <v>150</v>
+        <v>82</v>
       </c>
       <c r="D53" s="3" t="s">
         <v>0</v>
@@ -4260,45 +4254,51 @@
       <c r="F53" s="3"/>
       <c r="G53" s="3"/>
       <c r="I53" s="3">
-        <v>0.85</v>
+        <v>0.97</v>
       </c>
       <c r="J53" s="6"/>
       <c r="K53" s="5" t="s">
-        <v>88</v>
-      </c>
-      <c r="L53" s="5" t="s">
-        <v>88</v>
+        <v>235</v>
+      </c>
+      <c r="L53" s="6" t="s">
+        <v>235</v>
       </c>
       <c r="N53" s="5" t="s">
-        <v>178</v>
+        <v>94</v>
       </c>
       <c r="O53" s="5">
         <v>20</v>
       </c>
       <c r="Q53" s="6">
-        <v>44</v>
+        <v>10</v>
       </c>
       <c r="R53" s="6" t="s">
-        <v>55</v>
+        <v>231</v>
       </c>
       <c r="S53" s="5"/>
       <c r="T53" s="6"/>
-      <c r="U53" s="3"/>
-      <c r="V53" s="3"/>
+      <c r="U53" s="3" t="s">
+        <v>227</v>
+      </c>
+      <c r="V53" s="3">
+        <v>0.55000000000000004</v>
+      </c>
       <c r="W53" s="3"/>
       <c r="X53" s="3"/>
-      <c r="Y53" s="6"/>
+      <c r="Y53" s="6" t="s">
+        <v>59</v>
+      </c>
       <c r="Z53" s="6"/>
     </row>
     <row r="54" spans="1:26" x14ac:dyDescent="0.3">
-      <c r="A54" s="3" t="s">
-        <v>151</v>
+      <c r="A54" s="9" t="s">
+        <v>221</v>
       </c>
       <c r="B54" s="3" t="s">
-        <v>243</v>
+        <v>19</v>
       </c>
       <c r="C54" s="3" t="s">
-        <v>152</v>
+        <v>82</v>
       </c>
       <c r="D54" s="3" t="s">
         <v>0</v>
@@ -4307,45 +4307,45 @@
       <c r="F54" s="3"/>
       <c r="G54" s="3"/>
       <c r="I54" s="3">
-        <v>0.9</v>
+        <v>3.7</v>
       </c>
       <c r="J54" s="6"/>
-      <c r="K54" s="5" t="s">
-        <v>89</v>
-      </c>
-      <c r="L54" s="5" t="s">
-        <v>89</v>
-      </c>
+      <c r="K54" s="5"/>
+      <c r="L54" s="6"/>
       <c r="N54" s="5" t="s">
-        <v>179</v>
+        <v>54</v>
       </c>
       <c r="O54" s="5">
-        <v>20</v>
-      </c>
-      <c r="Q54" s="6" t="s">
-        <v>67</v>
+        <v>17</v>
+      </c>
+      <c r="Q54" s="6">
+        <v>18</v>
       </c>
       <c r="R54" s="6" t="s">
-        <v>173</v>
+        <v>232</v>
       </c>
       <c r="S54" s="5"/>
       <c r="T54" s="6"/>
-      <c r="U54" s="3"/>
+      <c r="U54" s="3" t="s">
+        <v>239</v>
+      </c>
       <c r="V54" s="3"/>
       <c r="W54" s="3"/>
       <c r="X54" s="3"/>
-      <c r="Y54" s="6"/>
+      <c r="Y54" s="6" t="s">
+        <v>59</v>
+      </c>
       <c r="Z54" s="6"/>
     </row>
     <row r="55" spans="1:26" x14ac:dyDescent="0.3">
-      <c r="A55" s="3" t="s">
-        <v>153</v>
+      <c r="A55" s="9" t="s">
+        <v>225</v>
       </c>
       <c r="B55" s="3" t="s">
-        <v>19</v>
+        <v>80</v>
       </c>
       <c r="C55" s="3" t="s">
-        <v>154</v>
+        <v>82</v>
       </c>
       <c r="D55" s="3" t="s">
         <v>0</v>
@@ -4354,45 +4354,49 @@
       <c r="F55" s="3"/>
       <c r="G55" s="3"/>
       <c r="I55" s="3">
-        <v>3.5</v>
+        <v>0.92</v>
       </c>
       <c r="J55" s="6"/>
-      <c r="K55" s="5">
-        <v>0</v>
-      </c>
-      <c r="L55" s="5">
-        <v>0</v>
+      <c r="K55" s="5" t="s">
+        <v>236</v>
+      </c>
+      <c r="L55" s="6" t="s">
+        <v>236</v>
       </c>
       <c r="N55" s="5" t="s">
-        <v>86</v>
+        <v>95</v>
       </c>
       <c r="O55" s="5">
         <v>20</v>
       </c>
-      <c r="Q55" s="6" t="s">
-        <v>68</v>
+      <c r="Q55" s="6">
+        <v>15</v>
       </c>
       <c r="R55" s="6" t="s">
-        <v>56</v>
+        <v>233</v>
       </c>
       <c r="S55" s="5"/>
       <c r="T55" s="6"/>
-      <c r="U55" s="3"/>
+      <c r="U55" s="3" t="s">
+        <v>228</v>
+      </c>
       <c r="V55" s="3"/>
       <c r="W55" s="3"/>
       <c r="X55" s="3"/>
-      <c r="Y55" s="6"/>
+      <c r="Y55" s="6" t="s">
+        <v>59</v>
+      </c>
       <c r="Z55" s="6"/>
     </row>
     <row r="56" spans="1:26" x14ac:dyDescent="0.3">
-      <c r="A56" s="3" t="s">
-        <v>155</v>
+      <c r="A56" s="9" t="s">
+        <v>222</v>
       </c>
       <c r="B56" s="3" t="s">
-        <v>125</v>
+        <v>19</v>
       </c>
       <c r="C56" s="3" t="s">
-        <v>156</v>
+        <v>82</v>
       </c>
       <c r="D56" s="3" t="s">
         <v>0</v>
@@ -4401,69 +4405,51 @@
       <c r="F56" s="3"/>
       <c r="G56" s="3"/>
       <c r="I56" s="3">
-        <v>0.85</v>
+        <v>1</v>
       </c>
       <c r="J56" s="6"/>
-      <c r="K56" s="5" t="s">
-        <v>90</v>
-      </c>
-      <c r="L56" s="5" t="s">
-        <v>90</v>
-      </c>
-      <c r="N56" s="5" t="s">
-        <v>180</v>
-      </c>
+      <c r="K56" s="6" t="s">
+        <v>56</v>
+      </c>
+      <c r="L56" s="6"/>
+      <c r="N56" s="6"/>
       <c r="O56" s="5">
         <v>20</v>
       </c>
-      <c r="Q56" s="6" t="s">
-        <v>69</v>
+      <c r="Q56" s="6">
+        <v>15</v>
       </c>
       <c r="R56" s="6" t="s">
-        <v>174</v>
+        <v>234</v>
       </c>
       <c r="S56" s="5"/>
       <c r="T56" s="6"/>
-      <c r="U56" s="3"/>
+      <c r="U56" s="3" t="s">
+        <v>229</v>
+      </c>
       <c r="V56" s="3"/>
       <c r="W56" s="3"/>
       <c r="X56" s="3"/>
-      <c r="Y56" s="6"/>
+      <c r="Y56" s="6" t="s">
+        <v>59</v>
+      </c>
       <c r="Z56" s="6"/>
     </row>
     <row r="57" spans="1:26" x14ac:dyDescent="0.3">
-      <c r="A57" s="3" t="s">
-        <v>157</v>
-      </c>
-      <c r="B57" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="C57" s="3" t="s">
-        <v>148</v>
-      </c>
-      <c r="D57" s="3" t="s">
-        <v>0</v>
-      </c>
+      <c r="A57" s="3"/>
+      <c r="B57" s="3"/>
+      <c r="C57" s="3"/>
+      <c r="D57" s="3"/>
       <c r="E57" s="3"/>
       <c r="F57" s="3"/>
       <c r="G57" s="3"/>
-      <c r="I57" s="3">
-        <v>1</v>
-      </c>
+      <c r="I57" s="3"/>
       <c r="J57" s="6"/>
       <c r="K57" s="5"/>
-      <c r="N57" s="6" t="s">
-        <v>95</v>
-      </c>
-      <c r="O57" s="5">
-        <v>30</v>
-      </c>
-      <c r="Q57" s="6" t="s">
-        <v>70</v>
-      </c>
-      <c r="R57" s="6" t="s">
-        <v>57</v>
-      </c>
+      <c r="N57" s="6"/>
+      <c r="O57" s="5"/>
+      <c r="Q57" s="6"/>
+      <c r="R57" s="6"/>
       <c r="S57" s="5"/>
       <c r="T57" s="6"/>
       <c r="U57" s="3"/>
@@ -4474,38 +4460,20 @@
       <c r="Z57" s="6"/>
     </row>
     <row r="58" spans="1:26" x14ac:dyDescent="0.3">
-      <c r="A58" s="3" t="s">
-        <v>157</v>
-      </c>
-      <c r="B58" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="C58" s="3" t="s">
-        <v>152</v>
-      </c>
-      <c r="D58" s="3" t="s">
-        <v>0</v>
-      </c>
+      <c r="A58" s="3"/>
+      <c r="B58" s="3"/>
+      <c r="C58" s="3"/>
+      <c r="D58" s="3"/>
       <c r="E58" s="3"/>
       <c r="F58" s="3"/>
       <c r="G58" s="3"/>
-      <c r="I58" s="3">
-        <v>1</v>
-      </c>
+      <c r="I58" s="3"/>
       <c r="J58" s="6"/>
       <c r="K58" s="5"/>
-      <c r="N58" s="6" t="s">
-        <v>95</v>
-      </c>
-      <c r="O58" s="5">
-        <v>30</v>
-      </c>
-      <c r="Q58" s="6" t="s">
-        <v>70</v>
-      </c>
-      <c r="R58" s="6" t="s">
-        <v>57</v>
-      </c>
+      <c r="N58" s="6"/>
+      <c r="O58" s="5"/>
+      <c r="Q58" s="6"/>
+      <c r="R58" s="6"/>
       <c r="S58" s="5"/>
       <c r="T58" s="6"/>
       <c r="U58" s="3"/>
@@ -4517,13 +4485,13 @@
     </row>
     <row r="59" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A59" s="3" t="s">
-        <v>157</v>
+        <v>169</v>
       </c>
       <c r="B59" s="3" t="s">
-        <v>19</v>
+        <v>45</v>
       </c>
       <c r="C59" s="3" t="s">
-        <v>154</v>
+        <v>91</v>
       </c>
       <c r="D59" s="3" t="s">
         <v>0</v>
@@ -4536,18 +4504,10 @@
       </c>
       <c r="J59" s="6"/>
       <c r="K59" s="5"/>
-      <c r="N59" s="6" t="s">
-        <v>95</v>
-      </c>
-      <c r="O59" s="5">
-        <v>30</v>
-      </c>
-      <c r="Q59" s="6" t="s">
-        <v>70</v>
-      </c>
-      <c r="R59" s="6" t="s">
-        <v>57</v>
-      </c>
+      <c r="N59" s="6"/>
+      <c r="O59" s="5"/>
+      <c r="Q59" s="6"/>
+      <c r="R59" s="6"/>
       <c r="S59" s="5"/>
       <c r="T59" s="6"/>
       <c r="U59" s="3"/>
@@ -4559,13 +4519,13 @@
     </row>
     <row r="60" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A60" s="3" t="s">
-        <v>157</v>
+        <v>169</v>
       </c>
       <c r="B60" s="3" t="s">
-        <v>19</v>
+        <v>91</v>
       </c>
       <c r="C60" s="3" t="s">
-        <v>156</v>
+        <v>17</v>
       </c>
       <c r="D60" s="3" t="s">
         <v>0</v>
@@ -4578,36 +4538,30 @@
       </c>
       <c r="J60" s="6"/>
       <c r="K60" s="5"/>
-      <c r="N60" s="6" t="s">
-        <v>95</v>
-      </c>
-      <c r="O60" s="5">
-        <v>30</v>
-      </c>
-      <c r="Q60" s="6" t="s">
-        <v>70</v>
-      </c>
-      <c r="R60" s="6" t="s">
-        <v>57</v>
-      </c>
+      <c r="N60" s="6"/>
+      <c r="O60" s="5"/>
+      <c r="Q60" s="6"/>
+      <c r="R60" s="6"/>
       <c r="S60" s="5"/>
       <c r="T60" s="6"/>
       <c r="U60" s="3"/>
       <c r="V60" s="3"/>
-      <c r="W60" s="3"/>
+      <c r="W60" s="3">
+        <v>0.2</v>
+      </c>
       <c r="X60" s="3"/>
       <c r="Y60" s="6"/>
       <c r="Z60" s="6"/>
     </row>
     <row r="61" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A61" s="3" t="s">
-        <v>157</v>
+        <v>169</v>
       </c>
       <c r="B61" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="C61" s="3" t="s">
         <v>19</v>
-      </c>
-      <c r="C61" s="3" t="s">
-        <v>158</v>
       </c>
       <c r="D61" s="3" t="s">
         <v>0</v>
@@ -4618,36 +4572,56 @@
       <c r="I61" s="3">
         <v>1</v>
       </c>
-      <c r="J61" s="6"/>
-      <c r="K61" s="5"/>
-      <c r="N61" s="6"/>
+      <c r="J61" s="6">
+        <v>0.86</v>
+      </c>
+      <c r="K61" s="5">
+        <v>3.5</v>
+      </c>
+      <c r="N61" s="6">
+        <v>3.5</v>
+      </c>
       <c r="O61" s="5">
-        <v>30</v>
-      </c>
-      <c r="Q61" s="6" t="s">
-        <v>70</v>
-      </c>
-      <c r="R61" s="6" t="s">
-        <v>57</v>
+        <v>45</v>
+      </c>
+      <c r="Q61" s="6">
+        <v>104</v>
+      </c>
+      <c r="R61" s="6">
+        <v>3500</v>
       </c>
       <c r="S61" s="5"/>
       <c r="T61" s="6"/>
       <c r="U61" s="3"/>
       <c r="V61" s="3"/>
-      <c r="W61" s="3"/>
-      <c r="X61" s="3"/>
+      <c r="W61" s="3">
+        <v>0.3</v>
+      </c>
+      <c r="X61" s="3">
+        <v>0.3</v>
+      </c>
       <c r="Y61" s="6"/>
       <c r="Z61" s="6"/>
     </row>
     <row r="62" spans="1:26" x14ac:dyDescent="0.3">
-      <c r="A62" s="3"/>
-      <c r="B62" s="3"/>
-      <c r="C62" s="3"/>
-      <c r="D62" s="3"/>
+      <c r="A62" s="3" t="s">
+        <v>169</v>
+      </c>
+      <c r="B62" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="C62" s="3" t="s">
+        <v>86</v>
+      </c>
+      <c r="D62" s="3" t="s">
+        <v>0</v>
+      </c>
       <c r="E62" s="3"/>
       <c r="F62" s="3"/>
       <c r="G62" s="3"/>
-      <c r="I62" s="3"/>
+      <c r="I62" s="3">
+        <v>1</v>
+      </c>
       <c r="J62" s="6"/>
       <c r="K62" s="5"/>
       <c r="N62" s="6"/>
@@ -4664,18 +4638,10 @@
       <c r="Z62" s="6"/>
     </row>
     <row r="63" spans="1:26" x14ac:dyDescent="0.3">
-      <c r="A63" s="3" t="s">
-        <v>159</v>
-      </c>
-      <c r="B63" s="3" t="s">
-        <v>150</v>
-      </c>
-      <c r="C63" s="3" t="s">
-        <v>127</v>
-      </c>
-      <c r="D63" s="3" t="s">
-        <v>0</v>
-      </c>
+      <c r="A63" s="3"/>
+      <c r="B63" s="3"/>
+      <c r="C63" s="3"/>
+      <c r="D63" s="3"/>
       <c r="E63" s="3"/>
       <c r="F63" s="3"/>
       <c r="G63" s="3"/>
@@ -4688,26 +4654,22 @@
       <c r="R63" s="6"/>
       <c r="S63" s="5"/>
       <c r="T63" s="6"/>
-      <c r="U63" s="3" t="s">
-        <v>108</v>
-      </c>
+      <c r="U63" s="3"/>
       <c r="V63" s="3"/>
       <c r="W63" s="3"/>
       <c r="X63" s="3"/>
-      <c r="Y63" s="6" t="s">
-        <v>99</v>
-      </c>
+      <c r="Y63" s="6"/>
       <c r="Z63" s="6"/>
     </row>
     <row r="64" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A64" s="3" t="s">
-        <v>160</v>
+        <v>168</v>
       </c>
       <c r="B64" s="3" t="s">
-        <v>148</v>
+        <v>18</v>
       </c>
       <c r="C64" s="3" t="s">
-        <v>127</v>
+        <v>92</v>
       </c>
       <c r="D64" s="3" t="s">
         <v>0</v>
@@ -4726,28 +4688,22 @@
       <c r="R64" s="6"/>
       <c r="S64" s="5"/>
       <c r="T64" s="6"/>
-      <c r="U64" s="3" t="s">
-        <v>108</v>
-      </c>
-      <c r="V64" s="3" t="s">
-        <v>109</v>
-      </c>
+      <c r="U64" s="3"/>
+      <c r="V64" s="3"/>
       <c r="W64" s="3"/>
       <c r="X64" s="3"/>
-      <c r="Y64" s="6" t="s">
-        <v>99</v>
-      </c>
+      <c r="Y64" s="6"/>
       <c r="Z64" s="6"/>
     </row>
     <row r="65" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A65" s="3" t="s">
-        <v>161</v>
+        <v>168</v>
       </c>
       <c r="B65" s="3" t="s">
-        <v>152</v>
+        <v>92</v>
       </c>
       <c r="C65" s="3" t="s">
-        <v>127</v>
+        <v>17</v>
       </c>
       <c r="D65" s="3" t="s">
         <v>0</v>
@@ -4764,26 +4720,24 @@
       <c r="R65" s="6"/>
       <c r="S65" s="5"/>
       <c r="T65" s="6"/>
-      <c r="U65" s="3" t="s">
-        <v>110</v>
-      </c>
+      <c r="U65" s="3"/>
       <c r="V65" s="3"/>
-      <c r="W65" s="3"/>
+      <c r="W65" s="3">
+        <v>0.1</v>
+      </c>
       <c r="X65" s="3"/>
-      <c r="Y65" s="6" t="s">
-        <v>99</v>
-      </c>
+      <c r="Y65" s="6"/>
       <c r="Z65" s="6"/>
     </row>
     <row r="66" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A66" s="3" t="s">
-        <v>162</v>
+        <v>168</v>
       </c>
       <c r="B66" s="3" t="s">
-        <v>154</v>
+        <v>92</v>
       </c>
       <c r="C66" s="3" t="s">
-        <v>127</v>
+        <v>19</v>
       </c>
       <c r="D66" s="3" t="s">
         <v>0</v>
@@ -4792,32 +4746,48 @@
       <c r="F66" s="3"/>
       <c r="G66" s="3"/>
       <c r="I66" s="3"/>
-      <c r="J66" s="6"/>
-      <c r="K66" s="5"/>
+      <c r="J66" s="6">
+        <v>0.75</v>
+      </c>
+      <c r="K66" s="5" t="s">
+        <v>180</v>
+      </c>
+      <c r="L66" s="5" t="s">
+        <v>181</v>
+      </c>
       <c r="N66" s="6"/>
-      <c r="O66" s="5"/>
-      <c r="Q66" s="6"/>
-      <c r="R66" s="6"/>
+      <c r="O66" s="5">
+        <v>45</v>
+      </c>
+      <c r="P66" s="9"/>
+      <c r="Q66" s="6">
+        <v>54</v>
+      </c>
+      <c r="R66" s="6">
+        <v>2880</v>
+      </c>
       <c r="S66" s="5"/>
       <c r="T66" s="6"/>
       <c r="U66" s="3"/>
       <c r="V66" s="3"/>
-      <c r="W66" s="3"/>
-      <c r="X66" s="3"/>
-      <c r="Y66" s="6" t="s">
-        <v>99</v>
-      </c>
+      <c r="W66" s="3">
+        <v>0.3</v>
+      </c>
+      <c r="X66" s="3">
+        <v>0.3</v>
+      </c>
+      <c r="Y66" s="6"/>
       <c r="Z66" s="6"/>
     </row>
     <row r="67" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A67" s="3" t="s">
-        <v>163</v>
+        <v>168</v>
       </c>
       <c r="B67" s="3" t="s">
-        <v>156</v>
+        <v>92</v>
       </c>
       <c r="C67" s="3" t="s">
-        <v>127</v>
+        <v>86</v>
       </c>
       <c r="D67" s="3" t="s">
         <v>0</v>
@@ -4834,30 +4804,20 @@
       <c r="R67" s="6"/>
       <c r="S67" s="5"/>
       <c r="T67" s="6"/>
-      <c r="U67" s="3" t="s">
-        <v>111</v>
-      </c>
+      <c r="U67" s="3"/>
       <c r="V67" s="3"/>
       <c r="W67" s="3"/>
       <c r="X67" s="3"/>
       <c r="Y67" s="6" t="s">
-        <v>99</v>
+        <v>59</v>
       </c>
       <c r="Z67" s="6"/>
     </row>
-    <row r="68" spans="1:26" x14ac:dyDescent="0.3">
-      <c r="A68" s="3" t="s">
-        <v>164</v>
-      </c>
-      <c r="B68" s="3" t="s">
-        <v>158</v>
-      </c>
-      <c r="C68" s="3" t="s">
-        <v>127</v>
-      </c>
-      <c r="D68" s="3" t="s">
-        <v>0</v>
-      </c>
+    <row r="68" spans="1:26" s="9" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A68" s="3"/>
+      <c r="B68" s="3"/>
+      <c r="C68" s="3"/>
+      <c r="D68" s="3"/>
       <c r="E68" s="3"/>
       <c r="F68" s="3"/>
       <c r="G68" s="3"/>
@@ -4870,27 +4830,35 @@
       <c r="R68" s="6"/>
       <c r="S68" s="5"/>
       <c r="T68" s="6"/>
-      <c r="U68" s="3" t="s">
-        <v>112</v>
-      </c>
+      <c r="U68" s="3"/>
       <c r="V68" s="3"/>
       <c r="W68" s="3"/>
       <c r="X68" s="3"/>
-      <c r="Y68" s="6" t="s">
-        <v>99</v>
-      </c>
+      <c r="Y68" s="6"/>
       <c r="Z68" s="6"/>
     </row>
     <row r="69" spans="1:26" x14ac:dyDescent="0.3">
-      <c r="A69" s="3"/>
-      <c r="B69" s="3"/>
-      <c r="C69" s="3"/>
-      <c r="D69" s="3"/>
+      <c r="A69" s="3" t="s">
+        <v>167</v>
+      </c>
+      <c r="B69" s="3" t="s">
+        <v>137</v>
+      </c>
+      <c r="C69" s="3" t="s">
+        <v>178</v>
+      </c>
+      <c r="D69" s="3" t="s">
+        <v>0</v>
+      </c>
       <c r="E69" s="3"/>
       <c r="F69" s="3"/>
       <c r="G69" s="3"/>
-      <c r="I69" s="3"/>
-      <c r="J69" s="6"/>
+      <c r="I69" s="3">
+        <v>1</v>
+      </c>
+      <c r="J69" s="6">
+        <v>0.95</v>
+      </c>
       <c r="K69" s="5"/>
       <c r="N69" s="6"/>
       <c r="O69" s="5"/>
@@ -4907,13 +4875,13 @@
     </row>
     <row r="70" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A70" s="3" t="s">
-        <v>214</v>
+        <v>167</v>
       </c>
       <c r="B70" s="3" t="s">
-        <v>45</v>
+        <v>178</v>
       </c>
       <c r="C70" s="3" t="s">
-        <v>165</v>
+        <v>17</v>
       </c>
       <c r="D70" s="3" t="s">
         <v>0</v>
@@ -4921,41 +4889,33 @@
       <c r="E70" s="3"/>
       <c r="F70" s="3"/>
       <c r="G70" s="3"/>
-      <c r="I70" s="3">
-        <v>1</v>
-      </c>
-      <c r="J70" s="6">
-        <v>0.99</v>
-      </c>
+      <c r="I70" s="3"/>
+      <c r="J70" s="6"/>
       <c r="K70" s="5"/>
       <c r="N70" s="6"/>
-      <c r="O70" s="5">
-        <v>30</v>
-      </c>
-      <c r="Q70" s="6" t="s">
-        <v>71</v>
-      </c>
-      <c r="R70" s="6" t="s">
-        <v>58</v>
-      </c>
+      <c r="O70" s="5"/>
+      <c r="Q70" s="6"/>
+      <c r="R70" s="6"/>
       <c r="S70" s="5"/>
       <c r="T70" s="6"/>
       <c r="U70" s="3"/>
       <c r="V70" s="3"/>
-      <c r="W70" s="3"/>
+      <c r="W70" s="3">
+        <v>0.2</v>
+      </c>
       <c r="X70" s="3"/>
       <c r="Y70" s="6"/>
       <c r="Z70" s="6"/>
     </row>
     <row r="71" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A71" s="3" t="s">
-        <v>214</v>
+        <v>167</v>
       </c>
       <c r="B71" s="3" t="s">
-        <v>165</v>
+        <v>178</v>
       </c>
       <c r="C71" s="3" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="D71" s="3" t="s">
         <v>0</v>
@@ -4965,31 +4925,44 @@
       <c r="G71" s="3"/>
       <c r="I71" s="3"/>
       <c r="J71" s="6"/>
-      <c r="K71" s="5"/>
-      <c r="N71" s="6"/>
-      <c r="O71" s="5"/>
-      <c r="Q71" s="6"/>
-      <c r="R71" s="6"/>
+      <c r="K71" s="5" t="s">
+        <v>179</v>
+      </c>
+      <c r="L71" s="5"/>
+      <c r="N71" s="5" t="s">
+        <v>179</v>
+      </c>
+      <c r="O71" s="5">
+        <v>30</v>
+      </c>
+      <c r="Q71" s="6">
+        <v>41</v>
+      </c>
+      <c r="R71" s="6">
+        <v>1020</v>
+      </c>
       <c r="S71" s="5"/>
       <c r="T71" s="6"/>
       <c r="U71" s="3"/>
       <c r="V71" s="3"/>
       <c r="W71" s="3">
-        <v>0.2</v>
-      </c>
-      <c r="X71" s="3"/>
+        <v>0.42</v>
+      </c>
+      <c r="X71" s="3">
+        <v>0.42</v>
+      </c>
       <c r="Y71" s="6"/>
       <c r="Z71" s="6"/>
     </row>
     <row r="72" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A72" s="3" t="s">
-        <v>214</v>
+        <v>167</v>
       </c>
       <c r="B72" s="3" t="s">
-        <v>165</v>
+        <v>178</v>
       </c>
       <c r="C72" s="3" t="s">
-        <v>19</v>
+        <v>86</v>
       </c>
       <c r="D72" s="3" t="s">
         <v>0</v>
@@ -4999,12 +4972,8 @@
       <c r="G72" s="3"/>
       <c r="I72" s="3"/>
       <c r="J72" s="6"/>
-      <c r="K72" s="5">
-        <v>3.5</v>
-      </c>
-      <c r="N72" s="6">
-        <v>3.5</v>
-      </c>
+      <c r="K72" s="5"/>
+      <c r="N72" s="6"/>
       <c r="O72" s="5"/>
       <c r="Q72" s="6"/>
       <c r="R72" s="6"/>
@@ -5012,696 +4981,373 @@
       <c r="T72" s="6"/>
       <c r="U72" s="3"/>
       <c r="V72" s="3"/>
-      <c r="W72" s="3">
-        <v>0.3</v>
-      </c>
-      <c r="X72" s="3">
-        <v>0.3</v>
-      </c>
-      <c r="Y72" s="6" t="s">
-        <v>101</v>
-      </c>
+      <c r="W72" s="3"/>
+      <c r="X72" s="3"/>
+      <c r="Y72" s="6"/>
       <c r="Z72" s="6"/>
     </row>
     <row r="73" spans="1:26" x14ac:dyDescent="0.3">
-      <c r="A73" s="3" t="s">
-        <v>214</v>
-      </c>
-      <c r="B73" s="3" t="s">
-        <v>165</v>
-      </c>
-      <c r="C73" s="3" t="s">
-        <v>131</v>
-      </c>
-      <c r="D73" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="E73" s="3"/>
-      <c r="F73" s="3"/>
-      <c r="G73" s="3"/>
-      <c r="I73" s="3"/>
-      <c r="J73" s="6"/>
-      <c r="K73" s="5"/>
-      <c r="N73" s="6"/>
-      <c r="O73" s="5"/>
-      <c r="Q73" s="6"/>
-      <c r="R73" s="6"/>
-      <c r="S73" s="5"/>
-      <c r="T73" s="6"/>
-      <c r="U73" s="3"/>
-      <c r="V73" s="3"/>
-      <c r="W73" s="3"/>
-      <c r="X73" s="3"/>
-      <c r="Y73" s="6"/>
-      <c r="Z73" s="6"/>
+      <c r="K73" s="5" t="s">
+        <v>182</v>
+      </c>
+      <c r="L73" s="5" t="s">
+        <v>182</v>
+      </c>
     </row>
     <row r="74" spans="1:26" x14ac:dyDescent="0.3">
-      <c r="A74" s="3"/>
-      <c r="B74" s="3"/>
-      <c r="C74" s="3"/>
-      <c r="D74" s="3"/>
+      <c r="A74" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="B74" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="C74" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="D74" s="3" t="s">
+        <v>0</v>
+      </c>
       <c r="E74" s="3"/>
       <c r="F74" s="3"/>
       <c r="G74" s="3"/>
-      <c r="I74" s="3"/>
+      <c r="I74" s="3">
+        <v>0.36</v>
+      </c>
       <c r="J74" s="6"/>
-      <c r="K74" s="5"/>
+      <c r="K74" s="5" t="s">
+        <v>55</v>
+      </c>
       <c r="N74" s="6"/>
-      <c r="O74" s="5"/>
-      <c r="Q74" s="6"/>
-      <c r="R74" s="6"/>
+      <c r="O74" s="5">
+        <v>15</v>
+      </c>
+      <c r="Q74" s="6">
+        <v>590</v>
+      </c>
+      <c r="R74" s="6">
+        <v>1000</v>
+      </c>
       <c r="S74" s="5"/>
       <c r="T74" s="6"/>
       <c r="U74" s="3"/>
       <c r="V74" s="3"/>
       <c r="W74" s="3"/>
       <c r="X74" s="3"/>
-      <c r="Y74" s="6"/>
+      <c r="Y74" s="6" t="s">
+        <v>61</v>
+      </c>
       <c r="Z74" s="6"/>
     </row>
     <row r="75" spans="1:26" x14ac:dyDescent="0.3">
-      <c r="A75" s="3" t="s">
-        <v>215</v>
-      </c>
-      <c r="B75" s="3" t="s">
+      <c r="A75" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="B75" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="C75" s="4" t="s">
+        <v>88</v>
+      </c>
+      <c r="D75" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="E75" s="4"/>
+      <c r="F75" s="4"/>
+      <c r="G75" s="4"/>
+      <c r="I75" s="4">
+        <v>1</v>
+      </c>
+      <c r="J75" s="4"/>
+      <c r="K75" s="4"/>
+      <c r="N75" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="O75" s="4">
+        <v>15</v>
+      </c>
+      <c r="Q75" s="4">
+        <v>450</v>
+      </c>
+      <c r="R75" s="4" t="s">
+        <v>177</v>
+      </c>
+      <c r="S75" s="4"/>
+      <c r="T75" s="4"/>
+      <c r="U75" s="4"/>
+      <c r="V75" s="4"/>
+      <c r="W75" s="4"/>
+      <c r="X75" s="4"/>
+      <c r="Y75" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="Z75" s="6"/>
+    </row>
+    <row r="76" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="A76" s="9" t="s">
+        <v>136</v>
+      </c>
+      <c r="B76" t="s">
+        <v>19</v>
+      </c>
+      <c r="C76" t="s">
+        <v>140</v>
+      </c>
+      <c r="D76" t="s">
+        <v>0</v>
+      </c>
+      <c r="I76" s="4">
+        <v>0.7</v>
+      </c>
+      <c r="Q76" s="4" t="s">
+        <v>143</v>
+      </c>
+      <c r="R76" s="4" t="s">
+        <v>142</v>
+      </c>
+      <c r="S76">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="77" spans="1:26" s="9" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="I77" s="4"/>
+      <c r="Q77" s="4"/>
+      <c r="R77" s="4"/>
+    </row>
+    <row r="78" spans="1:26" s="9" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A78" s="9" t="s">
+        <v>237</v>
+      </c>
+      <c r="B78" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="C78" s="9" t="s">
+        <v>237</v>
+      </c>
+      <c r="D78" s="9" t="s">
+        <v>0</v>
+      </c>
+      <c r="I78" s="4"/>
+      <c r="P78" s="9">
+        <v>100000</v>
+      </c>
+      <c r="Q78" s="4"/>
+      <c r="R78" s="4"/>
+    </row>
+    <row r="79" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="A79" t="s">
+        <v>237</v>
+      </c>
+      <c r="B79" s="9" t="s">
+        <v>237</v>
+      </c>
+      <c r="C79" s="9" t="s">
+        <v>88</v>
+      </c>
+      <c r="D79" s="9" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="80" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="A80" s="9" t="s">
+        <v>237</v>
+      </c>
+      <c r="B80" s="9" t="s">
+        <v>237</v>
+      </c>
+      <c r="C80" s="9" t="s">
+        <v>82</v>
+      </c>
+      <c r="D80" s="9" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="81" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A81" s="9" t="s">
+        <v>237</v>
+      </c>
+      <c r="B81" s="9" t="s">
+        <v>237</v>
+      </c>
+      <c r="C81" s="9" t="s">
+        <v>86</v>
+      </c>
+      <c r="D81" s="9" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="82" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A82" s="9" t="s">
+        <v>237</v>
+      </c>
+      <c r="B82" s="9" t="s">
+        <v>237</v>
+      </c>
+      <c r="C82" s="9" t="s">
+        <v>84</v>
+      </c>
+      <c r="D82" s="9" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="83" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A83" s="9" t="s">
+        <v>237</v>
+      </c>
+      <c r="B83" s="9" t="s">
+        <v>237</v>
+      </c>
+      <c r="C83" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="D83" s="9" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A84" s="9" t="s">
+        <v>237</v>
+      </c>
+      <c r="B84" s="9" t="s">
+        <v>237</v>
+      </c>
+      <c r="C84" s="9" t="s">
+        <v>45</v>
+      </c>
+      <c r="D84" s="9" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A85" s="9" t="s">
+        <v>237</v>
+      </c>
+      <c r="B85" s="9" t="s">
+        <v>237</v>
+      </c>
+      <c r="C85" s="9" t="s">
+        <v>46</v>
+      </c>
+      <c r="D85" s="9" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A86" s="9" t="s">
+        <v>237</v>
+      </c>
+      <c r="B86" s="9" t="s">
+        <v>237</v>
+      </c>
+      <c r="C86" s="9" t="s">
+        <v>47</v>
+      </c>
+      <c r="D86" s="9" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A87" s="9" t="s">
+        <v>237</v>
+      </c>
+      <c r="B87" s="9" t="s">
+        <v>237</v>
+      </c>
+      <c r="C87" s="9" t="s">
+        <v>80</v>
+      </c>
+      <c r="D87" s="9" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A88" s="9" t="s">
+        <v>237</v>
+      </c>
+      <c r="B88" s="9" t="s">
+        <v>237</v>
+      </c>
+      <c r="C88" s="9" t="s">
+        <v>73</v>
+      </c>
+      <c r="D88" s="9" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A89" s="9" t="s">
+        <v>237</v>
+      </c>
+      <c r="B89" s="9" t="s">
+        <v>237</v>
+      </c>
+      <c r="C89" s="9" t="s">
+        <v>48</v>
+      </c>
+      <c r="D89" s="9" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="90" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A90" s="9" t="s">
+        <v>237</v>
+      </c>
+      <c r="B90" s="9" t="s">
+        <v>237</v>
+      </c>
+      <c r="C90" s="9" t="s">
         <v>18</v>
       </c>
-      <c r="C75" s="3" t="s">
-        <v>166</v>
-      </c>
-      <c r="D75" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="E75" s="3"/>
-      <c r="F75" s="3"/>
-      <c r="G75" s="3"/>
-      <c r="I75" s="3">
-        <v>1</v>
-      </c>
-      <c r="J75" s="6"/>
-      <c r="K75" s="5"/>
-      <c r="N75" s="6"/>
-      <c r="O75" s="5">
-        <v>40</v>
-      </c>
-      <c r="Q75" s="6" t="s">
-        <v>72</v>
-      </c>
-      <c r="R75" s="6" t="s">
-        <v>59</v>
-      </c>
-      <c r="S75" s="5"/>
-      <c r="T75" s="6"/>
-      <c r="U75" s="3"/>
-      <c r="V75" s="3"/>
-      <c r="W75" s="3"/>
-      <c r="X75" s="3"/>
-      <c r="Y75" s="6"/>
-      <c r="Z75" s="6"/>
-    </row>
-    <row r="76" spans="1:26" x14ac:dyDescent="0.3">
-      <c r="A76" s="3" t="s">
-        <v>215</v>
-      </c>
-      <c r="B76" s="3" t="s">
-        <v>166</v>
-      </c>
-      <c r="C76" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="D76" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="E76" s="3"/>
-      <c r="F76" s="3"/>
-      <c r="G76" s="3"/>
-      <c r="I76" s="3"/>
-      <c r="J76" s="6"/>
-      <c r="K76" s="5"/>
-      <c r="N76" s="6"/>
-      <c r="O76" s="5"/>
-      <c r="Q76" s="6"/>
-      <c r="R76" s="6"/>
-      <c r="S76" s="5"/>
-      <c r="T76" s="6"/>
-      <c r="U76" s="3"/>
-      <c r="V76" s="3"/>
-      <c r="W76" s="3">
-        <v>0.14000000000000001</v>
-      </c>
-      <c r="X76" s="3"/>
-      <c r="Y76" s="6"/>
-      <c r="Z76" s="6"/>
-    </row>
-    <row r="77" spans="1:26" x14ac:dyDescent="0.3">
-      <c r="A77" s="3" t="s">
-        <v>215</v>
-      </c>
-      <c r="B77" s="3" t="s">
-        <v>166</v>
-      </c>
-      <c r="C77" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="D77" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="E77" s="3"/>
-      <c r="F77" s="3"/>
-      <c r="G77" s="3"/>
-      <c r="I77" s="3"/>
-      <c r="J77" s="6">
-        <v>0.75</v>
-      </c>
-      <c r="K77" s="5" t="s">
-        <v>91</v>
-      </c>
-      <c r="N77" s="6" t="s">
-        <v>91</v>
-      </c>
-      <c r="O77" s="5"/>
-      <c r="Q77" s="6"/>
-      <c r="R77" s="6"/>
-      <c r="S77" s="5"/>
-      <c r="T77" s="6"/>
-      <c r="U77" s="3"/>
-      <c r="V77" s="3"/>
-      <c r="W77" s="3">
-        <v>0.25</v>
-      </c>
-      <c r="X77" s="3">
-        <v>0.25</v>
-      </c>
-      <c r="Y77" s="6"/>
-      <c r="Z77" s="6"/>
-    </row>
-    <row r="78" spans="1:26" x14ac:dyDescent="0.3">
-      <c r="A78" s="3" t="s">
-        <v>215</v>
-      </c>
-      <c r="B78" s="3" t="s">
-        <v>166</v>
-      </c>
-      <c r="C78" s="3" t="s">
-        <v>131</v>
-      </c>
-      <c r="D78" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="E78" s="3"/>
-      <c r="F78" s="3"/>
-      <c r="G78" s="3"/>
-      <c r="I78" s="3"/>
-      <c r="J78" s="6"/>
-      <c r="K78" s="5"/>
-      <c r="N78" s="6"/>
-      <c r="O78" s="5"/>
-      <c r="Q78" s="6"/>
-      <c r="R78" s="6"/>
-      <c r="S78" s="5">
-        <v>26.1</v>
-      </c>
-      <c r="T78" s="6"/>
-      <c r="U78" s="3"/>
-      <c r="V78" s="3"/>
-      <c r="W78" s="3"/>
-      <c r="X78" s="3"/>
-      <c r="Y78" s="6" t="s">
-        <v>99</v>
-      </c>
-      <c r="Z78" s="6"/>
-    </row>
-    <row r="79" spans="1:26" x14ac:dyDescent="0.3">
-      <c r="A79" s="3"/>
-      <c r="B79" s="3"/>
-      <c r="C79" s="3"/>
-      <c r="D79" s="3"/>
-      <c r="E79" s="3"/>
-      <c r="F79" s="3"/>
-      <c r="G79" s="3"/>
-      <c r="I79" s="3"/>
-      <c r="J79" s="6"/>
-      <c r="K79" s="5"/>
-      <c r="N79" s="6"/>
-      <c r="O79" s="5"/>
-      <c r="Q79" s="6"/>
-      <c r="R79" s="6"/>
-      <c r="S79" s="5"/>
-      <c r="T79" s="6"/>
-      <c r="U79" s="3"/>
-      <c r="V79" s="3"/>
-      <c r="W79" s="3"/>
-      <c r="X79" s="3"/>
-      <c r="Y79" s="6"/>
-      <c r="Z79" s="6"/>
-    </row>
-    <row r="80" spans="1:26" x14ac:dyDescent="0.3">
-      <c r="A80" s="3" t="s">
-        <v>216</v>
-      </c>
-      <c r="B80" s="3" t="s">
-        <v>217</v>
-      </c>
-      <c r="C80" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="D80" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="E80" s="3"/>
-      <c r="F80" s="3"/>
-      <c r="G80" s="3"/>
-      <c r="I80" s="3"/>
-      <c r="J80" s="6"/>
-      <c r="K80" s="5"/>
-      <c r="N80" s="6"/>
-      <c r="O80" s="5"/>
-      <c r="Q80" s="6"/>
-      <c r="R80" s="6"/>
-      <c r="S80" s="5"/>
-      <c r="T80" s="6"/>
-      <c r="U80" s="3"/>
-      <c r="V80" s="3"/>
-      <c r="W80" s="3">
-        <v>0.2</v>
-      </c>
-      <c r="X80" s="3"/>
-      <c r="Y80" s="6"/>
-      <c r="Z80" s="6"/>
-    </row>
-    <row r="81" spans="1:26" x14ac:dyDescent="0.3">
-      <c r="A81" s="3" t="s">
-        <v>216</v>
-      </c>
-      <c r="B81" s="3" t="s">
-        <v>217</v>
-      </c>
-      <c r="C81" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="D81" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="E81" s="3"/>
-      <c r="F81" s="3"/>
-      <c r="G81" s="3"/>
-      <c r="I81" s="3"/>
-      <c r="J81" s="6"/>
-      <c r="K81" s="5" t="s">
-        <v>92</v>
-      </c>
-      <c r="N81" s="6" t="s">
-        <v>92</v>
-      </c>
-      <c r="O81" s="5"/>
-      <c r="Q81" s="6"/>
-      <c r="R81" s="6"/>
-      <c r="S81" s="5"/>
-      <c r="T81" s="6"/>
-      <c r="U81" s="3"/>
-      <c r="V81" s="3"/>
-      <c r="W81" s="3">
-        <v>0.42</v>
-      </c>
-      <c r="X81" s="3">
-        <v>0.42</v>
-      </c>
-      <c r="Y81" s="6"/>
-      <c r="Z81" s="6"/>
-    </row>
-    <row r="82" spans="1:26" x14ac:dyDescent="0.3">
-      <c r="A82" s="3" t="s">
-        <v>216</v>
-      </c>
-      <c r="B82" s="3" t="s">
-        <v>217</v>
-      </c>
-      <c r="C82" s="3" t="s">
-        <v>131</v>
-      </c>
-      <c r="D82" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="E82" s="3"/>
-      <c r="F82" s="3"/>
-      <c r="G82" s="3"/>
-      <c r="I82" s="3"/>
-      <c r="J82" s="6"/>
-      <c r="K82" s="5"/>
-      <c r="N82" s="6"/>
-      <c r="O82" s="5"/>
-      <c r="Q82" s="6"/>
-      <c r="R82" s="6"/>
-      <c r="S82" s="5"/>
-      <c r="T82" s="6"/>
-      <c r="U82" s="3"/>
-      <c r="V82" s="3"/>
-      <c r="W82" s="3"/>
-      <c r="X82" s="3"/>
-      <c r="Y82" s="6"/>
-      <c r="Z82" s="6"/>
-    </row>
-    <row r="83" spans="1:26" x14ac:dyDescent="0.3">
-      <c r="A83" s="3" t="s">
-        <v>216</v>
-      </c>
-      <c r="B83" s="3" t="s">
-        <v>243</v>
-      </c>
-      <c r="C83" s="3" t="s">
-        <v>217</v>
-      </c>
-      <c r="D83" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="E83" s="3"/>
-      <c r="F83" s="3"/>
-      <c r="G83" s="3"/>
-      <c r="I83" s="3">
-        <v>1</v>
-      </c>
-      <c r="J83" s="6">
-        <v>0.95</v>
-      </c>
-      <c r="K83" s="5"/>
-      <c r="N83" s="6"/>
-      <c r="O83" s="5"/>
-      <c r="Q83" s="6"/>
-      <c r="R83" s="6"/>
-      <c r="S83" s="5"/>
-      <c r="T83" s="6"/>
-      <c r="U83" s="3"/>
-      <c r="V83" s="3"/>
-      <c r="W83" s="3"/>
-      <c r="X83" s="3"/>
-      <c r="Y83" s="6"/>
-      <c r="Z83" s="6"/>
-    </row>
-    <row r="84" spans="1:26" x14ac:dyDescent="0.3">
-      <c r="A84" s="3"/>
-      <c r="B84" s="3"/>
-      <c r="C84" s="3"/>
-      <c r="D84" s="3"/>
-      <c r="E84" s="3"/>
-      <c r="F84" s="3"/>
-      <c r="G84" s="3"/>
-      <c r="I84" s="3"/>
-      <c r="J84" s="6"/>
-      <c r="K84" s="5"/>
-      <c r="N84" s="6"/>
-      <c r="O84" s="5"/>
-      <c r="Q84" s="6"/>
-      <c r="R84" s="6"/>
-      <c r="S84" s="5"/>
-      <c r="T84" s="6"/>
-      <c r="U84" s="3"/>
-      <c r="V84" s="3"/>
-      <c r="W84" s="3"/>
-      <c r="X84" s="3"/>
-      <c r="Y84" s="6"/>
-      <c r="Z84" s="6"/>
-    </row>
-    <row r="85" spans="1:26" x14ac:dyDescent="0.3">
-      <c r="A85" s="3" t="s">
-        <v>167</v>
-      </c>
-      <c r="B85" s="3" t="s">
-        <v>168</v>
-      </c>
-      <c r="C85" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="D85" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="E85" s="3"/>
-      <c r="F85" s="3"/>
-      <c r="G85" s="3"/>
-      <c r="I85" s="3"/>
-      <c r="J85" s="6"/>
-      <c r="K85" s="5"/>
-      <c r="N85" s="6"/>
-      <c r="O85" s="5"/>
-      <c r="Q85" s="6"/>
-      <c r="R85" s="6"/>
-      <c r="S85" s="5"/>
-      <c r="T85" s="6"/>
-      <c r="U85" s="3"/>
-      <c r="V85" s="3"/>
-      <c r="W85" s="3">
-        <v>0.12</v>
-      </c>
-      <c r="X85" s="3"/>
-      <c r="Y85" s="6"/>
-      <c r="Z85" s="6"/>
-    </row>
-    <row r="86" spans="1:26" x14ac:dyDescent="0.3">
-      <c r="A86" s="3" t="s">
-        <v>167</v>
-      </c>
-      <c r="B86" s="3" t="s">
-        <v>168</v>
-      </c>
-      <c r="C86" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="D86" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="E86" s="3"/>
-      <c r="F86" s="3"/>
-      <c r="G86" s="3"/>
-      <c r="I86" s="3"/>
-      <c r="J86" s="6"/>
-      <c r="K86" s="5"/>
-      <c r="N86" s="6" t="s">
-        <v>95</v>
-      </c>
-      <c r="O86" s="5"/>
-      <c r="Q86" s="6"/>
-      <c r="R86" s="6"/>
-      <c r="S86" s="5"/>
-      <c r="T86" s="6"/>
-      <c r="U86" s="3"/>
-      <c r="V86" s="3"/>
-      <c r="W86" s="3">
-        <v>0.45</v>
-      </c>
-      <c r="X86" s="3">
-        <v>0.45</v>
-      </c>
-      <c r="Y86" s="6"/>
-      <c r="Z86" s="6"/>
-    </row>
-    <row r="87" spans="1:26" x14ac:dyDescent="0.3">
-      <c r="A87" s="3" t="s">
-        <v>167</v>
-      </c>
-      <c r="B87" s="3" t="s">
-        <v>168</v>
-      </c>
-      <c r="C87" s="3" t="s">
-        <v>131</v>
-      </c>
-      <c r="D87" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="E87" s="3"/>
-      <c r="F87" s="3"/>
-      <c r="G87" s="3"/>
-      <c r="I87" s="3"/>
-      <c r="J87" s="6"/>
-      <c r="K87" s="5"/>
-      <c r="N87" s="6"/>
-      <c r="O87" s="5"/>
-      <c r="Q87" s="6"/>
-      <c r="R87" s="6"/>
-      <c r="S87" s="5"/>
-      <c r="T87" s="6"/>
-      <c r="U87" s="3"/>
-      <c r="V87" s="3"/>
-      <c r="W87" s="3"/>
-      <c r="X87" s="3"/>
-      <c r="Y87" s="6"/>
-      <c r="Z87" s="6"/>
-    </row>
-    <row r="88" spans="1:26" x14ac:dyDescent="0.3">
-      <c r="A88" s="3" t="s">
-        <v>167</v>
-      </c>
-      <c r="B88" s="3" t="s">
-        <v>243</v>
-      </c>
-      <c r="C88" s="3" t="s">
-        <v>168</v>
-      </c>
-      <c r="D88" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="E88" s="3"/>
-      <c r="F88" s="3"/>
-      <c r="G88" s="3"/>
-      <c r="I88" s="3">
-        <v>1</v>
-      </c>
-      <c r="J88" s="6"/>
-      <c r="K88" s="5"/>
-      <c r="N88" s="6"/>
-      <c r="O88" s="5">
-        <v>30</v>
-      </c>
-      <c r="Q88" s="6">
-        <v>41</v>
-      </c>
-      <c r="R88" s="6">
-        <v>1020</v>
-      </c>
-      <c r="S88" s="5"/>
-      <c r="T88" s="6"/>
-      <c r="U88" s="3"/>
-      <c r="V88" s="3"/>
-      <c r="W88" s="3"/>
-      <c r="X88" s="3"/>
-      <c r="Y88" s="6"/>
-      <c r="Z88" s="6"/>
-    </row>
-    <row r="89" spans="1:26" x14ac:dyDescent="0.3">
-      <c r="A89" s="3"/>
-      <c r="B89" s="3"/>
-      <c r="C89" s="3"/>
-      <c r="D89" s="3"/>
-      <c r="E89" s="3"/>
-      <c r="F89" s="3"/>
-      <c r="G89" s="3"/>
-      <c r="I89" s="3"/>
-      <c r="J89" s="6"/>
-      <c r="K89" s="5"/>
-      <c r="N89" s="6"/>
-      <c r="O89" s="5"/>
-      <c r="Q89" s="6"/>
-      <c r="R89" s="6"/>
-      <c r="S89" s="5"/>
-      <c r="T89" s="6"/>
-      <c r="U89" s="3"/>
-      <c r="V89" s="3"/>
-      <c r="W89" s="3"/>
-      <c r="X89" s="3"/>
-      <c r="Y89" s="6"/>
-      <c r="Z89" s="6"/>
-    </row>
-    <row r="90" spans="1:26" x14ac:dyDescent="0.3">
-      <c r="A90" s="3" t="s">
-        <v>50</v>
-      </c>
-      <c r="B90" s="3" t="s">
-        <v>125</v>
-      </c>
-      <c r="C90" s="3" t="s">
-        <v>133</v>
-      </c>
-      <c r="D90" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="E90" s="3"/>
-      <c r="F90" s="3"/>
-      <c r="G90" s="3"/>
-      <c r="I90" s="3">
-        <v>0.35</v>
-      </c>
-      <c r="J90" s="6"/>
-      <c r="K90" s="5" t="s">
-        <v>93</v>
-      </c>
-      <c r="N90" s="6"/>
-      <c r="O90" s="5">
-        <v>15</v>
-      </c>
-      <c r="Q90" s="6"/>
-      <c r="R90" s="6">
-        <v>164</v>
-      </c>
-      <c r="S90" s="5"/>
-      <c r="T90" s="6"/>
-      <c r="U90" s="3"/>
-      <c r="V90" s="3"/>
-      <c r="W90" s="3"/>
-      <c r="X90" s="3"/>
-      <c r="Y90" s="6" t="s">
-        <v>101</v>
-      </c>
-      <c r="Z90" s="6"/>
-    </row>
-    <row r="91" spans="1:26" x14ac:dyDescent="0.3">
-      <c r="A91" s="4" t="s">
-        <v>49</v>
-      </c>
-      <c r="B91" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="C91" s="4" t="s">
-        <v>133</v>
-      </c>
-      <c r="D91" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="E91" s="4"/>
-      <c r="F91" s="4"/>
-      <c r="G91" s="4"/>
-      <c r="I91" s="4">
-        <v>1</v>
-      </c>
-      <c r="J91" s="4"/>
-      <c r="K91" s="4"/>
-      <c r="N91" s="1" t="s">
-        <v>95</v>
-      </c>
-      <c r="O91" s="4">
-        <v>15</v>
-      </c>
-      <c r="Q91" s="8"/>
-      <c r="R91" s="4" t="s">
-        <v>60</v>
-      </c>
-      <c r="S91" s="4"/>
-      <c r="T91" s="4"/>
-      <c r="U91" s="4"/>
-      <c r="V91" s="4"/>
-      <c r="W91" s="4"/>
-      <c r="X91" s="4"/>
-      <c r="Y91" s="4" t="s">
-        <v>101</v>
-      </c>
-      <c r="Z91" s="6"/>
-    </row>
-    <row r="92" spans="1:26" x14ac:dyDescent="0.3">
-      <c r="A92" s="11" t="s">
-        <v>242</v>
-      </c>
-      <c r="B92" t="s">
-        <v>19</v>
-      </c>
-      <c r="C92" t="s">
-        <v>246</v>
-      </c>
-      <c r="D92" t="s">
-        <v>0</v>
-      </c>
-      <c r="I92" s="4">
-        <v>0.7</v>
-      </c>
-      <c r="Q92" s="4" t="s">
-        <v>250</v>
-      </c>
-      <c r="R92" s="4" t="s">
-        <v>249</v>
+      <c r="D90" s="9" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="91" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A91" s="9" t="s">
+        <v>237</v>
+      </c>
+      <c r="B91" s="9" t="s">
+        <v>237</v>
+      </c>
+      <c r="C91" s="9" t="s">
+        <v>76</v>
+      </c>
+      <c r="D91" s="9" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A92" s="9" t="s">
+        <v>237</v>
+      </c>
+      <c r="B92" s="9" t="s">
+        <v>237</v>
+      </c>
+      <c r="C92" s="9" t="s">
+        <v>140</v>
+      </c>
+      <c r="D92" s="9" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A93" s="9" t="s">
+        <v>237</v>
+      </c>
+      <c r="B93" s="9" t="s">
+        <v>237</v>
+      </c>
+      <c r="C93" s="9" t="s">
+        <v>137</v>
+      </c>
+      <c r="D93" s="9" t="s">
+        <v>0</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
-  <legacyDrawing r:id="rId2"/>
   <tableParts count="1">
-    <tablePart r:id="rId3"/>
+    <tablePart r:id="rId2"/>
   </tableParts>
 </worksheet>
 </file>
@@ -5744,7 +5390,7 @@
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>199</v>
+        <v>105</v>
       </c>
       <c r="B3" t="s">
         <v>29</v>
@@ -5755,7 +5401,7 @@
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>182</v>
+        <v>97</v>
       </c>
       <c r="C4">
         <v>1</v>
@@ -5763,7 +5409,7 @@
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>196</v>
+        <v>102</v>
       </c>
       <c r="C5">
         <v>3</v>

--- a/Data/Techmap/DEModel_V2.xlsx
+++ b/Data/Techmap/DEModel_V2.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GIT-OTHER\CESM\Data\Techmap\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{255D9439-9A0F-47F1-8739-947D2587B4D2}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CDDC1798-F1AD-41C3-AC21-5E1304AFA082}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="10236" yWindow="120" windowWidth="6492" windowHeight="8172" activeTab="4" xr2:uid="{EC78BDD3-7137-425A-8228-7CE92A9A1C25}"/>
+    <workbookView xWindow="10236" yWindow="120" windowWidth="6492" windowHeight="8172" activeTab="3" xr2:uid="{EC78BDD3-7137-425A-8228-7CE92A9A1C25}"/>
   </bookViews>
   <sheets>
     <sheet name="Units" sheetId="9" r:id="rId1"/>
@@ -939,8 +939,8 @@
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{74A02AEB-67CD-4D1C-8FE9-7365E46D98F4}" name="Tabelle4" displayName="Tabelle4" ref="A1:D63" totalsRowShown="0">
-  <autoFilter ref="A1:D63" xr:uid="{A4F2E66D-1024-44EB-B26C-9EF3C2ACFA7D}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{74A02AEB-67CD-4D1C-8FE9-7365E46D98F4}" name="Tabelle4" displayName="Tabelle4" ref="A1:D64" totalsRowShown="0">
+  <autoFilter ref="A1:D64" xr:uid="{A4F2E66D-1024-44EB-B26C-9EF3C2ACFA7D}"/>
   <tableColumns count="4">
     <tableColumn id="1" xr3:uid="{68045503-4D44-4DCF-9110-03DFC110F65E}" name="conversion_process_name"/>
     <tableColumn id="2" xr3:uid="{B201BB8F-62F7-4A39-95D4-A92A4057D6C7}" name="description"/>
@@ -1782,10 +1782,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{70369A52-6DA6-442B-A9B0-7FE85C1EDFA1}">
-  <dimension ref="A1:D63"/>
+  <dimension ref="A1:D64"/>
   <sheetViews>
-    <sheetView topLeftCell="A22" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B63" sqref="B63"/>
+    <sheetView tabSelected="1" topLeftCell="A22" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="J56" sqref="J56"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.44140625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2214,28 +2214,32 @@
         <v>10</v>
       </c>
     </row>
-    <row r="59" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A59" t="s">
+    <row r="58" spans="1:4" s="9" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="C58" s="4"/>
+      <c r="D58" s="4"/>
+    </row>
+    <row r="60" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A60" t="s">
         <v>135</v>
       </c>
     </row>
-    <row r="60" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A60" s="9" t="s">
+    <row r="61" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A61" s="9" t="s">
         <v>136</v>
-      </c>
-    </row>
-    <row r="61" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A61" t="s">
-        <v>138</v>
       </c>
     </row>
     <row r="62" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A62" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
     </row>
     <row r="63" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A63" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="64" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A64" t="s">
         <v>237</v>
       </c>
     </row>
@@ -2252,11 +2256,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{042B031A-8F6B-4A01-B2DE-DD19A2E3D336}">
   <dimension ref="A1:Z93"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <pane xSplit="4" ySplit="3" topLeftCell="I29" activePane="bottomRight" state="frozen"/>
+    <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <pane xSplit="4" ySplit="3" topLeftCell="I4" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="F1" sqref="F1"/>
       <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
-      <selection pane="bottomRight" activeCell="N34" sqref="N34"/>
+      <selection pane="bottomRight" activeCell="K37" sqref="K37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="13" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>

--- a/Data/Techmap/DEModel_V2.xlsx
+++ b/Data/Techmap/DEModel_V2.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GIT-OTHER\CESM\Data\Techmap\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CDDC1798-F1AD-41C3-AC21-5E1304AFA082}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F4E79E48-C675-4536-99CB-C05AB44A28A7}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="10236" yWindow="120" windowWidth="6492" windowHeight="8172" activeTab="3" xr2:uid="{EC78BDD3-7137-425A-8228-7CE92A9A1C25}"/>
+    <workbookView xWindow="10236" yWindow="120" windowWidth="6492" windowHeight="8172" activeTab="4" xr2:uid="{EC78BDD3-7137-425A-8228-7CE92A9A1C25}"/>
   </bookViews>
   <sheets>
     <sheet name="Units" sheetId="9" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="597" uniqueCount="243">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="597" uniqueCount="245">
   <si>
     <t>Base</t>
   </si>
@@ -353,9 +353,6 @@
     <t>Mio EUR</t>
   </si>
   <si>
-    <t>test-tss</t>
-  </si>
-  <si>
     <t>is_storage</t>
   </si>
   <si>
@@ -765,6 +762,15 @@
   </si>
   <si>
     <t>[2016 0;2035 355]</t>
+  </si>
+  <si>
+    <t>[2016 870; 2030 540; 2050 240; 2060 140]</t>
+  </si>
+  <si>
+    <t>test_tss</t>
+  </si>
+  <si>
+    <t>[2016 14.3;2017 NaN]</t>
   </si>
 </sst>
 </file>
@@ -861,7 +867,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -891,6 +897,9 @@
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1298,7 +1307,7 @@
   <dimension ref="A1:C8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A8" sqref="A8"/>
+      <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.44140625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1308,13 +1317,13 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1" s="12" t="s">
+        <v>121</v>
+      </c>
+      <c r="B1" s="12" t="s">
         <v>122</v>
       </c>
-      <c r="B1" s="12" t="s">
+      <c r="C1" s="12" t="s">
         <v>123</v>
-      </c>
-      <c r="C1" s="12" t="s">
-        <v>124</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.3">
@@ -1343,7 +1352,7 @@
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="B4" t="str">
         <f>IF(B2="kW","t",IF(B2="MW","kilo t","Mio t"))</f>
@@ -1373,8 +1382,7 @@
         <v>35</v>
       </c>
       <c r="C6">
-        <f>IF(Power = "GW", 10^3,IF(Power ="MW",10^3,1))/10^6</f>
-        <v>1E-3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.3">
@@ -1391,7 +1399,7 @@
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="B8" t="s">
         <v>104</v>
@@ -1415,15 +1423,15 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C314D8A4-C600-4AA7-912A-1904B77A7F29}">
   <dimension ref="A1:H6"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F15" sqref="F15"/>
+    <sheetView topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="H6" sqref="H6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.44140625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="14.77734375" customWidth="1"/>
     <col min="2" max="2" width="16.44140625" customWidth="1"/>
-    <col min="3" max="3" width="21.77734375" customWidth="1"/>
+    <col min="3" max="3" width="36.109375" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="17.5546875" customWidth="1"/>
     <col min="5" max="5" width="15.21875" customWidth="1"/>
     <col min="6" max="6" width="17" customWidth="1"/>
@@ -1432,10 +1440,10 @@
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
+        <v>117</v>
+      </c>
+      <c r="B1" t="s">
         <v>118</v>
-      </c>
-      <c r="B1" t="s">
-        <v>119</v>
       </c>
       <c r="C1" t="s">
         <v>43</v>
@@ -1444,13 +1452,13 @@
         <v>44</v>
       </c>
       <c r="E1" t="s">
+        <v>119</v>
+      </c>
+      <c r="F1" t="s">
+        <v>132</v>
+      </c>
+      <c r="G1" t="s">
         <v>120</v>
-      </c>
-      <c r="F1" t="s">
-        <v>133</v>
-      </c>
-      <c r="G1" t="s">
-        <v>121</v>
       </c>
       <c r="H1" t="s">
         <v>28</v>
@@ -1463,8 +1471,8 @@
       <c r="B2">
         <v>0.05</v>
       </c>
-      <c r="C2" t="s">
-        <v>101</v>
+      <c r="C2" s="15" t="s">
+        <v>242</v>
       </c>
       <c r="E2">
         <v>2015</v>
@@ -1481,7 +1489,7 @@
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="B3">
         <v>0.05</v>
@@ -1496,7 +1504,7 @@
         <v>5</v>
       </c>
       <c r="H3" t="s">
-        <v>105</v>
+        <v>243</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.3">
@@ -1576,7 +1584,7 @@
   <dimension ref="A1:D21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A22" sqref="A22"/>
+      <selection activeCell="A7" sqref="A7:XFD7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.44140625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1587,21 +1595,21 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="B1" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="C1" t="s">
+        <v>143</v>
+      </c>
+      <c r="D1" t="s">
         <v>144</v>
-      </c>
-      <c r="D1" t="s">
-        <v>145</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.3">
@@ -1624,7 +1632,7 @@
         <v>88</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="D6" s="4">
         <v>10</v>
@@ -1640,7 +1648,7 @@
         <v>86</v>
       </c>
       <c r="C8" s="4" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="D8" s="4">
         <v>10</v>
@@ -1651,7 +1659,7 @@
         <v>84</v>
       </c>
       <c r="C9" s="13" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="D9" s="4">
         <v>10</v>
@@ -1662,7 +1670,7 @@
         <v>19</v>
       </c>
       <c r="C10" s="4" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="D10" s="4">
         <v>10</v>
@@ -1673,7 +1681,7 @@
         <v>45</v>
       </c>
       <c r="C11" s="4" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="D11" s="4">
         <v>10</v>
@@ -1684,7 +1692,7 @@
         <v>46</v>
       </c>
       <c r="C12" s="14" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="D12" s="4">
         <v>10</v>
@@ -1695,7 +1703,7 @@
         <v>47</v>
       </c>
       <c r="C13" s="4" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="D13" s="4">
         <v>10</v>
@@ -1706,7 +1714,7 @@
         <v>80</v>
       </c>
       <c r="C14" s="13" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="D14" s="4">
         <v>10</v>
@@ -1717,7 +1725,7 @@
         <v>73</v>
       </c>
       <c r="C15" s="13" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="D15" s="4">
         <v>10</v>
@@ -1728,7 +1736,7 @@
         <v>48</v>
       </c>
       <c r="C16" s="4" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="D16" s="4">
         <v>10</v>
@@ -1739,7 +1747,7 @@
         <v>18</v>
       </c>
       <c r="C17" s="13" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="D17" s="4">
         <v>10</v>
@@ -1750,7 +1758,7 @@
         <v>76</v>
       </c>
       <c r="C18" s="4" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="D18" s="4">
         <v>11</v>
@@ -1758,17 +1766,17 @@
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
     </row>
   </sheetData>
@@ -1784,8 +1792,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{70369A52-6DA6-442B-A9B0-7FE85C1EDFA1}">
   <dimension ref="A1:D64"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A22" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="J56" sqref="J56"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B24" sqref="B24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.44140625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1796,16 +1804,16 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="B1" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="C1" t="s">
+        <v>143</v>
+      </c>
+      <c r="D1" t="s">
         <v>144</v>
-      </c>
-      <c r="D1" t="s">
-        <v>145</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.3">
@@ -1813,7 +1821,7 @@
         <v>71</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="D3" s="4">
         <v>1</v>
@@ -1824,7 +1832,7 @@
         <v>20</v>
       </c>
       <c r="C4" s="13" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="D4" s="4">
         <v>2</v>
@@ -1835,7 +1843,7 @@
         <v>72</v>
       </c>
       <c r="C5" s="13" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="D5" s="4">
         <v>3</v>
@@ -1846,7 +1854,7 @@
         <v>74</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="D6" s="4">
         <v>3</v>
@@ -1857,7 +1865,7 @@
         <v>75</v>
       </c>
       <c r="C7" s="4" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="D7" s="4">
         <v>4</v>
@@ -1868,7 +1876,7 @@
         <v>77</v>
       </c>
       <c r="C8" s="4" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="D8" s="4">
         <v>5</v>
@@ -1879,7 +1887,7 @@
         <v>78</v>
       </c>
       <c r="C9" s="14" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="D9" s="4">
         <v>6</v>
@@ -1943,7 +1951,7 @@
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="D19" s="9">
         <v>0</v>
@@ -1956,10 +1964,10 @@
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="C22" s="4" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="D22" s="4">
         <v>10</v>
@@ -1967,29 +1975,29 @@
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="C25" s="9"/>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
     </row>
     <row r="27" spans="1:4" s="9" customFormat="1" x14ac:dyDescent="0.3"/>
     <row r="28" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="D28">
         <v>10</v>
@@ -1997,10 +2005,10 @@
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="C29" s="4" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="D29" s="4">
         <v>10</v>
@@ -2008,32 +2016,32 @@
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
     </row>
     <row r="31" spans="1:4" s="9" customFormat="1" x14ac:dyDescent="0.3"/>
     <row r="32" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
     </row>
     <row r="33" spans="1:4" s="9" customFormat="1" x14ac:dyDescent="0.3"/>
     <row r="34" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="C36" s="13" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="D36" s="4">
         <v>10</v>
@@ -2042,10 +2050,10 @@
     <row r="37" spans="1:4" s="9" customFormat="1" x14ac:dyDescent="0.3"/>
     <row r="38" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="C38" s="13" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="D38" s="4">
         <v>9</v>
@@ -2053,10 +2061,10 @@
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="C39" s="4" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="D39" s="4">
         <v>11</v>
@@ -2064,10 +2072,10 @@
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="C40" s="4" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="D40" s="4">
         <v>4</v>
@@ -2076,10 +2084,10 @@
     <row r="41" spans="1:4" s="9" customFormat="1" x14ac:dyDescent="0.3"/>
     <row r="42" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A42" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="C42" s="4" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="D42">
         <v>30</v>
@@ -2087,10 +2095,10 @@
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A43" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="C43" s="4" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="D43" s="9">
         <v>31</v>
@@ -2098,10 +2106,10 @@
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A44" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="C44" s="4" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="D44" s="9">
         <v>32</v>
@@ -2109,10 +2117,10 @@
     </row>
     <row r="45" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A45" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="C45" s="4" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="D45">
         <v>33</v>
@@ -2120,10 +2128,10 @@
     </row>
     <row r="46" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A46" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="C46" s="4" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="D46" s="4">
         <v>34</v>
@@ -2131,10 +2139,10 @@
     </row>
     <row r="47" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A47" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="C47" s="4" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="D47" s="4">
         <v>35</v>
@@ -2142,7 +2150,7 @@
     </row>
     <row r="48" spans="1:4" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A48" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="B48"/>
       <c r="C48"/>
@@ -2151,15 +2159,15 @@
     <row r="49" spans="1:4" s="9" customFormat="1" x14ac:dyDescent="0.3"/>
     <row r="50" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A50" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
     </row>
     <row r="51" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A51" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="C51" s="4" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="D51" s="4">
         <v>10</v>
@@ -2167,15 +2175,15 @@
     </row>
     <row r="52" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A52" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
     </row>
     <row r="53" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A53" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="C53" s="13" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="D53" s="4">
         <v>9</v>
@@ -2183,10 +2191,10 @@
     </row>
     <row r="54" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A54" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="C54" s="4" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="D54" s="4">
         <v>3</v>
@@ -2197,7 +2205,7 @@
         <v>50</v>
       </c>
       <c r="C56" s="13" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="D56" s="4">
         <v>10</v>
@@ -2208,7 +2216,7 @@
         <v>49</v>
       </c>
       <c r="C57" s="4" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="D57" s="4">
         <v>10</v>
@@ -2220,27 +2228,27 @@
     </row>
     <row r="60" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A60" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
     </row>
     <row r="61" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A61" s="9" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
     </row>
     <row r="62" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A62" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
     </row>
     <row r="63" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A63" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
     </row>
     <row r="64" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A64" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
     </row>
   </sheetData>
@@ -2256,19 +2264,19 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{042B031A-8F6B-4A01-B2DE-DD19A2E3D336}">
   <dimension ref="A1:Z93"/>
   <sheetViews>
-    <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <pane xSplit="4" ySplit="3" topLeftCell="I4" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <pane xSplit="4" ySplit="3" topLeftCell="K59" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="F1" sqref="F1"/>
       <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
-      <selection pane="bottomRight" activeCell="K37" sqref="K37"/>
+      <selection pane="bottomRight" activeCell="N71" sqref="N71"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="13" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="27.77734375" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="21.77734375" customWidth="1"/>
-    <col min="3" max="3" width="24.88671875" customWidth="1"/>
-    <col min="4" max="4" width="14" customWidth="1"/>
+    <col min="3" max="3" width="21" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="14" hidden="1" customWidth="1"/>
     <col min="5" max="5" width="10.77734375" customWidth="1"/>
     <col min="6" max="6" width="14.77734375" customWidth="1"/>
     <col min="7" max="9" width="10.77734375" customWidth="1"/>
@@ -2293,25 +2301,25 @@
   <sheetData>
     <row r="1" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
+        <v>125</v>
+      </c>
+      <c r="B1" t="s">
         <v>126</v>
       </c>
-      <c r="B1" t="s">
+      <c r="C1" t="s">
         <v>127</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D1" t="s">
         <v>128</v>
       </c>
-      <c r="D1" t="s">
-        <v>129</v>
-      </c>
       <c r="E1" s="9" t="s">
+        <v>105</v>
+      </c>
+      <c r="F1" s="9" t="s">
+        <v>111</v>
+      </c>
+      <c r="G1" s="9" t="s">
         <v>106</v>
-      </c>
-      <c r="F1" s="9" t="s">
-        <v>112</v>
-      </c>
-      <c r="G1" s="9" t="s">
-        <v>107</v>
       </c>
       <c r="H1" t="s">
         <v>40</v>
@@ -2365,21 +2373,21 @@
         <v>100</v>
       </c>
       <c r="Y1" t="s">
+        <v>113</v>
+      </c>
+      <c r="Z1" t="s">
         <v>114</v>
-      </c>
-      <c r="Z1" t="s">
-        <v>115</v>
       </c>
     </row>
     <row r="2" spans="1:26" s="7" customFormat="1" ht="58.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="E2" s="11" t="s">
+        <v>107</v>
+      </c>
+      <c r="F2" s="11" t="s">
+        <v>112</v>
+      </c>
+      <c r="G2" s="11" t="s">
         <v>108</v>
-      </c>
-      <c r="F2" s="11" t="s">
-        <v>113</v>
-      </c>
-      <c r="G2" s="11" t="s">
-        <v>109</v>
       </c>
       <c r="K2" s="7" t="s">
         <v>23</v>
@@ -2388,13 +2396,13 @@
         <v>24</v>
       </c>
       <c r="M2" s="7" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="N2" s="7" t="s">
         <v>22</v>
       </c>
       <c r="O2" s="7" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="P2" s="7" t="s">
         <v>99</v>
@@ -2418,16 +2426,16 @@
         <v>68</v>
       </c>
       <c r="W2" s="7" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="X2" s="7" t="s">
         <v>70</v>
       </c>
       <c r="Y2" s="7" t="s">
+        <v>115</v>
+      </c>
+      <c r="Z2" s="7" t="s">
         <v>116</v>
-      </c>
-      <c r="Z2" s="7" t="s">
-        <v>117</v>
       </c>
     </row>
     <row r="3" spans="1:26" s="1" customFormat="1" x14ac:dyDescent="0.3">
@@ -2543,7 +2551,7 @@
       <c r="N5" s="6"/>
       <c r="O5" s="5"/>
       <c r="P5" s="6" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="Q5" s="6"/>
       <c r="R5" s="6"/>
@@ -2583,7 +2591,7 @@
       <c r="N6" s="6"/>
       <c r="O6" s="5"/>
       <c r="P6" s="6" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="Q6" s="6"/>
       <c r="R6" s="6"/>
@@ -2663,7 +2671,7 @@
       <c r="N8" s="6"/>
       <c r="O8" s="5"/>
       <c r="P8" s="6" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="Q8" s="6"/>
       <c r="R8" s="6"/>
@@ -2754,13 +2762,13 @@
     </row>
     <row r="11" spans="1:26" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A11" s="3" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="B11" s="3" t="s">
         <v>17</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="D11" s="3" t="s">
         <v>0</v>
@@ -2779,7 +2787,7 @@
       <c r="N11" s="6"/>
       <c r="O11" s="5"/>
       <c r="P11" s="6" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="Q11" s="6"/>
       <c r="R11" s="6"/>
@@ -2854,13 +2862,13 @@
     </row>
     <row r="14" spans="1:26" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A14" s="9" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="B14" s="3" t="s">
         <v>76</v>
       </c>
       <c r="C14" s="3" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="D14" s="3" t="s">
         <v>0</v>
@@ -2888,13 +2896,13 @@
     </row>
     <row r="15" spans="1:26" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A15" s="9" t="s">
+        <v>138</v>
+      </c>
+      <c r="B15" s="3" t="s">
         <v>139</v>
       </c>
-      <c r="B15" s="3" t="s">
-        <v>140</v>
-      </c>
       <c r="C15" s="3" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="D15" s="3" t="s">
         <v>0</v>
@@ -2970,7 +2978,7 @@
       <c r="Q17" s="6"/>
       <c r="R17" s="6"/>
       <c r="T17" s="5" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="U17" s="3"/>
       <c r="V17" s="3"/>
@@ -3168,7 +3176,7 @@
     </row>
     <row r="23" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A23" s="9" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="B23" s="3" t="s">
         <v>80</v>
@@ -3229,7 +3237,7 @@
     </row>
     <row r="25" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A25" s="3" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="B25" s="3" t="s">
         <v>45</v>
@@ -3250,11 +3258,11 @@
         <v>0.86</v>
       </c>
       <c r="K25" s="5" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="L25" s="6"/>
       <c r="N25" s="6" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="O25" s="5">
         <v>30</v>
@@ -3263,7 +3271,7 @@
         <v>165</v>
       </c>
       <c r="R25" s="6" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="S25" s="5"/>
       <c r="T25" s="6"/>
@@ -3276,7 +3284,7 @@
     </row>
     <row r="26" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A26" s="3" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="B26" s="3" t="s">
         <v>18</v>
@@ -3297,11 +3305,11 @@
         <v>0.86</v>
       </c>
       <c r="K26" s="5" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="L26" s="5"/>
       <c r="N26" s="6" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="O26" s="5">
         <v>40</v>
@@ -3323,10 +3331,10 @@
     </row>
     <row r="27" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A27" s="3" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="B27" s="3" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="C27" s="3" t="s">
         <v>19</v>
@@ -3344,11 +3352,11 @@
         <v>0.95</v>
       </c>
       <c r="K27" s="5" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="L27" s="5"/>
       <c r="N27" s="6" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="O27" s="5">
         <v>25</v>
@@ -3370,7 +3378,7 @@
     </row>
     <row r="28" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A28" s="3" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="B28" s="3" t="s">
         <v>48</v>
@@ -3391,11 +3399,11 @@
         <v>0.76</v>
       </c>
       <c r="K28" s="5" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="L28" s="5"/>
       <c r="N28" s="6" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="O28" s="5">
         <v>40</v>
@@ -3417,7 +3425,7 @@
     </row>
     <row r="29" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A29" s="3" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="B29" s="3" t="s">
         <v>47</v>
@@ -3438,11 +3446,11 @@
         <v>0.95</v>
       </c>
       <c r="K29" s="5" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="L29" s="5"/>
       <c r="N29" s="6" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="O29" s="5">
         <v>60</v>
@@ -3491,7 +3499,7 @@
     </row>
     <row r="31" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A31" s="9" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="B31" s="3" t="s">
         <v>17</v>
@@ -3510,11 +3518,11 @@
       </c>
       <c r="J31" s="6"/>
       <c r="K31" s="5" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="L31" s="6"/>
       <c r="N31" s="6" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="O31" s="5"/>
       <c r="Q31" s="6">
@@ -3534,7 +3542,7 @@
     </row>
     <row r="32" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A32" s="9" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="B32" s="3" t="s">
         <v>17</v>
@@ -3557,7 +3565,7 @@
       </c>
       <c r="L32" s="6"/>
       <c r="N32" s="6" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="O32" s="5">
         <v>25</v>
@@ -3566,7 +3574,7 @@
         <v>15</v>
       </c>
       <c r="R32" s="6" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="S32" s="5"/>
       <c r="T32" s="6"/>
@@ -3581,7 +3589,7 @@
     </row>
     <row r="33" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A33" s="9" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="B33" s="3" t="s">
         <v>17</v>
@@ -3626,7 +3634,7 @@
     </row>
     <row r="34" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A34" s="9" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="B34" s="3" t="s">
         <v>17</v>
@@ -3645,13 +3653,13 @@
       </c>
       <c r="J34" s="6"/>
       <c r="K34" s="5" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="L34" s="6" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="N34" s="6" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="O34" s="5"/>
       <c r="Q34" s="6">
@@ -3671,7 +3679,7 @@
     </row>
     <row r="35" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A35" s="9" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="B35" s="3" t="s">
         <v>17</v>
@@ -3694,7 +3702,7 @@
       </c>
       <c r="L35" s="6"/>
       <c r="N35" s="6" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="O35" s="5">
         <v>25</v>
@@ -3703,7 +3711,7 @@
         <v>93</v>
       </c>
       <c r="R35" s="6" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="S35" s="5"/>
       <c r="T35" s="6"/>
@@ -3718,7 +3726,7 @@
     </row>
     <row r="36" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A36" s="9" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="B36" s="3" t="s">
         <v>17</v>
@@ -3737,13 +3745,13 @@
       </c>
       <c r="J36" s="6"/>
       <c r="K36" s="5" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="L36" s="6" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="N36" s="6" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="O36" s="5"/>
       <c r="Q36" s="6">
@@ -3763,7 +3771,7 @@
     </row>
     <row r="37" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A37" s="9" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="B37" s="3" t="s">
         <v>17</v>
@@ -3786,7 +3794,7 @@
       </c>
       <c r="L37" s="6"/>
       <c r="N37" s="6" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="O37" s="5">
         <v>25</v>
@@ -3795,7 +3803,7 @@
         <v>13</v>
       </c>
       <c r="R37" s="6" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="S37" s="5"/>
       <c r="T37" s="6"/>
@@ -3810,7 +3818,7 @@
     </row>
     <row r="40" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A40" s="9" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="B40" s="3" t="s">
         <v>18</v>
@@ -3854,7 +3862,7 @@
     </row>
     <row r="41" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A41" s="9" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="B41" s="3" t="s">
         <v>19</v>
@@ -3898,10 +3906,10 @@
     </row>
     <row r="42" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A42" s="9" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="B42" s="3" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="C42" s="3" t="s">
         <v>84</v>
@@ -3938,7 +3946,7 @@
     </row>
     <row r="44" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A44" s="3" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="B44" s="3" t="s">
         <v>84</v>
@@ -3970,7 +3978,7 @@
     </row>
     <row r="46" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A46" s="9" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="B46" s="3" t="s">
         <v>45</v>
@@ -4010,7 +4018,7 @@
     </row>
     <row r="47" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A47" s="9" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="B47" s="3" t="s">
         <v>19</v>
@@ -4037,7 +4045,7 @@
         <v>1.5</v>
       </c>
       <c r="R47" s="6" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="S47" s="5"/>
       <c r="T47" s="6"/>
@@ -4050,7 +4058,7 @@
     </row>
     <row r="48" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A48" s="9" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="B48" s="3" t="s">
         <v>46</v>
@@ -4135,13 +4143,13 @@
       </c>
       <c r="J50" s="6"/>
       <c r="K50" s="5" t="s">
+        <v>217</v>
+      </c>
+      <c r="L50" s="6" t="s">
+        <v>217</v>
+      </c>
+      <c r="N50" s="5" t="s">
         <v>218</v>
-      </c>
-      <c r="L50" s="6" t="s">
-        <v>218</v>
-      </c>
-      <c r="N50" s="5" t="s">
-        <v>219</v>
       </c>
       <c r="O50" s="5">
         <v>25</v>
@@ -4150,15 +4158,15 @@
         <v>1.93</v>
       </c>
       <c r="R50" s="6" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="S50" s="5"/>
       <c r="T50" s="6"/>
       <c r="U50" s="3" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="V50" s="3" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="W50" s="3"/>
       <c r="X50" s="3"/>
@@ -4192,7 +4200,7 @@
     </row>
     <row r="52" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A52" s="9" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="B52" s="3" t="s">
         <v>45</v>
@@ -4211,10 +4219,10 @@
       </c>
       <c r="J52" s="6"/>
       <c r="K52" s="5" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="L52" s="6" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="N52" s="5" t="s">
         <v>93</v>
@@ -4226,12 +4234,12 @@
         <v>20</v>
       </c>
       <c r="R52" s="6" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="S52" s="5"/>
       <c r="T52" s="6"/>
       <c r="U52" s="3" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="V52" s="3"/>
       <c r="W52" s="3"/>
@@ -4243,10 +4251,10 @@
     </row>
     <row r="53" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A53" s="9" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="B53" s="3" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="C53" s="3" t="s">
         <v>82</v>
@@ -4262,10 +4270,10 @@
       </c>
       <c r="J53" s="6"/>
       <c r="K53" s="5" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="L53" s="6" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="N53" s="5" t="s">
         <v>94</v>
@@ -4277,12 +4285,12 @@
         <v>10</v>
       </c>
       <c r="R53" s="6" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="S53" s="5"/>
       <c r="T53" s="6"/>
       <c r="U53" s="3" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="V53" s="3">
         <v>0.55000000000000004</v>
@@ -4296,7 +4304,7 @@
     </row>
     <row r="54" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A54" s="9" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="B54" s="3" t="s">
         <v>19</v>
@@ -4326,12 +4334,12 @@
         <v>18</v>
       </c>
       <c r="R54" s="6" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="S54" s="5"/>
       <c r="T54" s="6"/>
       <c r="U54" s="3" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="V54" s="3"/>
       <c r="W54" s="3"/>
@@ -4343,7 +4351,7 @@
     </row>
     <row r="55" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A55" s="9" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="B55" s="3" t="s">
         <v>80</v>
@@ -4362,10 +4370,10 @@
       </c>
       <c r="J55" s="6"/>
       <c r="K55" s="5" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="L55" s="6" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="N55" s="5" t="s">
         <v>95</v>
@@ -4377,12 +4385,12 @@
         <v>15</v>
       </c>
       <c r="R55" s="6" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="S55" s="5"/>
       <c r="T55" s="6"/>
       <c r="U55" s="3" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="V55" s="3"/>
       <c r="W55" s="3"/>
@@ -4394,7 +4402,7 @@
     </row>
     <row r="56" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A56" s="9" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="B56" s="3" t="s">
         <v>19</v>
@@ -4424,12 +4432,12 @@
         <v>15</v>
       </c>
       <c r="R56" s="6" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="S56" s="5"/>
       <c r="T56" s="6"/>
       <c r="U56" s="3" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="V56" s="3"/>
       <c r="W56" s="3"/>
@@ -4489,7 +4497,7 @@
     </row>
     <row r="59" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A59" s="3" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="B59" s="3" t="s">
         <v>45</v>
@@ -4523,7 +4531,7 @@
     </row>
     <row r="60" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A60" s="3" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="B60" s="3" t="s">
         <v>91</v>
@@ -4559,7 +4567,7 @@
     </row>
     <row r="61" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A61" s="3" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="B61" s="3" t="s">
         <v>91</v>
@@ -4609,7 +4617,7 @@
     </row>
     <row r="62" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A62" s="3" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="B62" s="3" t="s">
         <v>91</v>
@@ -4667,7 +4675,7 @@
     </row>
     <row r="64" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A64" s="3" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="B64" s="3" t="s">
         <v>18</v>
@@ -4701,7 +4709,7 @@
     </row>
     <row r="65" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A65" s="3" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="B65" s="3" t="s">
         <v>92</v>
@@ -4735,7 +4743,7 @@
     </row>
     <row r="66" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A66" s="3" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="B66" s="3" t="s">
         <v>92</v>
@@ -4754,10 +4762,10 @@
         <v>0.75</v>
       </c>
       <c r="K66" s="5" t="s">
+        <v>179</v>
+      </c>
+      <c r="L66" s="5" t="s">
         <v>180</v>
-      </c>
-      <c r="L66" s="5" t="s">
-        <v>181</v>
       </c>
       <c r="N66" s="6"/>
       <c r="O66" s="5">
@@ -4785,7 +4793,7 @@
     </row>
     <row r="67" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A67" s="3" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="B67" s="3" t="s">
         <v>92</v>
@@ -4843,13 +4851,13 @@
     </row>
     <row r="69" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A69" s="3" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="B69" s="3" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="C69" s="3" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="D69" s="3" t="s">
         <v>0</v>
@@ -4879,10 +4887,10 @@
     </row>
     <row r="70" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A70" s="3" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="B70" s="3" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="C70" s="3" t="s">
         <v>17</v>
@@ -4913,10 +4921,10 @@
     </row>
     <row r="71" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A71" s="3" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="B71" s="3" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="C71" s="3" t="s">
         <v>19</v>
@@ -4930,11 +4938,11 @@
       <c r="I71" s="3"/>
       <c r="J71" s="6"/>
       <c r="K71" s="5" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="L71" s="5"/>
-      <c r="N71" s="5" t="s">
-        <v>179</v>
+      <c r="N71" s="6" t="s">
+        <v>244</v>
       </c>
       <c r="O71" s="5">
         <v>30</v>
@@ -4960,10 +4968,10 @@
     </row>
     <row r="72" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A72" s="3" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="B72" s="3" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="C72" s="3" t="s">
         <v>86</v>
@@ -4992,10 +5000,10 @@
     </row>
     <row r="73" spans="1:26" x14ac:dyDescent="0.3">
       <c r="K73" s="5" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="L73" s="5" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
     </row>
     <row r="74" spans="1:26" x14ac:dyDescent="0.3">
@@ -5073,7 +5081,7 @@
         <v>450</v>
       </c>
       <c r="R75" s="4" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="S75" s="4"/>
       <c r="T75" s="4"/>
@@ -5088,13 +5096,13 @@
     </row>
     <row r="76" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A76" s="9" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="B76" t="s">
         <v>19</v>
       </c>
       <c r="C76" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="D76" t="s">
         <v>0</v>
@@ -5103,10 +5111,10 @@
         <v>0.7</v>
       </c>
       <c r="Q76" s="4" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="R76" s="4" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="S76">
         <v>0</v>
@@ -5119,13 +5127,13 @@
     </row>
     <row r="78" spans="1:26" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A78" s="9" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="B78" s="9" t="s">
         <v>17</v>
       </c>
       <c r="C78" s="9" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="D78" s="9" t="s">
         <v>0</v>
@@ -5139,10 +5147,10 @@
     </row>
     <row r="79" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A79" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="B79" s="9" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="C79" s="9" t="s">
         <v>88</v>
@@ -5153,10 +5161,10 @@
     </row>
     <row r="80" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A80" s="9" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="B80" s="9" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="C80" s="9" t="s">
         <v>82</v>
@@ -5167,10 +5175,10 @@
     </row>
     <row r="81" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A81" s="9" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="B81" s="9" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="C81" s="9" t="s">
         <v>86</v>
@@ -5181,10 +5189,10 @@
     </row>
     <row r="82" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A82" s="9" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="B82" s="9" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="C82" s="9" t="s">
         <v>84</v>
@@ -5195,10 +5203,10 @@
     </row>
     <row r="83" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A83" s="9" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="B83" s="9" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="C83" s="9" t="s">
         <v>19</v>
@@ -5209,10 +5217,10 @@
     </row>
     <row r="84" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A84" s="9" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="B84" s="9" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="C84" s="9" t="s">
         <v>45</v>
@@ -5223,10 +5231,10 @@
     </row>
     <row r="85" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A85" s="9" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="B85" s="9" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="C85" s="9" t="s">
         <v>46</v>
@@ -5237,10 +5245,10 @@
     </row>
     <row r="86" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A86" s="9" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="B86" s="9" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="C86" s="9" t="s">
         <v>47</v>
@@ -5251,10 +5259,10 @@
     </row>
     <row r="87" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A87" s="9" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="B87" s="9" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="C87" s="9" t="s">
         <v>80</v>
@@ -5265,10 +5273,10 @@
     </row>
     <row r="88" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A88" s="9" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="B88" s="9" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="C88" s="9" t="s">
         <v>73</v>
@@ -5279,10 +5287,10 @@
     </row>
     <row r="89" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A89" s="9" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="B89" s="9" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="C89" s="9" t="s">
         <v>48</v>
@@ -5293,10 +5301,10 @@
     </row>
     <row r="90" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A90" s="9" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="B90" s="9" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="C90" s="9" t="s">
         <v>18</v>
@@ -5307,10 +5315,10 @@
     </row>
     <row r="91" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A91" s="9" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="B91" s="9" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="C91" s="9" t="s">
         <v>76</v>
@@ -5321,13 +5329,13 @@
     </row>
     <row r="92" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A92" s="9" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="B92" s="9" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="C92" s="9" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="D92" s="9" t="s">
         <v>0</v>
@@ -5335,13 +5343,13 @@
     </row>
     <row r="93" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A93" s="9" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="B93" s="9" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="C93" s="9" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="D93" s="9" t="s">
         <v>0</v>
@@ -5361,7 +5369,7 @@
   <dimension ref="A1:C5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D11" sqref="D11"/>
+      <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.44140625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -5394,7 +5402,7 @@
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>105</v>
+        <v>243</v>
       </c>
       <c r="B3" t="s">
         <v>29</v>

--- a/Data/Techmap/DEModel_V2.xlsx
+++ b/Data/Techmap/DEModel_V2.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24332"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GIT-OTHER\CESM\Data\Techmap\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Sina Hajikazemi\Documents\mycode\CESM\Data\Techmap\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F4E79E48-C675-4536-99CB-C05AB44A28A7}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{384775DC-BD00-4082-8D9D-E8863518ACCF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="10236" yWindow="120" windowWidth="6492" windowHeight="8172" activeTab="4" xr2:uid="{EC78BDD3-7137-425A-8228-7CE92A9A1C25}"/>
+    <workbookView xWindow="1170" yWindow="1170" windowWidth="21600" windowHeight="11175" activeTab="4" xr2:uid="{EC78BDD3-7137-425A-8228-7CE92A9A1C25}"/>
   </bookViews>
   <sheets>
     <sheet name="Units" sheetId="9" r:id="rId1"/>
@@ -26,17 +26,26 @@
     <definedName name="Energy">Units!$B$3</definedName>
     <definedName name="Power">Units!$B$2</definedName>
   </definedNames>
-  <calcPr calcId="179021"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="597" uniqueCount="245">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="596" uniqueCount="244">
   <si>
     <t>Base</t>
   </si>
@@ -201,9 +210,6 @@
   </si>
   <si>
     <t>[2015 0; 2016 NaN]</t>
-  </si>
-  <si>
-    <t>[2015 28;2050 0]</t>
   </si>
   <si>
     <t>[2015 0;2016 NaN]</t>
@@ -1310,23 +1316,23 @@
       <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.44140625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="13.77734375" customWidth="1"/>
+    <col min="1" max="1" width="13.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" s="12" t="s">
+        <v>120</v>
+      </c>
+      <c r="B1" s="12" t="s">
         <v>121</v>
       </c>
-      <c r="B1" s="12" t="s">
+      <c r="C1" s="12" t="s">
         <v>122</v>
       </c>
-      <c r="C1" s="12" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>36</v>
       </c>
@@ -1337,7 +1343,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>37</v>
       </c>
@@ -1350,9 +1356,9 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="B4" t="str">
         <f>IF(B2="kW","t",IF(B2="MW","kilo t","Mio t"))</f>
@@ -1362,7 +1368,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>38</v>
       </c>
@@ -1374,7 +1380,7 @@
         <v>1E-3</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>39</v>
       </c>
@@ -1385,7 +1391,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>42</v>
       </c>
@@ -1397,12 +1403,12 @@
         <v>1E-3</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="B8" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="C8">
         <v>1</v>
@@ -1427,23 +1433,23 @@
       <selection activeCell="H6" sqref="H6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.44140625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="14.77734375" customWidth="1"/>
-    <col min="2" max="2" width="16.44140625" customWidth="1"/>
-    <col min="3" max="3" width="36.109375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="17.5546875" customWidth="1"/>
-    <col min="5" max="5" width="15.21875" customWidth="1"/>
+    <col min="1" max="1" width="14.7109375" customWidth="1"/>
+    <col min="2" max="2" width="16.42578125" customWidth="1"/>
+    <col min="3" max="3" width="36.140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="17.5703125" customWidth="1"/>
+    <col min="5" max="5" width="15.28515625" customWidth="1"/>
     <col min="6" max="6" width="17" customWidth="1"/>
-    <col min="7" max="7" width="15.21875" customWidth="1"/>
+    <col min="7" max="7" width="15.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
+        <v>116</v>
+      </c>
+      <c r="B1" t="s">
         <v>117</v>
-      </c>
-      <c r="B1" t="s">
-        <v>118</v>
       </c>
       <c r="C1" t="s">
         <v>43</v>
@@ -1452,19 +1458,19 @@
         <v>44</v>
       </c>
       <c r="E1" t="s">
+        <v>118</v>
+      </c>
+      <c r="F1" t="s">
+        <v>131</v>
+      </c>
+      <c r="G1" t="s">
         <v>119</v>
-      </c>
-      <c r="F1" t="s">
-        <v>132</v>
-      </c>
-      <c r="G1" t="s">
-        <v>120</v>
       </c>
       <c r="H1" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>0</v>
       </c>
@@ -1472,7 +1478,7 @@
         <v>0.05</v>
       </c>
       <c r="C2" s="15" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="E2">
         <v>2015</v>
@@ -1484,12 +1490,12 @@
         <v>5</v>
       </c>
       <c r="H2" s="9" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="B3">
         <v>0.05</v>
@@ -1504,18 +1510,18 @@
         <v>5</v>
       </c>
       <c r="H3" t="s">
-        <v>243</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="B4">
         <v>0.05</v>
       </c>
       <c r="C4" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="E4">
         <v>2015</v>
@@ -1527,10 +1533,10 @@
         <v>5</v>
       </c>
       <c r="H4" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>32</v>
       </c>
@@ -1550,9 +1556,9 @@
         <v>30</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="B6">
         <v>0.05</v>
@@ -1567,7 +1573,7 @@
         <v>5</v>
       </c>
       <c r="H6" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
     </row>
   </sheetData>
@@ -1587,196 +1593,196 @@
       <selection activeCell="A7" sqref="A7:XFD7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.44140625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="14.109375" customWidth="1"/>
-    <col min="2" max="2" width="12.77734375" customWidth="1"/>
+    <col min="1" max="1" width="14.140625" customWidth="1"/>
+    <col min="2" max="2" width="12.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="B1" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="C1" t="s">
+        <v>142</v>
+      </c>
+      <c r="D1" t="s">
         <v>143</v>
       </c>
-      <c r="D1" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>177</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="D6" s="4">
         <v>10</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="C8" s="4" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="D8" s="4">
         <v>10</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C9" s="13" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="D9" s="4">
         <v>10</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>19</v>
       </c>
       <c r="C10" s="4" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="D10" s="4">
         <v>10</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>45</v>
       </c>
       <c r="C11" s="4" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="D11" s="4">
         <v>10</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>46</v>
       </c>
       <c r="C12" s="14" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="D12" s="4">
         <v>10</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>47</v>
       </c>
       <c r="C13" s="4" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="D13" s="4">
         <v>10</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="C14" s="13" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="D14" s="4">
         <v>10</v>
       </c>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="C15" s="13" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="D15" s="4">
         <v>10</v>
       </c>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>48</v>
       </c>
       <c r="C16" s="4" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="D16" s="4">
         <v>10</v>
       </c>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>18</v>
       </c>
       <c r="C17" s="13" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="D17" s="4">
         <v>10</v>
       </c>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C18" s="4" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="D18" s="4">
         <v>11</v>
       </c>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.3">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.3">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
     </row>
   </sheetData>
@@ -1796,120 +1802,120 @@
       <selection activeCell="B24" sqref="B24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.44140625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="23.77734375" customWidth="1"/>
-    <col min="2" max="2" width="12.21875" customWidth="1"/>
+    <col min="1" max="1" width="23.7109375" customWidth="1"/>
+    <col min="2" max="2" width="12.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="B1" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="C1" t="s">
+        <v>142</v>
+      </c>
+      <c r="D1" t="s">
         <v>143</v>
       </c>
-      <c r="D1" t="s">
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>70</v>
+      </c>
+      <c r="C3" s="4" t="s">
         <v>144</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A3" t="s">
-        <v>71</v>
-      </c>
-      <c r="C3" s="4" t="s">
-        <v>145</v>
       </c>
       <c r="D3" s="4">
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>20</v>
       </c>
       <c r="C4" s="13" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="D4" s="4">
         <v>2</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="C5" s="13" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="D5" s="4">
         <v>3</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="D6" s="4">
         <v>3</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="C7" s="4" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="D7" s="4">
         <v>4</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C8" s="4" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="D8" s="4">
         <v>5</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="C9" s="14" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="D9" s="4">
         <v>6</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="D11">
         <v>7</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="D13">
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>21</v>
       </c>
@@ -1917,338 +1923,338 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="D15" s="9">
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="D16" s="9">
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="D17" s="9">
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
+        <v>88</v>
+      </c>
+      <c r="D18" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>164</v>
+      </c>
+      <c r="D19" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
         <v>89</v>
       </c>
-      <c r="D18" s="9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A19" t="s">
-        <v>165</v>
-      </c>
-      <c r="D19" s="9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A21" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.3">
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="C22" s="4" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="D22" s="4">
         <v>10</v>
       </c>
     </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
         <v>223</v>
       </c>
-    </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A24" t="s">
+      <c r="C25" s="9"/>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
         <v>220</v>
       </c>
     </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A25" t="s">
-        <v>224</v>
-      </c>
-      <c r="C25" s="9"/>
-    </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A26" t="s">
-        <v>221</v>
-      </c>
-    </row>
-    <row r="27" spans="1:4" s="9" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:4" s="9" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="D28">
         <v>10</v>
       </c>
     </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="C29" s="4" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="D29" s="4">
         <v>10</v>
       </c>
     </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>214</v>
-      </c>
-    </row>
-    <row r="31" spans="1:4" s="9" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.3">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" s="9" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>175</v>
-      </c>
-    </row>
-    <row r="33" spans="1:4" s="9" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.3">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" s="9" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A35" t="s">
         <v>209</v>
       </c>
     </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A35" t="s">
+    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A36" t="s">
         <v>210</v>
       </c>
-    </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A36" t="s">
-        <v>211</v>
-      </c>
       <c r="C36" s="13" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="D36" s="4">
         <v>10</v>
       </c>
     </row>
-    <row r="37" spans="1:4" s="9" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:4" s="9" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="C38" s="13" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="D38" s="4">
         <v>9</v>
       </c>
     </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="C39" s="4" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="D39" s="4">
         <v>11</v>
       </c>
     </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="C40" s="4" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="D40" s="4">
         <v>4</v>
       </c>
     </row>
-    <row r="41" spans="1:4" s="9" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="42" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:4" s="9" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="42" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="C42" s="4" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="D42">
         <v>30</v>
       </c>
     </row>
-    <row r="43" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="C43" s="4" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="D43" s="9">
         <v>31</v>
       </c>
     </row>
-    <row r="44" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="C44" s="4" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="D44" s="9">
         <v>32</v>
       </c>
     </row>
-    <row r="45" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="C45" s="4" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="D45">
         <v>33</v>
       </c>
     </row>
-    <row r="46" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="C46" s="4" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="D46" s="4">
         <v>34</v>
       </c>
     </row>
-    <row r="47" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="C47" s="4" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="D47" s="4">
         <v>35</v>
       </c>
     </row>
-    <row r="48" spans="1:4" s="9" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:4" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="B48"/>
       <c r="C48"/>
       <c r="D48"/>
     </row>
-    <row r="49" spans="1:4" s="9" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="50" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:4" s="9" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="50" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="51" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A51" t="s">
         <v>169</v>
       </c>
-    </row>
-    <row r="51" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A51" t="s">
-        <v>170</v>
-      </c>
       <c r="C51" s="4" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="D51" s="4">
         <v>10</v>
       </c>
     </row>
-    <row r="52" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="53" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A53" t="s">
         <v>171</v>
       </c>
-    </row>
-    <row r="53" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A53" t="s">
-        <v>172</v>
-      </c>
       <c r="C53" s="13" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="D53" s="4">
         <v>9</v>
       </c>
     </row>
-    <row r="54" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="C54" s="4" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="D54" s="4">
         <v>3</v>
       </c>
     </row>
-    <row r="56" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
         <v>50</v>
       </c>
       <c r="C56" s="13" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="D56" s="4">
         <v>10</v>
       </c>
     </row>
-    <row r="57" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
         <v>49</v>
       </c>
       <c r="C57" s="4" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="D57" s="4">
         <v>10</v>
       </c>
     </row>
-    <row r="58" spans="1:4" s="9" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:4" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C58" s="4"/>
       <c r="D58" s="4"/>
     </row>
-    <row r="60" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="61" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A61" s="9" t="s">
         <v>134</v>
       </c>
     </row>
-    <row r="61" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A61" s="9" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="62" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="63" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A63" t="s">
         <v>137</v>
       </c>
     </row>
-    <row r="63" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A63" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="64" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
     </row>
   </sheetData>
@@ -2265,61 +2271,61 @@
   <dimension ref="A1:Z93"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <pane xSplit="4" ySplit="3" topLeftCell="K59" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="4" ySplit="3" topLeftCell="E67" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="F1" sqref="F1"/>
       <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
-      <selection pane="bottomRight" activeCell="N71" sqref="N71"/>
+      <selection pane="bottomRight" activeCell="K74" sqref="K74:L74"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="13" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="13" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="27.77734375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="21.77734375" customWidth="1"/>
+    <col min="1" max="1" width="27.7109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="21.7109375" customWidth="1"/>
     <col min="3" max="3" width="21" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="14" hidden="1" customWidth="1"/>
-    <col min="5" max="5" width="10.77734375" customWidth="1"/>
-    <col min="6" max="6" width="14.77734375" customWidth="1"/>
-    <col min="7" max="9" width="10.77734375" customWidth="1"/>
-    <col min="10" max="10" width="20.21875" customWidth="1"/>
-    <col min="11" max="12" width="24.5546875" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="10.77734375" customWidth="1"/>
-    <col min="14" max="14" width="24.5546875" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="17.77734375" customWidth="1"/>
+    <col min="5" max="5" width="10.7109375" customWidth="1"/>
+    <col min="6" max="6" width="14.7109375" customWidth="1"/>
+    <col min="7" max="9" width="10.7109375" customWidth="1"/>
+    <col min="10" max="10" width="20.28515625" customWidth="1"/>
+    <col min="11" max="12" width="24.5703125" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="10.7109375" customWidth="1"/>
+    <col min="14" max="14" width="24.5703125" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="17.7109375" customWidth="1"/>
     <col min="16" max="16" width="18" customWidth="1"/>
-    <col min="17" max="17" width="17.77734375" customWidth="1"/>
+    <col min="17" max="17" width="17.7109375" customWidth="1"/>
     <col min="18" max="18" width="30" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="15.77734375" customWidth="1"/>
-    <col min="20" max="20" width="13.21875" customWidth="1"/>
-    <col min="21" max="21" width="14.21875" customWidth="1"/>
-    <col min="22" max="22" width="14.44140625" customWidth="1"/>
-    <col min="23" max="23" width="12.77734375" customWidth="1"/>
-    <col min="24" max="24" width="13.77734375" customWidth="1"/>
-    <col min="25" max="25" width="17.21875" customWidth="1"/>
-    <col min="26" max="26" width="16.21875" customWidth="1"/>
+    <col min="19" max="19" width="15.7109375" customWidth="1"/>
+    <col min="20" max="20" width="13.28515625" customWidth="1"/>
+    <col min="21" max="21" width="14.28515625" customWidth="1"/>
+    <col min="22" max="22" width="14.42578125" customWidth="1"/>
+    <col min="23" max="23" width="12.7109375" customWidth="1"/>
+    <col min="24" max="24" width="13.7109375" customWidth="1"/>
+    <col min="25" max="25" width="17.28515625" customWidth="1"/>
+    <col min="26" max="26" width="16.28515625" customWidth="1"/>
     <col min="27" max="27" width="13" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
+        <v>124</v>
+      </c>
+      <c r="B1" t="s">
         <v>125</v>
       </c>
-      <c r="B1" t="s">
+      <c r="C1" t="s">
         <v>126</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D1" t="s">
         <v>127</v>
       </c>
-      <c r="D1" t="s">
-        <v>128</v>
-      </c>
       <c r="E1" s="9" t="s">
+        <v>104</v>
+      </c>
+      <c r="F1" s="9" t="s">
+        <v>110</v>
+      </c>
+      <c r="G1" s="9" t="s">
         <v>105</v>
-      </c>
-      <c r="F1" s="9" t="s">
-        <v>111</v>
-      </c>
-      <c r="G1" s="9" t="s">
-        <v>106</v>
       </c>
       <c r="H1" t="s">
         <v>40</v>
@@ -2370,24 +2376,24 @@
         <v>16</v>
       </c>
       <c r="X1" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="Y1" t="s">
+        <v>112</v>
+      </c>
+      <c r="Z1" t="s">
         <v>113</v>
       </c>
-      <c r="Z1" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="2" spans="1:26" s="7" customFormat="1" ht="58.2" customHeight="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="2" spans="1:26" s="7" customFormat="1" ht="58.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="E2" s="11" t="s">
+        <v>106</v>
+      </c>
+      <c r="F2" s="11" t="s">
+        <v>111</v>
+      </c>
+      <c r="G2" s="11" t="s">
         <v>107</v>
-      </c>
-      <c r="F2" s="11" t="s">
-        <v>112</v>
-      </c>
-      <c r="G2" s="11" t="s">
-        <v>108</v>
       </c>
       <c r="K2" s="7" t="s">
         <v>23</v>
@@ -2396,49 +2402,49 @@
         <v>24</v>
       </c>
       <c r="M2" s="7" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="N2" s="7" t="s">
         <v>22</v>
       </c>
       <c r="O2" s="7" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="P2" s="7" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="Q2" s="7" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="R2" s="7" t="s">
         <v>51</v>
       </c>
       <c r="S2" s="7" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="T2" s="7" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="U2" s="7" t="s">
+        <v>68</v>
+      </c>
+      <c r="V2" s="7" t="s">
+        <v>67</v>
+      </c>
+      <c r="W2" s="7" t="s">
+        <v>130</v>
+      </c>
+      <c r="X2" s="7" t="s">
         <v>69</v>
       </c>
-      <c r="V2" s="7" t="s">
-        <v>68</v>
-      </c>
-      <c r="W2" s="7" t="s">
-        <v>131</v>
-      </c>
-      <c r="X2" s="7" t="s">
-        <v>70</v>
-      </c>
       <c r="Y2" s="7" t="s">
+        <v>114</v>
+      </c>
+      <c r="Z2" s="7" t="s">
         <v>115</v>
       </c>
-      <c r="Z2" s="7" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="3" spans="1:26" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="3" spans="1:26" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="E3" s="10"/>
       <c r="F3" s="10"/>
       <c r="G3" s="10"/>
@@ -2482,9 +2488,9 @@
         <v>TWh/a</v>
       </c>
     </row>
-    <row r="4" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B4" s="3" t="s">
         <v>17</v>
@@ -2524,7 +2530,7 @@
       <c r="Y4" s="6"/>
       <c r="Z4" s="6"/>
     </row>
-    <row r="5" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A5" s="3" t="s">
         <v>20</v>
       </c>
@@ -2551,7 +2557,7 @@
       <c r="N5" s="6"/>
       <c r="O5" s="5"/>
       <c r="P5" s="6" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="Q5" s="6"/>
       <c r="R5" s="6"/>
@@ -2564,15 +2570,15 @@
       <c r="Y5" s="6"/>
       <c r="Z5" s="6"/>
     </row>
-    <row r="6" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A6" s="3" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B6" s="3" t="s">
         <v>17</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="D6" s="3" t="s">
         <v>0</v>
@@ -2591,7 +2597,7 @@
       <c r="N6" s="6"/>
       <c r="O6" s="5"/>
       <c r="P6" s="6" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="Q6" s="6"/>
       <c r="R6" s="6"/>
@@ -2604,9 +2610,9 @@
       <c r="Y6" s="6"/>
       <c r="Z6" s="6"/>
     </row>
-    <row r="7" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A7" s="3" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B7" s="3" t="s">
         <v>17</v>
@@ -2644,15 +2650,15 @@
       <c r="Y7" s="6"/>
       <c r="Z7" s="6"/>
     </row>
-    <row r="8" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A8" s="3" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B8" s="3" t="s">
         <v>17</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="D8" s="3" t="s">
         <v>0</v>
@@ -2671,7 +2677,7 @@
       <c r="N8" s="6"/>
       <c r="O8" s="5"/>
       <c r="P8" s="6" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="Q8" s="6"/>
       <c r="R8" s="6"/>
@@ -2684,9 +2690,9 @@
       <c r="Y8" s="6"/>
       <c r="Z8" s="6"/>
     </row>
-    <row r="9" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A9" s="3" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B9" s="3" t="s">
         <v>17</v>
@@ -2721,9 +2727,9 @@
       <c r="Y9" s="6"/>
       <c r="Z9" s="6"/>
     </row>
-    <row r="10" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A10" s="3" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="B10" s="3" t="s">
         <v>17</v>
@@ -2760,15 +2766,15 @@
       <c r="Y10" s="6"/>
       <c r="Z10" s="6"/>
     </row>
-    <row r="11" spans="1:26" s="9" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:26" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A11" s="3" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="B11" s="3" t="s">
         <v>17</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="D11" s="3" t="s">
         <v>0</v>
@@ -2787,7 +2793,7 @@
       <c r="N11" s="6"/>
       <c r="O11" s="5"/>
       <c r="P11" s="6" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="Q11" s="6"/>
       <c r="R11" s="6"/>
@@ -2802,7 +2808,7 @@
       <c r="Y11" s="6"/>
       <c r="Z11" s="6"/>
     </row>
-    <row r="12" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A12" s="3"/>
       <c r="B12" s="3"/>
       <c r="C12" s="3"/>
@@ -2826,15 +2832,15 @@
       <c r="Y12" s="6"/>
       <c r="Z12" s="6"/>
     </row>
-    <row r="13" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A13" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="B13" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="C13" s="3" t="s">
         <v>79</v>
-      </c>
-      <c r="B13" s="3" t="s">
-        <v>73</v>
-      </c>
-      <c r="C13" s="3" t="s">
-        <v>80</v>
       </c>
       <c r="D13" s="3" t="s">
         <v>0</v>
@@ -2860,15 +2866,15 @@
       <c r="Y13" s="6"/>
       <c r="Z13" s="6"/>
     </row>
-    <row r="14" spans="1:26" s="9" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:26" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A14" s="9" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C14" s="3" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="D14" s="3" t="s">
         <v>0</v>
@@ -2894,15 +2900,15 @@
       <c r="Y14" s="6"/>
       <c r="Z14" s="6"/>
     </row>
-    <row r="15" spans="1:26" s="9" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:26" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A15" s="9" t="s">
+        <v>137</v>
+      </c>
+      <c r="B15" s="3" t="s">
         <v>138</v>
       </c>
-      <c r="B15" s="3" t="s">
-        <v>139</v>
-      </c>
       <c r="C15" s="3" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="D15" s="3" t="s">
         <v>0</v>
@@ -2928,7 +2934,7 @@
       <c r="Y15" s="6"/>
       <c r="Z15" s="6"/>
     </row>
-    <row r="16" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A16" s="3"/>
       <c r="B16" s="3"/>
       <c r="C16" s="3"/>
@@ -2952,12 +2958,12 @@
       <c r="Y16" s="6"/>
       <c r="Z16" s="6"/>
     </row>
-    <row r="17" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A17" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="B17" s="3" t="s">
         <v>81</v>
-      </c>
-      <c r="B17" s="3" t="s">
-        <v>82</v>
       </c>
       <c r="C17" s="3" t="s">
         <v>17</v>
@@ -2978,18 +2984,18 @@
       <c r="Q17" s="6"/>
       <c r="R17" s="6"/>
       <c r="T17" s="5" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="U17" s="3"/>
       <c r="V17" s="3"/>
       <c r="W17" s="3"/>
       <c r="X17" s="3"/>
       <c r="Y17" s="6" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="Z17" s="6"/>
     </row>
-    <row r="18" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A18" s="3" t="s">
         <v>21</v>
       </c>
@@ -3022,16 +3028,16 @@
       <c r="W18" s="3"/>
       <c r="X18" s="3"/>
       <c r="Y18" s="6" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="Z18" s="6"/>
     </row>
-    <row r="19" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A19" s="3" t="s">
+        <v>82</v>
+      </c>
+      <c r="B19" s="3" t="s">
         <v>83</v>
-      </c>
-      <c r="B19" s="3" t="s">
-        <v>84</v>
       </c>
       <c r="C19" s="3" t="s">
         <v>17</v>
@@ -3059,16 +3065,16 @@
       <c r="W19" s="3"/>
       <c r="X19" s="3"/>
       <c r="Y19" s="6" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="Z19" s="6"/>
     </row>
-    <row r="20" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A20" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="B20" s="3" t="s">
         <v>85</v>
-      </c>
-      <c r="B20" s="3" t="s">
-        <v>86</v>
       </c>
       <c r="C20" s="3" t="s">
         <v>17</v>
@@ -3096,16 +3102,16 @@
       <c r="W20" s="3"/>
       <c r="X20" s="3"/>
       <c r="Y20" s="6" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="Z20" s="6"/>
     </row>
-    <row r="21" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A21" s="3" t="s">
+        <v>86</v>
+      </c>
+      <c r="B21" s="3" t="s">
         <v>87</v>
-      </c>
-      <c r="B21" s="3" t="s">
-        <v>88</v>
       </c>
       <c r="C21" s="3" t="s">
         <v>17</v>
@@ -3133,13 +3139,13 @@
       <c r="W21" s="3"/>
       <c r="X21" s="3"/>
       <c r="Y21" s="6" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="Z21" s="6"/>
     </row>
-    <row r="22" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A22" s="3" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="B22" s="3" t="s">
         <v>19</v>
@@ -3170,16 +3176,16 @@
       <c r="W22" s="3"/>
       <c r="X22" s="3"/>
       <c r="Y22" s="6" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="Z22" s="6"/>
     </row>
-    <row r="23" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A23" s="9" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="B23" s="3" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="C23" s="3" t="s">
         <v>17</v>
@@ -3207,11 +3213,11 @@
       <c r="W23" s="3"/>
       <c r="X23" s="3"/>
       <c r="Y23" s="6" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="Z23" s="6"/>
     </row>
-    <row r="24" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A24" s="3"/>
       <c r="B24" s="3"/>
       <c r="C24" s="3"/>
@@ -3235,9 +3241,9 @@
       <c r="Y24" s="6"/>
       <c r="Z24" s="6"/>
     </row>
-    <row r="25" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A25" s="3" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="B25" s="3" t="s">
         <v>45</v>
@@ -3258,11 +3264,11 @@
         <v>0.86</v>
       </c>
       <c r="K25" s="5" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="L25" s="6"/>
       <c r="N25" s="6" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="O25" s="5">
         <v>30</v>
@@ -3271,7 +3277,7 @@
         <v>165</v>
       </c>
       <c r="R25" s="6" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="S25" s="5"/>
       <c r="T25" s="6"/>
@@ -3282,9 +3288,9 @@
       <c r="Y25" s="6"/>
       <c r="Z25" s="6"/>
     </row>
-    <row r="26" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A26" s="3" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="B26" s="3" t="s">
         <v>18</v>
@@ -3305,11 +3311,11 @@
         <v>0.86</v>
       </c>
       <c r="K26" s="5" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="L26" s="5"/>
       <c r="N26" s="6" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="O26" s="5">
         <v>40</v>
@@ -3329,12 +3335,12 @@
       <c r="Y26" s="6"/>
       <c r="Z26" s="6"/>
     </row>
-    <row r="27" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A27" s="3" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="B27" s="3" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="C27" s="3" t="s">
         <v>19</v>
@@ -3352,11 +3358,11 @@
         <v>0.95</v>
       </c>
       <c r="K27" s="5" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="L27" s="5"/>
       <c r="N27" s="6" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="O27" s="5">
         <v>25</v>
@@ -3376,9 +3382,9 @@
       <c r="Y27" s="6"/>
       <c r="Z27" s="6"/>
     </row>
-    <row r="28" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A28" s="3" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="B28" s="3" t="s">
         <v>48</v>
@@ -3399,11 +3405,11 @@
         <v>0.76</v>
       </c>
       <c r="K28" s="5" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="L28" s="5"/>
       <c r="N28" s="6" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="O28" s="5">
         <v>40</v>
@@ -3423,9 +3429,9 @@
       <c r="Y28" s="6"/>
       <c r="Z28" s="6"/>
     </row>
-    <row r="29" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A29" s="3" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="B29" s="3" t="s">
         <v>47</v>
@@ -3446,11 +3452,11 @@
         <v>0.95</v>
       </c>
       <c r="K29" s="5" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="L29" s="5"/>
       <c r="N29" s="6" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="O29" s="5">
         <v>60</v>
@@ -3468,11 +3474,11 @@
       <c r="W29" s="3"/>
       <c r="X29" s="3"/>
       <c r="Y29" s="6" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="Z29" s="6"/>
     </row>
-    <row r="30" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A30" s="3"/>
       <c r="B30" s="3"/>
       <c r="C30" s="3"/>
@@ -3497,9 +3503,9 @@
       <c r="Y30" s="6"/>
       <c r="Z30" s="6"/>
     </row>
-    <row r="31" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A31" s="9" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="B31" s="3" t="s">
         <v>17</v>
@@ -3518,11 +3524,11 @@
       </c>
       <c r="J31" s="6"/>
       <c r="K31" s="5" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="L31" s="6"/>
       <c r="N31" s="6" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="O31" s="5"/>
       <c r="Q31" s="6">
@@ -3537,12 +3543,12 @@
       <c r="X31" s="3"/>
       <c r="Y31" s="6"/>
       <c r="Z31" s="6" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="32" spans="1:26" x14ac:dyDescent="0.3">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="32" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A32" s="9" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="B32" s="3" t="s">
         <v>17</v>
@@ -3565,7 +3571,7 @@
       </c>
       <c r="L32" s="6"/>
       <c r="N32" s="6" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="O32" s="5">
         <v>25</v>
@@ -3574,7 +3580,7 @@
         <v>15</v>
       </c>
       <c r="R32" s="6" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="S32" s="5"/>
       <c r="T32" s="6"/>
@@ -3584,12 +3590,12 @@
       <c r="X32" s="3"/>
       <c r="Y32" s="6"/>
       <c r="Z32" s="8" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="33" spans="1:26" x14ac:dyDescent="0.3">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="33" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A33" s="9" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="B33" s="3" t="s">
         <v>17</v>
@@ -3632,9 +3638,9 @@
       <c r="Y33" s="6"/>
       <c r="Z33" s="6"/>
     </row>
-    <row r="34" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A34" s="9" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="B34" s="3" t="s">
         <v>17</v>
@@ -3653,13 +3659,13 @@
       </c>
       <c r="J34" s="6"/>
       <c r="K34" s="5" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="L34" s="6" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="N34" s="6" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="O34" s="5"/>
       <c r="Q34" s="6">
@@ -3674,12 +3680,12 @@
       <c r="X34" s="3"/>
       <c r="Y34" s="6"/>
       <c r="Z34" s="6" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="35" spans="1:26" x14ac:dyDescent="0.3">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="35" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A35" s="9" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="B35" s="3" t="s">
         <v>17</v>
@@ -3702,7 +3708,7 @@
       </c>
       <c r="L35" s="6"/>
       <c r="N35" s="6" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="O35" s="5">
         <v>25</v>
@@ -3711,7 +3717,7 @@
         <v>93</v>
       </c>
       <c r="R35" s="6" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="S35" s="5"/>
       <c r="T35" s="6"/>
@@ -3721,12 +3727,12 @@
       <c r="X35" s="3"/>
       <c r="Y35" s="6"/>
       <c r="Z35" s="6" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="36" spans="1:26" x14ac:dyDescent="0.3">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="36" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A36" s="9" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="B36" s="3" t="s">
         <v>17</v>
@@ -3745,13 +3751,13 @@
       </c>
       <c r="J36" s="6"/>
       <c r="K36" s="5" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="L36" s="6" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="N36" s="6" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="O36" s="5"/>
       <c r="Q36" s="6">
@@ -3766,12 +3772,12 @@
       <c r="X36" s="3"/>
       <c r="Y36" s="6"/>
       <c r="Z36" s="6" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="37" spans="1:26" x14ac:dyDescent="0.3">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="37" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A37" s="9" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="B37" s="3" t="s">
         <v>17</v>
@@ -3794,7 +3800,7 @@
       </c>
       <c r="L37" s="6"/>
       <c r="N37" s="6" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="O37" s="5">
         <v>25</v>
@@ -3803,7 +3809,7 @@
         <v>13</v>
       </c>
       <c r="R37" s="6" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="S37" s="5"/>
       <c r="T37" s="6"/>
@@ -3813,18 +3819,18 @@
       <c r="X37" s="3"/>
       <c r="Y37" s="6"/>
       <c r="Z37" s="6" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="40" spans="1:26" x14ac:dyDescent="0.3">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="40" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A40" s="9" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="B40" s="3" t="s">
         <v>18</v>
       </c>
       <c r="C40" s="3" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="D40" s="3" t="s">
         <v>0</v>
@@ -3860,15 +3866,15 @@
       <c r="Y40" s="6"/>
       <c r="Z40" s="6"/>
     </row>
-    <row r="41" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A41" s="9" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="B41" s="3" t="s">
         <v>19</v>
       </c>
       <c r="C41" s="3" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="D41" s="3" t="s">
         <v>0</v>
@@ -3900,19 +3906,19 @@
       <c r="W41" s="3"/>
       <c r="X41" s="3"/>
       <c r="Y41" s="6" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="Z41" s="6"/>
     </row>
-    <row r="42" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A42" s="9" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="B42" s="3" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="C42" s="3" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="D42" s="3" t="s">
         <v>0</v>
@@ -3944,15 +3950,15 @@
       <c r="Y42" s="6"/>
       <c r="Z42" s="6"/>
     </row>
-    <row r="44" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A44" s="3" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="B44" s="3" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C44" s="3" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="D44" s="3" t="s">
         <v>0</v>
@@ -3976,15 +3982,15 @@
       <c r="Y44" s="6"/>
       <c r="Z44" s="6"/>
     </row>
-    <row r="46" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A46" s="9" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="B46" s="3" t="s">
         <v>45</v>
       </c>
       <c r="C46" s="3" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="D46" s="3" t="s">
         <v>0</v>
@@ -4016,15 +4022,15 @@
       <c r="Y46" s="6"/>
       <c r="Z46" s="6"/>
     </row>
-    <row r="47" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A47" s="9" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="B47" s="3" t="s">
         <v>19</v>
       </c>
       <c r="C47" s="3" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="D47" s="3" t="s">
         <v>0</v>
@@ -4045,7 +4051,7 @@
         <v>1.5</v>
       </c>
       <c r="R47" s="6" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="S47" s="5"/>
       <c r="T47" s="6"/>
@@ -4056,15 +4062,15 @@
       <c r="Y47" s="6"/>
       <c r="Z47" s="6"/>
     </row>
-    <row r="48" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A48" s="9" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="B48" s="3" t="s">
         <v>46</v>
       </c>
       <c r="C48" s="3" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="D48" s="3" t="s">
         <v>0</v>
@@ -4094,11 +4100,11 @@
       <c r="W48" s="3"/>
       <c r="X48" s="3"/>
       <c r="Y48" s="6" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="Z48" s="6"/>
     </row>
-    <row r="49" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A49" s="3"/>
       <c r="B49" s="3"/>
       <c r="C49" s="3"/>
@@ -4122,15 +4128,15 @@
       <c r="Y49" s="6"/>
       <c r="Z49" s="6"/>
     </row>
-    <row r="50" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A50" s="3" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="B50" s="3" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="C50" s="3" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="D50" s="3" t="s">
         <v>0</v>
@@ -4143,13 +4149,13 @@
       </c>
       <c r="J50" s="6"/>
       <c r="K50" s="5" t="s">
+        <v>216</v>
+      </c>
+      <c r="L50" s="6" t="s">
+        <v>216</v>
+      </c>
+      <c r="N50" s="5" t="s">
         <v>217</v>
-      </c>
-      <c r="L50" s="6" t="s">
-        <v>217</v>
-      </c>
-      <c r="N50" s="5" t="s">
-        <v>218</v>
       </c>
       <c r="O50" s="5">
         <v>25</v>
@@ -4158,22 +4164,22 @@
         <v>1.93</v>
       </c>
       <c r="R50" s="6" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="S50" s="5"/>
       <c r="T50" s="6"/>
       <c r="U50" s="3" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="V50" s="3" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="W50" s="3"/>
       <c r="X50" s="3"/>
       <c r="Y50" s="6"/>
       <c r="Z50" s="6"/>
     </row>
-    <row r="51" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A51" s="3"/>
       <c r="B51" s="3"/>
       <c r="C51" s="3"/>
@@ -4198,15 +4204,15 @@
       <c r="Y51" s="6"/>
       <c r="Z51" s="6"/>
     </row>
-    <row r="52" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A52" s="9" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="B52" s="3" t="s">
         <v>45</v>
       </c>
       <c r="C52" s="3" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="D52" s="3" t="s">
         <v>0</v>
@@ -4219,13 +4225,13 @@
       </c>
       <c r="J52" s="6"/>
       <c r="K52" s="5" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="L52" s="6" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="N52" s="5" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="O52" s="5">
         <v>20</v>
@@ -4234,30 +4240,30 @@
         <v>20</v>
       </c>
       <c r="R52" s="6" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="S52" s="5"/>
       <c r="T52" s="6"/>
       <c r="U52" s="3" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="V52" s="3"/>
       <c r="W52" s="3"/>
       <c r="X52" s="3"/>
       <c r="Y52" s="6" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="Z52" s="6"/>
     </row>
-    <row r="53" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A53" s="9" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="B53" s="3" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="C53" s="3" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="D53" s="3" t="s">
         <v>0</v>
@@ -4270,13 +4276,13 @@
       </c>
       <c r="J53" s="6"/>
       <c r="K53" s="5" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="L53" s="6" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="N53" s="5" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="O53" s="5">
         <v>20</v>
@@ -4285,12 +4291,12 @@
         <v>10</v>
       </c>
       <c r="R53" s="6" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="S53" s="5"/>
       <c r="T53" s="6"/>
       <c r="U53" s="3" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="V53" s="3">
         <v>0.55000000000000004</v>
@@ -4298,19 +4304,19 @@
       <c r="W53" s="3"/>
       <c r="X53" s="3"/>
       <c r="Y53" s="6" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="Z53" s="6"/>
     </row>
-    <row r="54" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A54" s="9" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="B54" s="3" t="s">
         <v>19</v>
       </c>
       <c r="C54" s="3" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="D54" s="3" t="s">
         <v>0</v>
@@ -4334,30 +4340,30 @@
         <v>18</v>
       </c>
       <c r="R54" s="6" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="S54" s="5"/>
       <c r="T54" s="6"/>
       <c r="U54" s="3" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="V54" s="3"/>
       <c r="W54" s="3"/>
       <c r="X54" s="3"/>
       <c r="Y54" s="6" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="Z54" s="6"/>
     </row>
-    <row r="55" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A55" s="9" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="B55" s="3" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="C55" s="3" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="D55" s="3" t="s">
         <v>0</v>
@@ -4370,13 +4376,13 @@
       </c>
       <c r="J55" s="6"/>
       <c r="K55" s="5" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="L55" s="6" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="N55" s="5" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="O55" s="5">
         <v>20</v>
@@ -4385,30 +4391,30 @@
         <v>15</v>
       </c>
       <c r="R55" s="6" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="S55" s="5"/>
       <c r="T55" s="6"/>
       <c r="U55" s="3" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="V55" s="3"/>
       <c r="W55" s="3"/>
       <c r="X55" s="3"/>
       <c r="Y55" s="6" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="Z55" s="6"/>
     </row>
-    <row r="56" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A56" s="9" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="B56" s="3" t="s">
         <v>19</v>
       </c>
       <c r="C56" s="3" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="D56" s="3" t="s">
         <v>0</v>
@@ -4421,7 +4427,7 @@
       </c>
       <c r="J56" s="6"/>
       <c r="K56" s="6" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="L56" s="6"/>
       <c r="N56" s="6"/>
@@ -4432,22 +4438,22 @@
         <v>15</v>
       </c>
       <c r="R56" s="6" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="S56" s="5"/>
       <c r="T56" s="6"/>
       <c r="U56" s="3" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="V56" s="3"/>
       <c r="W56" s="3"/>
       <c r="X56" s="3"/>
       <c r="Y56" s="6" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="Z56" s="6"/>
     </row>
-    <row r="57" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A57" s="3"/>
       <c r="B57" s="3"/>
       <c r="C57" s="3"/>
@@ -4471,7 +4477,7 @@
       <c r="Y57" s="6"/>
       <c r="Z57" s="6"/>
     </row>
-    <row r="58" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A58" s="3"/>
       <c r="B58" s="3"/>
       <c r="C58" s="3"/>
@@ -4495,15 +4501,15 @@
       <c r="Y58" s="6"/>
       <c r="Z58" s="6"/>
     </row>
-    <row r="59" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A59" s="3" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="B59" s="3" t="s">
         <v>45</v>
       </c>
       <c r="C59" s="3" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="D59" s="3" t="s">
         <v>0</v>
@@ -4529,12 +4535,12 @@
       <c r="Y59" s="6"/>
       <c r="Z59" s="6"/>
     </row>
-    <row r="60" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A60" s="3" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="B60" s="3" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C60" s="3" t="s">
         <v>17</v>
@@ -4565,12 +4571,12 @@
       <c r="Y60" s="6"/>
       <c r="Z60" s="6"/>
     </row>
-    <row r="61" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A61" s="3" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="B61" s="3" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C61" s="3" t="s">
         <v>19</v>
@@ -4615,15 +4621,15 @@
       <c r="Y61" s="6"/>
       <c r="Z61" s="6"/>
     </row>
-    <row r="62" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A62" s="3" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="B62" s="3" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C62" s="3" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="D62" s="3" t="s">
         <v>0</v>
@@ -4649,7 +4655,7 @@
       <c r="Y62" s="6"/>
       <c r="Z62" s="6"/>
     </row>
-    <row r="63" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A63" s="3"/>
       <c r="B63" s="3"/>
       <c r="C63" s="3"/>
@@ -4673,15 +4679,15 @@
       <c r="Y63" s="6"/>
       <c r="Z63" s="6"/>
     </row>
-    <row r="64" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A64" s="3" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="B64" s="3" t="s">
         <v>18</v>
       </c>
       <c r="C64" s="3" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D64" s="3" t="s">
         <v>0</v>
@@ -4707,12 +4713,12 @@
       <c r="Y64" s="6"/>
       <c r="Z64" s="6"/>
     </row>
-    <row r="65" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A65" s="3" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="B65" s="3" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C65" s="3" t="s">
         <v>17</v>
@@ -4741,12 +4747,12 @@
       <c r="Y65" s="6"/>
       <c r="Z65" s="6"/>
     </row>
-    <row r="66" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A66" s="3" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="B66" s="3" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C66" s="3" t="s">
         <v>19</v>
@@ -4762,10 +4768,10 @@
         <v>0.75</v>
       </c>
       <c r="K66" s="5" t="s">
+        <v>178</v>
+      </c>
+      <c r="L66" s="5" t="s">
         <v>179</v>
-      </c>
-      <c r="L66" s="5" t="s">
-        <v>180</v>
       </c>
       <c r="N66" s="6"/>
       <c r="O66" s="5">
@@ -4791,15 +4797,15 @@
       <c r="Y66" s="6"/>
       <c r="Z66" s="6"/>
     </row>
-    <row r="67" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A67" s="3" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="B67" s="3" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C67" s="3" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="D67" s="3" t="s">
         <v>0</v>
@@ -4821,11 +4827,11 @@
       <c r="W67" s="3"/>
       <c r="X67" s="3"/>
       <c r="Y67" s="6" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="Z67" s="6"/>
     </row>
-    <row r="68" spans="1:26" s="9" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:26" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A68" s="3"/>
       <c r="B68" s="3"/>
       <c r="C68" s="3"/>
@@ -4849,15 +4855,15 @@
       <c r="Y68" s="6"/>
       <c r="Z68" s="6"/>
     </row>
-    <row r="69" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A69" s="3" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="B69" s="3" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="C69" s="3" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="D69" s="3" t="s">
         <v>0</v>
@@ -4885,12 +4891,12 @@
       <c r="Y69" s="6"/>
       <c r="Z69" s="6"/>
     </row>
-    <row r="70" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A70" s="3" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="B70" s="3" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="C70" s="3" t="s">
         <v>17</v>
@@ -4919,12 +4925,12 @@
       <c r="Y70" s="6"/>
       <c r="Z70" s="6"/>
     </row>
-    <row r="71" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A71" s="3" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="B71" s="3" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="C71" s="3" t="s">
         <v>19</v>
@@ -4938,11 +4944,11 @@
       <c r="I71" s="3"/>
       <c r="J71" s="6"/>
       <c r="K71" s="5" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="L71" s="5"/>
       <c r="N71" s="6" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="O71" s="5">
         <v>30</v>
@@ -4966,15 +4972,15 @@
       <c r="Y71" s="6"/>
       <c r="Z71" s="6"/>
     </row>
-    <row r="72" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A72" s="3" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="B72" s="3" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="C72" s="3" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="D72" s="3" t="s">
         <v>0</v>
@@ -4998,23 +5004,15 @@
       <c r="Y72" s="6"/>
       <c r="Z72" s="6"/>
     </row>
-    <row r="73" spans="1:26" x14ac:dyDescent="0.3">
-      <c r="K73" s="5" t="s">
-        <v>181</v>
-      </c>
-      <c r="L73" s="5" t="s">
-        <v>181</v>
-      </c>
-    </row>
-    <row r="74" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A74" s="3" t="s">
         <v>50</v>
       </c>
       <c r="B74" s="3" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="C74" s="3" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="D74" s="3" t="s">
         <v>0</v>
@@ -5027,7 +5025,10 @@
       </c>
       <c r="J74" s="6"/>
       <c r="K74" s="5" t="s">
-        <v>55</v>
+        <v>180</v>
+      </c>
+      <c r="L74" s="5" t="s">
+        <v>180</v>
       </c>
       <c r="N74" s="6"/>
       <c r="O74" s="5">
@@ -5046,11 +5047,11 @@
       <c r="W74" s="3"/>
       <c r="X74" s="3"/>
       <c r="Y74" s="6" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="Z74" s="6"/>
     </row>
-    <row r="75" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A75" s="4" t="s">
         <v>49</v>
       </c>
@@ -5058,7 +5059,7 @@
         <v>19</v>
       </c>
       <c r="C75" s="4" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="D75" s="4" t="s">
         <v>0</v>
@@ -5072,7 +5073,7 @@
       <c r="J75" s="4"/>
       <c r="K75" s="4"/>
       <c r="N75" s="1" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="O75" s="4">
         <v>15</v>
@@ -5081,7 +5082,7 @@
         <v>450</v>
       </c>
       <c r="R75" s="4" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="S75" s="4"/>
       <c r="T75" s="4"/>
@@ -5090,19 +5091,19 @@
       <c r="W75" s="4"/>
       <c r="X75" s="4"/>
       <c r="Y75" s="4" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="Z75" s="6"/>
     </row>
-    <row r="76" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A76" s="9" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="B76" t="s">
         <v>19</v>
       </c>
       <c r="C76" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="D76" t="s">
         <v>0</v>
@@ -5111,29 +5112,29 @@
         <v>0.7</v>
       </c>
       <c r="Q76" s="4" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="R76" s="4" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="S76">
         <v>0</v>
       </c>
     </row>
-    <row r="77" spans="1:26" s="9" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:26" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="I77" s="4"/>
       <c r="Q77" s="4"/>
       <c r="R77" s="4"/>
     </row>
-    <row r="78" spans="1:26" s="9" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:26" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A78" s="9" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="B78" s="9" t="s">
         <v>17</v>
       </c>
       <c r="C78" s="9" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="D78" s="9" t="s">
         <v>0</v>
@@ -5145,68 +5146,68 @@
       <c r="Q78" s="4"/>
       <c r="R78" s="4"/>
     </row>
-    <row r="79" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="B79" s="9" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="C79" s="9" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="D79" s="9" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="80" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A80" s="9" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="B80" s="9" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="C80" s="9" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="D80" s="9" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="81" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A81" s="9" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="B81" s="9" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="C81" s="9" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="D81" s="9" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="82" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A82" s="9" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="B82" s="9" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="C82" s="9" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="D82" s="9" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="83" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A83" s="9" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="B83" s="9" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="C83" s="9" t="s">
         <v>19</v>
@@ -5215,12 +5216,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="84" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A84" s="9" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="B84" s="9" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="C84" s="9" t="s">
         <v>45</v>
@@ -5229,12 +5230,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="85" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A85" s="9" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="B85" s="9" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="C85" s="9" t="s">
         <v>46</v>
@@ -5243,12 +5244,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="86" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A86" s="9" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="B86" s="9" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="C86" s="9" t="s">
         <v>47</v>
@@ -5257,40 +5258,40 @@
         <v>0</v>
       </c>
     </row>
-    <row r="87" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A87" s="9" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="B87" s="9" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="C87" s="9" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="D87" s="9" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="88" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A88" s="9" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="B88" s="9" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="C88" s="9" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="D88" s="9" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="89" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A89" s="9" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="B89" s="9" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="C89" s="9" t="s">
         <v>48</v>
@@ -5299,12 +5300,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="90" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A90" s="9" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="B90" s="9" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="C90" s="9" t="s">
         <v>18</v>
@@ -5313,43 +5314,43 @@
         <v>0</v>
       </c>
     </row>
-    <row r="91" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A91" s="9" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="B91" s="9" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="C91" s="9" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="D91" s="9" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="92" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A92" s="9" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="B92" s="9" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="C92" s="9" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="D92" s="9" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="93" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A93" s="9" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="B93" s="9" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="C93" s="9" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="D93" s="9" t="s">
         <v>0</v>
@@ -5372,13 +5373,13 @@
       <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.44140625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="21.77734375" customWidth="1"/>
-    <col min="2" max="2" width="27.44140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="21.7109375" customWidth="1"/>
+    <col min="2" max="2" width="27.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>26</v>
       </c>
@@ -5389,7 +5390,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>30</v>
       </c>
@@ -5400,9 +5401,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="B3" t="s">
         <v>29</v>
@@ -5411,17 +5412,17 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="C4">
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="C5">
         <v>3</v>

--- a/Data/Techmap/DEModel_V2.xlsx
+++ b/Data/Techmap/DEModel_V2.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Sina Hajikazemi\Documents\mycode\CESM\Data\Techmap\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{384775DC-BD00-4082-8D9D-E8863518ACCF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{88A05E5A-DC16-47F4-97C8-D64EF3AB2460}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1170" yWindow="1170" windowWidth="21600" windowHeight="11175" activeTab="4" xr2:uid="{EC78BDD3-7137-425A-8228-7CE92A9A1C25}"/>
+    <workbookView xWindow="380" yWindow="380" windowWidth="28800" windowHeight="15370" activeTab="2" xr2:uid="{EC78BDD3-7137-425A-8228-7CE92A9A1C25}"/>
   </bookViews>
   <sheets>
     <sheet name="Units" sheetId="9" r:id="rId1"/>
@@ -941,8 +941,8 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{C14D454B-12DF-41D4-B756-57EA49F00895}" name="Tabelle3" displayName="Tabelle3" ref="A1:D21" totalsRowShown="0">
-  <autoFilter ref="A1:D21" xr:uid="{801D801C-681D-47E7-ACE2-316227FD6501}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{C14D454B-12DF-41D4-B756-57EA49F00895}" name="Tabelle3" displayName="Tabelle3" ref="A1:D22" totalsRowShown="0">
+  <autoFilter ref="A1:D22" xr:uid="{801D801C-681D-47E7-ACE2-316227FD6501}"/>
   <tableColumns count="4">
     <tableColumn id="1" xr3:uid="{0AF4638F-3EEB-48E0-AC29-8DF8557BEA8D}" name="commodity_name"/>
     <tableColumn id="2" xr3:uid="{C6986DB7-7572-49F8-AEB6-52667D90A759}" name="description"/>
@@ -1316,12 +1316,12 @@
       <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="11.453125" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="13.7109375" customWidth="1"/>
+    <col min="1" max="1" width="13.7265625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A1" s="12" t="s">
         <v>120</v>
       </c>
@@ -1332,7 +1332,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>36</v>
       </c>
@@ -1343,7 +1343,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>37</v>
       </c>
@@ -1356,7 +1356,7 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>108</v>
       </c>
@@ -1368,7 +1368,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>38</v>
       </c>
@@ -1380,7 +1380,7 @@
         <v>1E-3</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>39</v>
       </c>
@@ -1391,7 +1391,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
         <v>42</v>
       </c>
@@ -1403,7 +1403,7 @@
         <v>1E-3</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
         <v>109</v>
       </c>
@@ -1433,18 +1433,18 @@
       <selection activeCell="H6" sqref="H6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="11.453125" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="14.7109375" customWidth="1"/>
-    <col min="2" max="2" width="16.42578125" customWidth="1"/>
-    <col min="3" max="3" width="36.140625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="17.5703125" customWidth="1"/>
-    <col min="5" max="5" width="15.28515625" customWidth="1"/>
+    <col min="1" max="1" width="14.7265625" customWidth="1"/>
+    <col min="2" max="2" width="16.453125" customWidth="1"/>
+    <col min="3" max="3" width="36.1796875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="17.54296875" customWidth="1"/>
+    <col min="5" max="5" width="15.26953125" customWidth="1"/>
     <col min="6" max="6" width="17" customWidth="1"/>
-    <col min="7" max="7" width="15.28515625" customWidth="1"/>
+    <col min="7" max="7" width="15.26953125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>116</v>
       </c>
@@ -1470,7 +1470,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>0</v>
       </c>
@@ -1493,7 +1493,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>238</v>
       </c>
@@ -1513,7 +1513,7 @@
         <v>242</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>102</v>
       </c>
@@ -1536,7 +1536,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>32</v>
       </c>
@@ -1556,7 +1556,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>95</v>
       </c>
@@ -1587,19 +1587,19 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A0387EA4-7159-4CF0-ABE0-71D3891C6DB9}">
-  <dimension ref="A1:D21"/>
+  <dimension ref="A1:D22"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A7" sqref="A7:XFD7"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H12" sqref="H12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="11.453125" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="14.140625" customWidth="1"/>
-    <col min="2" max="2" width="12.7109375" customWidth="1"/>
+    <col min="1" max="1" width="14.1796875" customWidth="1"/>
+    <col min="2" max="2" width="12.7265625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>132</v>
       </c>
@@ -1613,122 +1613,112 @@
         <v>143</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>176</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>91</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>90</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
+    <row r="6" spans="1:4" s="9" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A7" t="s">
         <v>87</v>
       </c>
-      <c r="C6" s="4" t="s">
+      <c r="C7" s="4" t="s">
         <v>160</v>
       </c>
-      <c r="D6" s="4">
+      <c r="D7" s="4">
         <v>10</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A8" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A9" t="s">
         <v>85</v>
       </c>
-      <c r="C8" s="4" t="s">
+      <c r="C9" s="4" t="s">
         <v>159</v>
-      </c>
-      <c r="D8" s="4">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
-        <v>83</v>
-      </c>
-      <c r="C9" s="13" t="s">
-        <v>158</v>
       </c>
       <c r="D9" s="4">
         <v>10</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
-        <v>19</v>
-      </c>
-      <c r="C10" s="4" t="s">
-        <v>161</v>
+        <v>83</v>
+      </c>
+      <c r="C10" s="13" t="s">
+        <v>158</v>
       </c>
       <c r="D10" s="4">
         <v>10</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
-        <v>45</v>
+        <v>19</v>
       </c>
       <c r="C11" s="4" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="D11" s="4">
         <v>10</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
-        <v>46</v>
-      </c>
-      <c r="C12" s="14" t="s">
-        <v>150</v>
+        <v>45</v>
+      </c>
+      <c r="C12" s="4" t="s">
+        <v>162</v>
       </c>
       <c r="D12" s="4">
         <v>10</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
-        <v>47</v>
-      </c>
-      <c r="C13" s="4" t="s">
-        <v>149</v>
+        <v>46</v>
+      </c>
+      <c r="C13" s="14" t="s">
+        <v>150</v>
       </c>
       <c r="D13" s="4">
         <v>10</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
-        <v>79</v>
-      </c>
-      <c r="C14" s="13" t="s">
-        <v>146</v>
+        <v>47</v>
+      </c>
+      <c r="C14" s="4" t="s">
+        <v>149</v>
       </c>
       <c r="D14" s="4">
         <v>10</v>
       </c>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
-        <v>72</v>
+        <v>79</v>
       </c>
       <c r="C15" s="13" t="s">
         <v>146</v>
@@ -1737,51 +1727,62 @@
         <v>10</v>
       </c>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
-        <v>48</v>
-      </c>
-      <c r="C16" s="4" t="s">
-        <v>147</v>
+        <v>72</v>
+      </c>
+      <c r="C16" s="13" t="s">
+        <v>146</v>
       </c>
       <c r="D16" s="4">
         <v>10</v>
       </c>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A17" t="s">
-        <v>18</v>
-      </c>
-      <c r="C17" s="13" t="s">
-        <v>145</v>
+        <v>48</v>
+      </c>
+      <c r="C17" s="4" t="s">
+        <v>147</v>
       </c>
       <c r="D17" s="4">
         <v>10</v>
       </c>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A18" t="s">
+        <v>18</v>
+      </c>
+      <c r="C18" s="13" t="s">
+        <v>145</v>
+      </c>
+      <c r="D18" s="4">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A19" t="s">
         <v>75</v>
       </c>
-      <c r="C18" s="4" t="s">
+      <c r="C19" s="4" t="s">
         <v>157</v>
       </c>
-      <c r="D18" s="4">
+      <c r="D19" s="4">
         <v>11</v>
       </c>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A19" t="s">
+    <row r="20" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A20" t="s">
         <v>138</v>
       </c>
     </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A20" t="s">
+    <row r="21" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A21" t="s">
         <v>135</v>
       </c>
     </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A21" t="s">
+    <row r="22" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A22" t="s">
         <v>235</v>
       </c>
     </row>
@@ -1799,16 +1800,16 @@
   <dimension ref="A1:D64"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B24" sqref="B24"/>
+      <selection activeCell="E39" sqref="E39"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="11.453125" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="23.7109375" customWidth="1"/>
-    <col min="2" max="2" width="12.28515625" customWidth="1"/>
+    <col min="1" max="1" width="23.7265625" customWidth="1"/>
+    <col min="2" max="2" width="12.26953125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>124</v>
       </c>
@@ -1822,7 +1823,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>70</v>
       </c>
@@ -1833,7 +1834,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>20</v>
       </c>
@@ -1844,7 +1845,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>71</v>
       </c>
@@ -1855,7 +1856,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>73</v>
       </c>
@@ -1866,7 +1867,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
         <v>74</v>
       </c>
@@ -1877,7 +1878,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
         <v>76</v>
       </c>
@@ -1888,7 +1889,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
         <v>77</v>
       </c>
@@ -1899,7 +1900,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
         <v>78</v>
       </c>
@@ -1907,7 +1908,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
         <v>80</v>
       </c>
@@ -1915,7 +1916,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
         <v>21</v>
       </c>
@@ -1923,7 +1924,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
         <v>82</v>
       </c>
@@ -1931,7 +1932,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
         <v>84</v>
       </c>
@@ -1939,7 +1940,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A17" t="s">
         <v>86</v>
       </c>
@@ -1947,7 +1948,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A18" t="s">
         <v>88</v>
       </c>
@@ -1955,7 +1956,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A19" t="s">
         <v>164</v>
       </c>
@@ -1963,12 +1964,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A21" t="s">
         <v>89</v>
       </c>
     </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A22" t="s">
         <v>221</v>
       </c>
@@ -1979,29 +1980,29 @@
         <v>10</v>
       </c>
     </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A23" t="s">
         <v>222</v>
       </c>
     </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A24" t="s">
         <v>219</v>
       </c>
     </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A25" t="s">
         <v>223</v>
       </c>
       <c r="C25" s="9"/>
     </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A26" t="s">
         <v>220</v>
       </c>
     </row>
-    <row r="27" spans="1:4" s="9" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:4" s="9" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A28" t="s">
         <v>212</v>
       </c>
@@ -2009,7 +2010,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A29" t="s">
         <v>211</v>
       </c>
@@ -2020,29 +2021,29 @@
         <v>10</v>
       </c>
     </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A30" t="s">
         <v>213</v>
       </c>
     </row>
-    <row r="31" spans="1:4" s="9" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:4" s="9" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A32" t="s">
         <v>174</v>
       </c>
     </row>
-    <row r="33" spans="1:4" s="9" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:4" s="9" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="34" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A34" t="s">
         <v>208</v>
       </c>
     </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A35" t="s">
         <v>209</v>
       </c>
     </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A36" t="s">
         <v>210</v>
       </c>
@@ -2053,8 +2054,8 @@
         <v>10</v>
       </c>
     </row>
-    <row r="37" spans="1:4" s="9" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:4" s="9" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="38" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A38" t="s">
         <v>166</v>
       </c>
@@ -2065,7 +2066,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A39" t="s">
         <v>165</v>
       </c>
@@ -2076,7 +2077,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A40" t="s">
         <v>167</v>
       </c>
@@ -2087,8 +2088,8 @@
         <v>4</v>
       </c>
     </row>
-    <row r="41" spans="1:4" s="9" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="42" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:4" s="9" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="42" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A42" t="s">
         <v>195</v>
       </c>
@@ -2099,7 +2100,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="43" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A43" t="s">
         <v>196</v>
       </c>
@@ -2110,7 +2111,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="44" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A44" t="s">
         <v>197</v>
       </c>
@@ -2121,7 +2122,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="45" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A45" t="s">
         <v>198</v>
       </c>
@@ -2132,7 +2133,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="46" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A46" t="s">
         <v>199</v>
       </c>
@@ -2143,7 +2144,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="47" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A47" t="s">
         <v>200</v>
       </c>
@@ -2154,7 +2155,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="48" spans="1:4" s="9" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:4" s="9" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A48" t="s">
         <v>173</v>
       </c>
@@ -2162,13 +2163,13 @@
       <c r="C48"/>
       <c r="D48"/>
     </row>
-    <row r="49" spans="1:4" s="9" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="50" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:4" s="9" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="50" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A50" t="s">
         <v>168</v>
       </c>
     </row>
-    <row r="51" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A51" t="s">
         <v>169</v>
       </c>
@@ -2179,12 +2180,12 @@
         <v>10</v>
       </c>
     </row>
-    <row r="52" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A52" t="s">
         <v>170</v>
       </c>
     </row>
-    <row r="53" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A53" t="s">
         <v>171</v>
       </c>
@@ -2195,7 +2196,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="54" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A54" t="s">
         <v>172</v>
       </c>
@@ -2206,7 +2207,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="56" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A56" t="s">
         <v>50</v>
       </c>
@@ -2217,7 +2218,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="57" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A57" t="s">
         <v>49</v>
       </c>
@@ -2228,31 +2229,31 @@
         <v>10</v>
       </c>
     </row>
-    <row r="58" spans="1:4" s="9" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:4" s="9" customFormat="1" x14ac:dyDescent="0.35">
       <c r="C58" s="4"/>
       <c r="D58" s="4"/>
     </row>
-    <row r="60" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A60" t="s">
         <v>133</v>
       </c>
     </row>
-    <row r="61" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A61" s="9" t="s">
         <v>134</v>
       </c>
     </row>
-    <row r="62" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A62" t="s">
         <v>136</v>
       </c>
     </row>
-    <row r="63" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A63" t="s">
         <v>137</v>
       </c>
     </row>
-    <row r="64" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A64" t="s">
         <v>235</v>
       </c>
@@ -2270,42 +2271,42 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{042B031A-8F6B-4A01-B2DE-DD19A2E3D336}">
   <dimension ref="A1:Z93"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <pane xSplit="4" ySplit="3" topLeftCell="E67" activePane="bottomRight" state="frozen"/>
+    <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <pane xSplit="4" ySplit="3" topLeftCell="E43" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="F1" sqref="F1"/>
       <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
-      <selection pane="bottomRight" activeCell="K74" sqref="K74:L74"/>
+      <selection pane="bottomRight" activeCell="A77" sqref="A77"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="13" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="13" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="27.7109375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="21.7109375" customWidth="1"/>
+    <col min="1" max="1" width="27.7265625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="21.7265625" customWidth="1"/>
     <col min="3" max="3" width="21" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="14" hidden="1" customWidth="1"/>
-    <col min="5" max="5" width="10.7109375" customWidth="1"/>
-    <col min="6" max="6" width="14.7109375" customWidth="1"/>
-    <col min="7" max="9" width="10.7109375" customWidth="1"/>
-    <col min="10" max="10" width="20.28515625" customWidth="1"/>
-    <col min="11" max="12" width="24.5703125" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="10.7109375" customWidth="1"/>
-    <col min="14" max="14" width="24.5703125" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="17.7109375" customWidth="1"/>
+    <col min="5" max="5" width="10.7265625" customWidth="1"/>
+    <col min="6" max="6" width="14.7265625" customWidth="1"/>
+    <col min="7" max="9" width="10.7265625" customWidth="1"/>
+    <col min="10" max="10" width="20.26953125" customWidth="1"/>
+    <col min="11" max="12" width="24.54296875" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="10.7265625" customWidth="1"/>
+    <col min="14" max="14" width="24.54296875" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="17.7265625" customWidth="1"/>
     <col min="16" max="16" width="18" customWidth="1"/>
-    <col min="17" max="17" width="17.7109375" customWidth="1"/>
+    <col min="17" max="17" width="17.7265625" customWidth="1"/>
     <col min="18" max="18" width="30" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="15.7109375" customWidth="1"/>
-    <col min="20" max="20" width="13.28515625" customWidth="1"/>
-    <col min="21" max="21" width="14.28515625" customWidth="1"/>
-    <col min="22" max="22" width="14.42578125" customWidth="1"/>
-    <col min="23" max="23" width="12.7109375" customWidth="1"/>
-    <col min="24" max="24" width="13.7109375" customWidth="1"/>
-    <col min="25" max="25" width="17.28515625" customWidth="1"/>
-    <col min="26" max="26" width="16.28515625" customWidth="1"/>
+    <col min="19" max="19" width="15.7265625" customWidth="1"/>
+    <col min="20" max="20" width="13.26953125" customWidth="1"/>
+    <col min="21" max="21" width="14.26953125" customWidth="1"/>
+    <col min="22" max="22" width="14.453125" customWidth="1"/>
+    <col min="23" max="23" width="12.7265625" customWidth="1"/>
+    <col min="24" max="24" width="13.7265625" customWidth="1"/>
+    <col min="25" max="25" width="17.26953125" customWidth="1"/>
+    <col min="26" max="26" width="16.26953125" customWidth="1"/>
     <col min="27" max="27" width="13" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>124</v>
       </c>
@@ -2385,7 +2386,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="2" spans="1:26" s="7" customFormat="1" ht="58.15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:26" s="7" customFormat="1" ht="58.15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="E2" s="11" t="s">
         <v>106</v>
       </c>
@@ -2444,7 +2445,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="3" spans="1:26" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:26" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="E3" s="10"/>
       <c r="F3" s="10"/>
       <c r="G3" s="10"/>
@@ -2488,7 +2489,7 @@
         <v>TWh/a</v>
       </c>
     </row>
-    <row r="4" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A4" s="3" t="s">
         <v>70</v>
       </c>
@@ -2530,7 +2531,7 @@
       <c r="Y4" s="6"/>
       <c r="Z4" s="6"/>
     </row>
-    <row r="5" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A5" s="3" t="s">
         <v>20</v>
       </c>
@@ -2570,7 +2571,7 @@
       <c r="Y5" s="6"/>
       <c r="Z5" s="6"/>
     </row>
-    <row r="6" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A6" s="3" t="s">
         <v>71</v>
       </c>
@@ -2610,7 +2611,7 @@
       <c r="Y6" s="6"/>
       <c r="Z6" s="6"/>
     </row>
-    <row r="7" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A7" s="3" t="s">
         <v>73</v>
       </c>
@@ -2650,7 +2651,7 @@
       <c r="Y7" s="6"/>
       <c r="Z7" s="6"/>
     </row>
-    <row r="8" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A8" s="3" t="s">
         <v>74</v>
       </c>
@@ -2690,7 +2691,7 @@
       <c r="Y8" s="6"/>
       <c r="Z8" s="6"/>
     </row>
-    <row r="9" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A9" s="3" t="s">
         <v>76</v>
       </c>
@@ -2727,7 +2728,7 @@
       <c r="Y9" s="6"/>
       <c r="Z9" s="6"/>
     </row>
-    <row r="10" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A10" s="3" t="s">
         <v>77</v>
       </c>
@@ -2766,7 +2767,7 @@
       <c r="Y10" s="6"/>
       <c r="Z10" s="6"/>
     </row>
-    <row r="11" spans="1:26" s="9" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:26" s="9" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A11" s="3" t="s">
         <v>133</v>
       </c>
@@ -2808,7 +2809,7 @@
       <c r="Y11" s="6"/>
       <c r="Z11" s="6"/>
     </row>
-    <row r="12" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A12" s="3"/>
       <c r="B12" s="3"/>
       <c r="C12" s="3"/>
@@ -2832,7 +2833,7 @@
       <c r="Y12" s="6"/>
       <c r="Z12" s="6"/>
     </row>
-    <row r="13" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A13" s="3" t="s">
         <v>78</v>
       </c>
@@ -2866,7 +2867,7 @@
       <c r="Y13" s="6"/>
       <c r="Z13" s="6"/>
     </row>
-    <row r="14" spans="1:26" s="9" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:26" s="9" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A14" s="9" t="s">
         <v>136</v>
       </c>
@@ -2900,7 +2901,7 @@
       <c r="Y14" s="6"/>
       <c r="Z14" s="6"/>
     </row>
-    <row r="15" spans="1:26" s="9" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:26" s="9" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A15" s="9" t="s">
         <v>137</v>
       </c>
@@ -2934,7 +2935,7 @@
       <c r="Y15" s="6"/>
       <c r="Z15" s="6"/>
     </row>
-    <row r="16" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A16" s="3"/>
       <c r="B16" s="3"/>
       <c r="C16" s="3"/>
@@ -2958,7 +2959,7 @@
       <c r="Y16" s="6"/>
       <c r="Z16" s="6"/>
     </row>
-    <row r="17" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A17" s="3" t="s">
         <v>80</v>
       </c>
@@ -2995,7 +2996,7 @@
       </c>
       <c r="Z17" s="6"/>
     </row>
-    <row r="18" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A18" s="3" t="s">
         <v>21</v>
       </c>
@@ -3032,7 +3033,7 @@
       </c>
       <c r="Z18" s="6"/>
     </row>
-    <row r="19" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A19" s="3" t="s">
         <v>82</v>
       </c>
@@ -3069,7 +3070,7 @@
       </c>
       <c r="Z19" s="6"/>
     </row>
-    <row r="20" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A20" s="3" t="s">
         <v>84</v>
       </c>
@@ -3106,7 +3107,7 @@
       </c>
       <c r="Z20" s="6"/>
     </row>
-    <row r="21" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A21" s="3" t="s">
         <v>86</v>
       </c>
@@ -3143,7 +3144,7 @@
       </c>
       <c r="Z21" s="6"/>
     </row>
-    <row r="22" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A22" s="3" t="s">
         <v>88</v>
       </c>
@@ -3180,7 +3181,7 @@
       </c>
       <c r="Z22" s="6"/>
     </row>
-    <row r="23" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A23" s="9" t="s">
         <v>164</v>
       </c>
@@ -3217,7 +3218,7 @@
       </c>
       <c r="Z23" s="6"/>
     </row>
-    <row r="24" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A24" s="3"/>
       <c r="B24" s="3"/>
       <c r="C24" s="3"/>
@@ -3241,7 +3242,7 @@
       <c r="Y24" s="6"/>
       <c r="Z24" s="6"/>
     </row>
-    <row r="25" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A25" s="3" t="s">
         <v>172</v>
       </c>
@@ -3288,7 +3289,7 @@
       <c r="Y25" s="6"/>
       <c r="Z25" s="6"/>
     </row>
-    <row r="26" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A26" s="3" t="s">
         <v>171</v>
       </c>
@@ -3335,7 +3336,7 @@
       <c r="Y26" s="6"/>
       <c r="Z26" s="6"/>
     </row>
-    <row r="27" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A27" s="3" t="s">
         <v>170</v>
       </c>
@@ -3382,7 +3383,7 @@
       <c r="Y27" s="6"/>
       <c r="Z27" s="6"/>
     </row>
-    <row r="28" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A28" s="3" t="s">
         <v>169</v>
       </c>
@@ -3429,7 +3430,7 @@
       <c r="Y28" s="6"/>
       <c r="Z28" s="6"/>
     </row>
-    <row r="29" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A29" s="3" t="s">
         <v>168</v>
       </c>
@@ -3478,7 +3479,7 @@
       </c>
       <c r="Z29" s="6"/>
     </row>
-    <row r="30" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A30" s="3"/>
       <c r="B30" s="3"/>
       <c r="C30" s="3"/>
@@ -3503,7 +3504,7 @@
       <c r="Y30" s="6"/>
       <c r="Z30" s="6"/>
     </row>
-    <row r="31" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A31" s="9" t="s">
         <v>199</v>
       </c>
@@ -3546,7 +3547,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="32" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A32" s="9" t="s">
         <v>200</v>
       </c>
@@ -3593,7 +3594,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="33" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A33" s="9" t="s">
         <v>173</v>
       </c>
@@ -3638,7 +3639,7 @@
       <c r="Y33" s="6"/>
       <c r="Z33" s="6"/>
     </row>
-    <row r="34" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A34" s="9" t="s">
         <v>195</v>
       </c>
@@ -3683,7 +3684,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="35" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A35" s="9" t="s">
         <v>196</v>
       </c>
@@ -3730,7 +3731,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="36" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A36" s="9" t="s">
         <v>197</v>
       </c>
@@ -3775,7 +3776,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="37" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A37" s="9" t="s">
         <v>198</v>
       </c>
@@ -3822,7 +3823,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="40" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A40" s="9" t="s">
         <v>210</v>
       </c>
@@ -3866,7 +3867,7 @@
       <c r="Y40" s="6"/>
       <c r="Z40" s="6"/>
     </row>
-    <row r="41" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A41" s="9" t="s">
         <v>209</v>
       </c>
@@ -3910,7 +3911,7 @@
       </c>
       <c r="Z41" s="6"/>
     </row>
-    <row r="42" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A42" s="9" t="s">
         <v>208</v>
       </c>
@@ -3950,7 +3951,7 @@
       <c r="Y42" s="6"/>
       <c r="Z42" s="6"/>
     </row>
-    <row r="44" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A44" s="3" t="s">
         <v>174</v>
       </c>
@@ -3982,7 +3983,7 @@
       <c r="Y44" s="6"/>
       <c r="Z44" s="6"/>
     </row>
-    <row r="46" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A46" s="9" t="s">
         <v>212</v>
       </c>
@@ -4022,7 +4023,7 @@
       <c r="Y46" s="6"/>
       <c r="Z46" s="6"/>
     </row>
-    <row r="47" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A47" s="9" t="s">
         <v>211</v>
       </c>
@@ -4062,7 +4063,7 @@
       <c r="Y47" s="6"/>
       <c r="Z47" s="6"/>
     </row>
-    <row r="48" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A48" s="9" t="s">
         <v>213</v>
       </c>
@@ -4104,7 +4105,7 @@
       </c>
       <c r="Z48" s="6"/>
     </row>
-    <row r="49" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A49" s="3"/>
       <c r="B49" s="3"/>
       <c r="C49" s="3"/>
@@ -4128,7 +4129,7 @@
       <c r="Y49" s="6"/>
       <c r="Z49" s="6"/>
     </row>
-    <row r="50" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A50" s="3" t="s">
         <v>89</v>
       </c>
@@ -4179,7 +4180,7 @@
       <c r="Y50" s="6"/>
       <c r="Z50" s="6"/>
     </row>
-    <row r="51" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A51" s="3"/>
       <c r="B51" s="3"/>
       <c r="C51" s="3"/>
@@ -4204,7 +4205,7 @@
       <c r="Y51" s="6"/>
       <c r="Z51" s="6"/>
     </row>
-    <row r="52" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A52" s="9" t="s">
         <v>221</v>
       </c>
@@ -4255,7 +4256,7 @@
       </c>
       <c r="Z52" s="6"/>
     </row>
-    <row r="53" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A53" s="9" t="s">
         <v>222</v>
       </c>
@@ -4308,7 +4309,7 @@
       </c>
       <c r="Z53" s="6"/>
     </row>
-    <row r="54" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A54" s="9" t="s">
         <v>219</v>
       </c>
@@ -4355,7 +4356,7 @@
       </c>
       <c r="Z54" s="6"/>
     </row>
-    <row r="55" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A55" s="9" t="s">
         <v>223</v>
       </c>
@@ -4406,7 +4407,7 @@
       </c>
       <c r="Z55" s="6"/>
     </row>
-    <row r="56" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A56" s="9" t="s">
         <v>220</v>
       </c>
@@ -4453,7 +4454,7 @@
       </c>
       <c r="Z56" s="6"/>
     </row>
-    <row r="57" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A57" s="3"/>
       <c r="B57" s="3"/>
       <c r="C57" s="3"/>
@@ -4477,7 +4478,7 @@
       <c r="Y57" s="6"/>
       <c r="Z57" s="6"/>
     </row>
-    <row r="58" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A58" s="3"/>
       <c r="B58" s="3"/>
       <c r="C58" s="3"/>
@@ -4501,7 +4502,7 @@
       <c r="Y58" s="6"/>
       <c r="Z58" s="6"/>
     </row>
-    <row r="59" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A59" s="3" t="s">
         <v>167</v>
       </c>
@@ -4535,7 +4536,7 @@
       <c r="Y59" s="6"/>
       <c r="Z59" s="6"/>
     </row>
-    <row r="60" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A60" s="3" t="s">
         <v>167</v>
       </c>
@@ -4571,7 +4572,7 @@
       <c r="Y60" s="6"/>
       <c r="Z60" s="6"/>
     </row>
-    <row r="61" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A61" s="3" t="s">
         <v>167</v>
       </c>
@@ -4621,7 +4622,7 @@
       <c r="Y61" s="6"/>
       <c r="Z61" s="6"/>
     </row>
-    <row r="62" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A62" s="3" t="s">
         <v>167</v>
       </c>
@@ -4655,7 +4656,7 @@
       <c r="Y62" s="6"/>
       <c r="Z62" s="6"/>
     </row>
-    <row r="63" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A63" s="3"/>
       <c r="B63" s="3"/>
       <c r="C63" s="3"/>
@@ -4679,7 +4680,7 @@
       <c r="Y63" s="6"/>
       <c r="Z63" s="6"/>
     </row>
-    <row r="64" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A64" s="3" t="s">
         <v>166</v>
       </c>
@@ -4713,7 +4714,7 @@
       <c r="Y64" s="6"/>
       <c r="Z64" s="6"/>
     </row>
-    <row r="65" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A65" s="3" t="s">
         <v>166</v>
       </c>
@@ -4747,7 +4748,7 @@
       <c r="Y65" s="6"/>
       <c r="Z65" s="6"/>
     </row>
-    <row r="66" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A66" s="3" t="s">
         <v>166</v>
       </c>
@@ -4797,7 +4798,7 @@
       <c r="Y66" s="6"/>
       <c r="Z66" s="6"/>
     </row>
-    <row r="67" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A67" s="3" t="s">
         <v>166</v>
       </c>
@@ -4831,7 +4832,7 @@
       </c>
       <c r="Z67" s="6"/>
     </row>
-    <row r="68" spans="1:26" s="9" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:26" s="9" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A68" s="3"/>
       <c r="B68" s="3"/>
       <c r="C68" s="3"/>
@@ -4855,7 +4856,7 @@
       <c r="Y68" s="6"/>
       <c r="Z68" s="6"/>
     </row>
-    <row r="69" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A69" s="3" t="s">
         <v>165</v>
       </c>
@@ -4891,7 +4892,7 @@
       <c r="Y69" s="6"/>
       <c r="Z69" s="6"/>
     </row>
-    <row r="70" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A70" s="3" t="s">
         <v>165</v>
       </c>
@@ -4925,7 +4926,7 @@
       <c r="Y70" s="6"/>
       <c r="Z70" s="6"/>
     </row>
-    <row r="71" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A71" s="3" t="s">
         <v>165</v>
       </c>
@@ -4972,7 +4973,7 @@
       <c r="Y71" s="6"/>
       <c r="Z71" s="6"/>
     </row>
-    <row r="72" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A72" s="3" t="s">
         <v>165</v>
       </c>
@@ -5004,7 +5005,7 @@
       <c r="Y72" s="6"/>
       <c r="Z72" s="6"/>
     </row>
-    <row r="74" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A74" s="3" t="s">
         <v>50</v>
       </c>
@@ -5051,7 +5052,7 @@
       </c>
       <c r="Z74" s="6"/>
     </row>
-    <row r="75" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A75" s="4" t="s">
         <v>49</v>
       </c>
@@ -5095,7 +5096,7 @@
       </c>
       <c r="Z75" s="6"/>
     </row>
-    <row r="76" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A76" s="9" t="s">
         <v>134</v>
       </c>
@@ -5121,12 +5122,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="77" spans="1:26" s="9" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:26" s="9" customFormat="1" x14ac:dyDescent="0.35">
       <c r="I77" s="4"/>
       <c r="Q77" s="4"/>
       <c r="R77" s="4"/>
     </row>
-    <row r="78" spans="1:26" s="9" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:26" s="9" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A78" s="9" t="s">
         <v>235</v>
       </c>
@@ -5146,7 +5147,7 @@
       <c r="Q78" s="4"/>
       <c r="R78" s="4"/>
     </row>
-    <row r="79" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A79" t="s">
         <v>235</v>
       </c>
@@ -5160,7 +5161,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="80" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A80" s="9" t="s">
         <v>235</v>
       </c>
@@ -5174,7 +5175,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="81" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A81" s="9" t="s">
         <v>235</v>
       </c>
@@ -5188,7 +5189,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="82" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A82" s="9" t="s">
         <v>235</v>
       </c>
@@ -5202,7 +5203,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="83" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A83" s="9" t="s">
         <v>235</v>
       </c>
@@ -5216,7 +5217,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="84" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A84" s="9" t="s">
         <v>235</v>
       </c>
@@ -5230,7 +5231,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="85" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A85" s="9" t="s">
         <v>235</v>
       </c>
@@ -5244,7 +5245,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="86" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A86" s="9" t="s">
         <v>235</v>
       </c>
@@ -5258,7 +5259,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="87" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A87" s="9" t="s">
         <v>235</v>
       </c>
@@ -5272,7 +5273,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="88" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A88" s="9" t="s">
         <v>235</v>
       </c>
@@ -5286,7 +5287,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="89" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A89" s="9" t="s">
         <v>235</v>
       </c>
@@ -5300,7 +5301,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="90" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A90" s="9" t="s">
         <v>235</v>
       </c>
@@ -5314,7 +5315,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="91" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A91" s="9" t="s">
         <v>235</v>
       </c>
@@ -5328,7 +5329,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="92" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A92" s="9" t="s">
         <v>235</v>
       </c>
@@ -5342,7 +5343,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="93" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A93" s="9" t="s">
         <v>235</v>
       </c>
@@ -5373,13 +5374,13 @@
       <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="11.453125" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="21.7109375" customWidth="1"/>
-    <col min="2" max="2" width="27.42578125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="21.7265625" customWidth="1"/>
+    <col min="2" max="2" width="27.453125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>26</v>
       </c>
@@ -5390,7 +5391,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>30</v>
       </c>
@@ -5401,7 +5402,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>242</v>
       </c>
@@ -5412,7 +5413,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>96</v>
       </c>
@@ -5420,7 +5421,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>101</v>
       </c>

--- a/Data/Techmap/DEModel_V2.xlsx
+++ b/Data/Techmap/DEModel_V2.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GIT-OTHER\CESM\Data\Techmap\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\wsl.localhost\Ubuntu\home\gutriv\TUD\CESM\Data\Techmap\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F4E79E48-C675-4536-99CB-C05AB44A28A7}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{19916015-8357-4C40-A1E8-E0866C659DC7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="10236" yWindow="120" windowWidth="6492" windowHeight="8172" activeTab="4" xr2:uid="{EC78BDD3-7137-425A-8228-7CE92A9A1C25}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="25440" windowHeight="15270" activeTab="4" xr2:uid="{EC78BDD3-7137-425A-8228-7CE92A9A1C25}"/>
   </bookViews>
   <sheets>
     <sheet name="Units" sheetId="9" r:id="rId1"/>
@@ -26,7 +26,7 @@
     <definedName name="Energy">Units!$B$3</definedName>
     <definedName name="Power">Units!$B$2</definedName>
   </definedNames>
-  <calcPr calcId="179021"/>
+  <calcPr calcId="181029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -623,9 +623,6 @@
     <t>[2016 12.5;2017 NaN]</t>
   </si>
   <si>
-    <t>[16 23.3;2017 NaN]</t>
-  </si>
-  <si>
     <t>PP_WindOff_Res</t>
   </si>
   <si>
@@ -771,6 +768,9 @@
   </si>
   <si>
     <t>[2016 14.3;2017 NaN]</t>
+  </si>
+  <si>
+    <t>[2016 23.3;2017 NaN]</t>
   </si>
 </sst>
 </file>
@@ -867,37 +867,27 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyProtection="1">
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyProtection="1">
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyProtection="1">
       <protection locked="0"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyProtection="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyProtection="1">
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
   </cellXfs>
@@ -1316,13 +1306,13 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A1" s="12" t="s">
+      <c r="A1" s="7" t="s">
         <v>121</v>
       </c>
-      <c r="B1" s="12" t="s">
+      <c r="B1" s="7" t="s">
         <v>122</v>
       </c>
-      <c r="C1" s="12" t="s">
+      <c r="C1" s="7" t="s">
         <v>123</v>
       </c>
     </row>
@@ -1471,8 +1461,8 @@
       <c r="B2">
         <v>0.05</v>
       </c>
-      <c r="C2" s="15" t="s">
-        <v>242</v>
+      <c r="C2" s="9" t="s">
+        <v>241</v>
       </c>
       <c r="E2">
         <v>2015</v>
@@ -1483,13 +1473,13 @@
       <c r="G2">
         <v>5</v>
       </c>
-      <c r="H2" s="9" t="s">
+      <c r="H2" t="s">
         <v>102</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="B3">
         <v>0.05</v>
@@ -1504,7 +1494,7 @@
         <v>5</v>
       </c>
       <c r="H3" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.3">
@@ -1631,10 +1621,10 @@
       <c r="A6" t="s">
         <v>88</v>
       </c>
-      <c r="C6" s="4" t="s">
+      <c r="C6" t="s">
         <v>161</v>
       </c>
-      <c r="D6" s="4">
+      <c r="D6">
         <v>10</v>
       </c>
     </row>
@@ -1647,10 +1637,10 @@
       <c r="A8" t="s">
         <v>86</v>
       </c>
-      <c r="C8" s="4" t="s">
+      <c r="C8" t="s">
         <v>160</v>
       </c>
-      <c r="D8" s="4">
+      <c r="D8">
         <v>10</v>
       </c>
     </row>
@@ -1658,10 +1648,10 @@
       <c r="A9" t="s">
         <v>84</v>
       </c>
-      <c r="C9" s="13" t="s">
+      <c r="C9" s="8" t="s">
         <v>159</v>
       </c>
-      <c r="D9" s="4">
+      <c r="D9">
         <v>10</v>
       </c>
     </row>
@@ -1669,10 +1659,10 @@
       <c r="A10" t="s">
         <v>19</v>
       </c>
-      <c r="C10" s="4" t="s">
+      <c r="C10" t="s">
         <v>162</v>
       </c>
-      <c r="D10" s="4">
+      <c r="D10">
         <v>10</v>
       </c>
     </row>
@@ -1680,10 +1670,10 @@
       <c r="A11" t="s">
         <v>45</v>
       </c>
-      <c r="C11" s="4" t="s">
+      <c r="C11" t="s">
         <v>163</v>
       </c>
-      <c r="D11" s="4">
+      <c r="D11">
         <v>10</v>
       </c>
     </row>
@@ -1691,10 +1681,10 @@
       <c r="A12" t="s">
         <v>46</v>
       </c>
-      <c r="C12" s="14" t="s">
+      <c r="C12" t="s">
         <v>151</v>
       </c>
-      <c r="D12" s="4">
+      <c r="D12">
         <v>10</v>
       </c>
     </row>
@@ -1702,10 +1692,10 @@
       <c r="A13" t="s">
         <v>47</v>
       </c>
-      <c r="C13" s="4" t="s">
+      <c r="C13" t="s">
         <v>150</v>
       </c>
-      <c r="D13" s="4">
+      <c r="D13">
         <v>10</v>
       </c>
     </row>
@@ -1713,10 +1703,10 @@
       <c r="A14" t="s">
         <v>80</v>
       </c>
-      <c r="C14" s="13" t="s">
+      <c r="C14" s="8" t="s">
         <v>147</v>
       </c>
-      <c r="D14" s="4">
+      <c r="D14">
         <v>10</v>
       </c>
     </row>
@@ -1724,10 +1714,10 @@
       <c r="A15" t="s">
         <v>73</v>
       </c>
-      <c r="C15" s="13" t="s">
+      <c r="C15" s="8" t="s">
         <v>147</v>
       </c>
-      <c r="D15" s="4">
+      <c r="D15">
         <v>10</v>
       </c>
     </row>
@@ -1735,10 +1725,10 @@
       <c r="A16" t="s">
         <v>48</v>
       </c>
-      <c r="C16" s="4" t="s">
+      <c r="C16" t="s">
         <v>148</v>
       </c>
-      <c r="D16" s="4">
+      <c r="D16">
         <v>10</v>
       </c>
     </row>
@@ -1746,10 +1736,10 @@
       <c r="A17" t="s">
         <v>18</v>
       </c>
-      <c r="C17" s="13" t="s">
+      <c r="C17" s="8" t="s">
         <v>146</v>
       </c>
-      <c r="D17" s="4">
+      <c r="D17">
         <v>10</v>
       </c>
     </row>
@@ -1757,10 +1747,10 @@
       <c r="A18" t="s">
         <v>76</v>
       </c>
-      <c r="C18" s="4" t="s">
+      <c r="C18" t="s">
         <v>158</v>
       </c>
-      <c r="D18" s="4">
+      <c r="D18">
         <v>11</v>
       </c>
     </row>
@@ -1776,7 +1766,7 @@
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
     </row>
   </sheetData>
@@ -1820,10 +1810,10 @@
       <c r="A3" t="s">
         <v>71</v>
       </c>
-      <c r="C3" s="4" t="s">
+      <c r="C3" t="s">
         <v>145</v>
       </c>
-      <c r="D3" s="4">
+      <c r="D3">
         <v>1</v>
       </c>
     </row>
@@ -1831,10 +1821,10 @@
       <c r="A4" t="s">
         <v>20</v>
       </c>
-      <c r="C4" s="13" t="s">
+      <c r="C4" s="8" t="s">
         <v>146</v>
       </c>
-      <c r="D4" s="4">
+      <c r="D4">
         <v>2</v>
       </c>
     </row>
@@ -1842,10 +1832,10 @@
       <c r="A5" t="s">
         <v>72</v>
       </c>
-      <c r="C5" s="13" t="s">
+      <c r="C5" s="8" t="s">
         <v>147</v>
       </c>
-      <c r="D5" s="4">
+      <c r="D5">
         <v>3</v>
       </c>
     </row>
@@ -1853,10 +1843,10 @@
       <c r="A6" t="s">
         <v>74</v>
       </c>
-      <c r="C6" s="4" t="s">
+      <c r="C6" t="s">
         <v>148</v>
       </c>
-      <c r="D6" s="4">
+      <c r="D6">
         <v>3</v>
       </c>
     </row>
@@ -1864,10 +1854,10 @@
       <c r="A7" t="s">
         <v>75</v>
       </c>
-      <c r="C7" s="4" t="s">
+      <c r="C7" t="s">
         <v>149</v>
       </c>
-      <c r="D7" s="4">
+      <c r="D7">
         <v>4</v>
       </c>
     </row>
@@ -1875,10 +1865,10 @@
       <c r="A8" t="s">
         <v>77</v>
       </c>
-      <c r="C8" s="4" t="s">
+      <c r="C8" t="s">
         <v>150</v>
       </c>
-      <c r="D8" s="4">
+      <c r="D8">
         <v>5</v>
       </c>
     </row>
@@ -1886,10 +1876,10 @@
       <c r="A9" t="s">
         <v>78</v>
       </c>
-      <c r="C9" s="14" t="s">
+      <c r="C9" t="s">
         <v>151</v>
       </c>
-      <c r="D9" s="4">
+      <c r="D9">
         <v>6</v>
       </c>
     </row>
@@ -1913,7 +1903,7 @@
       <c r="A14" t="s">
         <v>21</v>
       </c>
-      <c r="D14" s="9">
+      <c r="D14">
         <v>0</v>
       </c>
     </row>
@@ -1921,7 +1911,7 @@
       <c r="A15" t="s">
         <v>83</v>
       </c>
-      <c r="D15" s="9">
+      <c r="D15">
         <v>0</v>
       </c>
     </row>
@@ -1929,7 +1919,7 @@
       <c r="A16" t="s">
         <v>85</v>
       </c>
-      <c r="D16" s="9">
+      <c r="D16">
         <v>0</v>
       </c>
     </row>
@@ -1937,7 +1927,7 @@
       <c r="A17" t="s">
         <v>87</v>
       </c>
-      <c r="D17" s="9">
+      <c r="D17">
         <v>0</v>
       </c>
     </row>
@@ -1945,7 +1935,7 @@
       <c r="A18" t="s">
         <v>89</v>
       </c>
-      <c r="D18" s="9">
+      <c r="D18">
         <v>0</v>
       </c>
     </row>
@@ -1953,7 +1943,7 @@
       <c r="A19" t="s">
         <v>165</v>
       </c>
-      <c r="D19" s="9">
+      <c r="D19">
         <v>0</v>
       </c>
     </row>
@@ -1964,40 +1954,38 @@
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
-        <v>222</v>
-      </c>
-      <c r="C22" s="4" t="s">
+        <v>221</v>
+      </c>
+      <c r="C22" t="s">
         <v>145</v>
       </c>
-      <c r="D22" s="4">
+      <c r="D22">
         <v>10</v>
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
-        <v>224</v>
-      </c>
-      <c r="C25" s="9"/>
+        <v>223</v>
+      </c>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
-        <v>221</v>
-      </c>
-    </row>
-    <row r="27" spans="1:4" s="9" customFormat="1" x14ac:dyDescent="0.3"/>
+        <v>220</v>
+      </c>
+    </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="D28">
         <v>10</v>
@@ -2005,57 +1993,54 @@
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
-        <v>212</v>
-      </c>
-      <c r="C29" s="4" t="s">
+        <v>211</v>
+      </c>
+      <c r="C29" t="s">
         <v>164</v>
       </c>
-      <c r="D29" s="4">
+      <c r="D29">
         <v>10</v>
       </c>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
-        <v>214</v>
-      </c>
-    </row>
-    <row r="31" spans="1:4" s="9" customFormat="1" x14ac:dyDescent="0.3"/>
+        <v>213</v>
+      </c>
+    </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
         <v>175</v>
       </c>
     </row>
-    <row r="33" spans="1:4" s="9" customFormat="1" x14ac:dyDescent="0.3"/>
     <row r="34" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
-        <v>211</v>
-      </c>
-      <c r="C36" s="13" t="s">
+        <v>210</v>
+      </c>
+      <c r="C36" s="8" t="s">
         <v>146</v>
       </c>
-      <c r="D36" s="4">
+      <c r="D36">
         <v>10</v>
       </c>
     </row>
-    <row r="37" spans="1:4" s="9" customFormat="1" x14ac:dyDescent="0.3"/>
     <row r="38" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
         <v>167</v>
       </c>
-      <c r="C38" s="13" t="s">
+      <c r="C38" s="8" t="s">
         <v>156</v>
       </c>
-      <c r="D38" s="4">
+      <c r="D38">
         <v>9</v>
       </c>
     </row>
@@ -2063,10 +2048,10 @@
       <c r="A39" t="s">
         <v>166</v>
       </c>
-      <c r="C39" s="4" t="s">
+      <c r="C39" t="s">
         <v>158</v>
       </c>
-      <c r="D39" s="4">
+      <c r="D39">
         <v>11</v>
       </c>
     </row>
@@ -2074,19 +2059,18 @@
       <c r="A40" t="s">
         <v>168</v>
       </c>
-      <c r="C40" s="4" t="s">
+      <c r="C40" t="s">
         <v>157</v>
       </c>
-      <c r="D40" s="4">
+      <c r="D40">
         <v>4</v>
       </c>
     </row>
-    <row r="41" spans="1:4" s="9" customFormat="1" x14ac:dyDescent="0.3"/>
     <row r="42" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A42" t="s">
-        <v>196</v>
-      </c>
-      <c r="C42" s="4" t="s">
+        <v>195</v>
+      </c>
+      <c r="C42" t="s">
         <v>152</v>
       </c>
       <c r="D42">
@@ -2095,31 +2079,31 @@
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A43" t="s">
-        <v>197</v>
-      </c>
-      <c r="C43" s="4" t="s">
+        <v>196</v>
+      </c>
+      <c r="C43" t="s">
         <v>152</v>
       </c>
-      <c r="D43" s="9">
+      <c r="D43">
         <v>31</v>
       </c>
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A44" t="s">
-        <v>198</v>
-      </c>
-      <c r="C44" s="4" t="s">
+        <v>197</v>
+      </c>
+      <c r="C44" t="s">
         <v>153</v>
       </c>
-      <c r="D44" s="9">
+      <c r="D44">
         <v>32</v>
       </c>
     </row>
     <row r="45" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A45" t="s">
-        <v>199</v>
-      </c>
-      <c r="C45" s="4" t="s">
+        <v>198</v>
+      </c>
+      <c r="C45" t="s">
         <v>153</v>
       </c>
       <c r="D45">
@@ -2128,35 +2112,31 @@
     </row>
     <row r="46" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A46" t="s">
-        <v>200</v>
-      </c>
-      <c r="C46" s="4" t="s">
+        <v>199</v>
+      </c>
+      <c r="C46" t="s">
         <v>154</v>
       </c>
-      <c r="D46" s="4">
+      <c r="D46">
         <v>34</v>
       </c>
     </row>
     <row r="47" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A47" t="s">
-        <v>201</v>
-      </c>
-      <c r="C47" s="4" t="s">
+        <v>200</v>
+      </c>
+      <c r="C47" t="s">
         <v>154</v>
       </c>
-      <c r="D47" s="4">
+      <c r="D47">
         <v>35</v>
       </c>
     </row>
-    <row r="48" spans="1:4" s="9" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A48" t="s">
         <v>174</v>
       </c>
-      <c r="B48"/>
-      <c r="C48"/>
-      <c r="D48"/>
-    </row>
-    <row r="49" spans="1:4" s="9" customFormat="1" x14ac:dyDescent="0.3"/>
+    </row>
     <row r="50" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A50" t="s">
         <v>169</v>
@@ -2166,10 +2146,10 @@
       <c r="A51" t="s">
         <v>170</v>
       </c>
-      <c r="C51" s="4" t="s">
+      <c r="C51" t="s">
         <v>148</v>
       </c>
-      <c r="D51" s="4">
+      <c r="D51">
         <v>10</v>
       </c>
     </row>
@@ -2182,10 +2162,10 @@
       <c r="A53" t="s">
         <v>172</v>
       </c>
-      <c r="C53" s="13" t="s">
+      <c r="C53" s="8" t="s">
         <v>146</v>
       </c>
-      <c r="D53" s="4">
+      <c r="D53">
         <v>9</v>
       </c>
     </row>
@@ -2193,10 +2173,10 @@
       <c r="A54" t="s">
         <v>173</v>
       </c>
-      <c r="C54" s="4" t="s">
+      <c r="C54" t="s">
         <v>145</v>
       </c>
-      <c r="D54" s="4">
+      <c r="D54">
         <v>3</v>
       </c>
     </row>
@@ -2204,10 +2184,10 @@
       <c r="A56" t="s">
         <v>50</v>
       </c>
-      <c r="C56" s="13" t="s">
+      <c r="C56" s="8" t="s">
         <v>147</v>
       </c>
-      <c r="D56" s="4">
+      <c r="D56">
         <v>10</v>
       </c>
     </row>
@@ -2215,16 +2195,12 @@
       <c r="A57" t="s">
         <v>49</v>
       </c>
-      <c r="C57" s="4" t="s">
+      <c r="C57" t="s">
         <v>155</v>
       </c>
-      <c r="D57" s="4">
+      <c r="D57">
         <v>10</v>
       </c>
-    </row>
-    <row r="58" spans="1:4" s="9" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="C58" s="4"/>
-      <c r="D58" s="4"/>
     </row>
     <row r="60" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A60" t="s">
@@ -2232,7 +2208,7 @@
       </c>
     </row>
     <row r="61" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A61" s="9" t="s">
+      <c r="A61" t="s">
         <v>135</v>
       </c>
     </row>
@@ -2248,7 +2224,7 @@
     </row>
     <row r="64" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A64" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
     </row>
   </sheetData>
@@ -2265,10 +2241,10 @@
   <dimension ref="A1:Z93"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <pane xSplit="4" ySplit="3" topLeftCell="K59" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="4" ySplit="3" topLeftCell="H13" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="F1" sqref="F1"/>
       <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
-      <selection pane="bottomRight" activeCell="N71" sqref="N71"/>
+      <selection pane="bottomRight" activeCell="N29" sqref="N29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="13" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2312,13 +2288,13 @@
       <c r="D1" t="s">
         <v>128</v>
       </c>
-      <c r="E1" s="9" t="s">
+      <c r="E1" t="s">
         <v>105</v>
       </c>
-      <c r="F1" s="9" t="s">
+      <c r="F1" t="s">
         <v>111</v>
       </c>
-      <c r="G1" s="9" t="s">
+      <c r="G1" t="s">
         <v>106</v>
       </c>
       <c r="H1" t="s">
@@ -2379,69 +2355,66 @@
         <v>114</v>
       </c>
     </row>
-    <row r="2" spans="1:26" s="7" customFormat="1" ht="58.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="E2" s="11" t="s">
+    <row r="2" spans="1:26" s="5" customFormat="1" ht="58.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="E2" s="5" t="s">
         <v>107</v>
       </c>
-      <c r="F2" s="11" t="s">
+      <c r="F2" s="5" t="s">
         <v>112</v>
       </c>
-      <c r="G2" s="11" t="s">
+      <c r="G2" s="5" t="s">
         <v>108</v>
       </c>
-      <c r="K2" s="7" t="s">
+      <c r="K2" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="L2" s="7" t="s">
+      <c r="L2" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="M2" s="7" t="s">
+      <c r="M2" s="5" t="s">
         <v>129</v>
       </c>
-      <c r="N2" s="7" t="s">
+      <c r="N2" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="O2" s="7" t="s">
+      <c r="O2" s="5" t="s">
         <v>130</v>
       </c>
-      <c r="P2" s="7" t="s">
+      <c r="P2" s="5" t="s">
         <v>99</v>
       </c>
-      <c r="Q2" s="7" t="s">
+      <c r="Q2" s="5" t="s">
         <v>98</v>
       </c>
-      <c r="R2" s="7" t="s">
+      <c r="R2" s="5" t="s">
         <v>51</v>
       </c>
-      <c r="S2" s="7" t="s">
+      <c r="S2" s="5" t="s">
         <v>58</v>
       </c>
-      <c r="T2" s="7" t="s">
+      <c r="T2" s="5" t="s">
         <v>57</v>
       </c>
-      <c r="U2" s="7" t="s">
+      <c r="U2" s="5" t="s">
         <v>69</v>
       </c>
-      <c r="V2" s="7" t="s">
+      <c r="V2" s="5" t="s">
         <v>68</v>
       </c>
-      <c r="W2" s="7" t="s">
+      <c r="W2" s="5" t="s">
         <v>131</v>
       </c>
-      <c r="X2" s="7" t="s">
+      <c r="X2" s="5" t="s">
         <v>70</v>
       </c>
-      <c r="Y2" s="7" t="s">
+      <c r="Y2" s="5" t="s">
         <v>115</v>
       </c>
-      <c r="Z2" s="7" t="s">
+      <c r="Z2" s="5" t="s">
         <v>116</v>
       </c>
     </row>
     <row r="3" spans="1:26" s="1" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="E3" s="10"/>
-      <c r="F3" s="10"/>
-      <c r="G3" s="10"/>
       <c r="H3" s="1" t="s">
         <v>41</v>
       </c>
@@ -2498,31 +2471,31 @@
       <c r="E4" s="3"/>
       <c r="F4" s="3"/>
       <c r="G4" s="3"/>
-      <c r="H4" s="5">
+      <c r="H4" s="4">
         <v>0</v>
       </c>
       <c r="I4" s="3">
         <v>1</v>
       </c>
-      <c r="J4" s="6"/>
-      <c r="K4" s="5"/>
-      <c r="N4" s="6"/>
-      <c r="O4" s="5"/>
-      <c r="P4" s="6">
+      <c r="J4" s="3"/>
+      <c r="K4" s="4"/>
+      <c r="N4" s="3"/>
+      <c r="O4" s="4"/>
+      <c r="P4" s="3">
         <v>20</v>
       </c>
-      <c r="Q4" s="6"/>
-      <c r="R4" s="6"/>
-      <c r="S4" s="5">
+      <c r="Q4" s="3"/>
+      <c r="R4" s="3"/>
+      <c r="S4" s="4">
         <v>310</v>
       </c>
-      <c r="T4" s="6"/>
+      <c r="T4" s="3"/>
       <c r="U4" s="3"/>
       <c r="V4" s="3"/>
       <c r="W4" s="3"/>
       <c r="X4" s="3"/>
-      <c r="Y4" s="6"/>
-      <c r="Z4" s="6"/>
+      <c r="Y4" s="3"/>
+      <c r="Z4" s="3"/>
     </row>
     <row r="5" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A5" s="3" t="s">
@@ -2540,29 +2513,29 @@
       <c r="E5" s="3"/>
       <c r="F5" s="3"/>
       <c r="G5" s="3"/>
-      <c r="H5" s="5">
+      <c r="H5" s="4">
         <v>0.34</v>
       </c>
       <c r="I5" s="3">
         <v>1</v>
       </c>
-      <c r="J5" s="6"/>
-      <c r="K5" s="5"/>
-      <c r="N5" s="6"/>
-      <c r="O5" s="5"/>
-      <c r="P5" s="6" t="s">
+      <c r="J5" s="3"/>
+      <c r="K5" s="4"/>
+      <c r="N5" s="3"/>
+      <c r="O5" s="4"/>
+      <c r="P5" s="3" t="s">
         <v>182</v>
       </c>
-      <c r="Q5" s="6"/>
-      <c r="R5" s="6"/>
-      <c r="S5" s="5"/>
-      <c r="T5" s="6"/>
+      <c r="Q5" s="3"/>
+      <c r="R5" s="3"/>
+      <c r="S5" s="4"/>
+      <c r="T5" s="3"/>
       <c r="U5" s="3"/>
       <c r="V5" s="3"/>
       <c r="W5" s="3"/>
       <c r="X5" s="3"/>
-      <c r="Y5" s="6"/>
-      <c r="Z5" s="6"/>
+      <c r="Y5" s="3"/>
+      <c r="Z5" s="3"/>
     </row>
     <row r="6" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A6" s="3" t="s">
@@ -2580,29 +2553,29 @@
       <c r="E6" s="3"/>
       <c r="F6" s="3"/>
       <c r="G6" s="3"/>
-      <c r="H6" s="5">
+      <c r="H6" s="4">
         <v>0.27</v>
       </c>
       <c r="I6" s="3">
         <v>1</v>
       </c>
-      <c r="J6" s="6"/>
-      <c r="K6" s="5"/>
-      <c r="N6" s="6"/>
-      <c r="O6" s="5"/>
-      <c r="P6" s="6" t="s">
+      <c r="J6" s="3"/>
+      <c r="K6" s="4"/>
+      <c r="N6" s="3"/>
+      <c r="O6" s="4"/>
+      <c r="P6" s="3" t="s">
         <v>183</v>
       </c>
-      <c r="Q6" s="6"/>
-      <c r="R6" s="6"/>
-      <c r="S6" s="5"/>
-      <c r="T6" s="6"/>
+      <c r="Q6" s="3"/>
+      <c r="R6" s="3"/>
+      <c r="S6" s="4"/>
+      <c r="T6" s="3"/>
       <c r="U6" s="3"/>
       <c r="V6" s="3"/>
       <c r="W6" s="3"/>
       <c r="X6" s="3"/>
-      <c r="Y6" s="6"/>
-      <c r="Z6" s="6"/>
+      <c r="Y6" s="3"/>
+      <c r="Z6" s="3"/>
     </row>
     <row r="7" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A7" s="3" t="s">
@@ -2620,29 +2593,29 @@
       <c r="E7" s="3"/>
       <c r="F7" s="3"/>
       <c r="G7" s="3"/>
-      <c r="H7" s="5">
+      <c r="H7" s="4">
         <v>0.4</v>
       </c>
       <c r="I7" s="3">
         <v>1</v>
       </c>
-      <c r="J7" s="6"/>
-      <c r="K7" s="5"/>
-      <c r="N7" s="6"/>
-      <c r="O7" s="5"/>
-      <c r="P7" s="6">
+      <c r="J7" s="3"/>
+      <c r="K7" s="4"/>
+      <c r="N7" s="3"/>
+      <c r="O7" s="4"/>
+      <c r="P7" s="3">
         <v>6.1</v>
       </c>
-      <c r="Q7" s="6"/>
-      <c r="R7" s="6"/>
-      <c r="S7" s="5"/>
-      <c r="T7" s="6"/>
+      <c r="Q7" s="3"/>
+      <c r="R7" s="3"/>
+      <c r="S7" s="4"/>
+      <c r="T7" s="3"/>
       <c r="U7" s="3"/>
       <c r="V7" s="3"/>
       <c r="W7" s="3"/>
       <c r="X7" s="3"/>
-      <c r="Y7" s="6"/>
-      <c r="Z7" s="6"/>
+      <c r="Y7" s="3"/>
+      <c r="Z7" s="3"/>
     </row>
     <row r="8" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A8" s="3" t="s">
@@ -2660,29 +2633,29 @@
       <c r="E8" s="3"/>
       <c r="F8" s="3"/>
       <c r="G8" s="3"/>
-      <c r="H8" s="5">
+      <c r="H8" s="4">
         <v>0.2</v>
       </c>
       <c r="I8" s="3">
         <v>1</v>
       </c>
-      <c r="J8" s="6"/>
-      <c r="K8" s="5"/>
-      <c r="N8" s="6"/>
-      <c r="O8" s="5"/>
-      <c r="P8" s="6" t="s">
+      <c r="J8" s="3"/>
+      <c r="K8" s="4"/>
+      <c r="N8" s="3"/>
+      <c r="O8" s="4"/>
+      <c r="P8" s="3" t="s">
         <v>184</v>
       </c>
-      <c r="Q8" s="6"/>
-      <c r="R8" s="6"/>
-      <c r="S8" s="5"/>
-      <c r="T8" s="6"/>
+      <c r="Q8" s="3"/>
+      <c r="R8" s="3"/>
+      <c r="S8" s="4"/>
+      <c r="T8" s="3"/>
       <c r="U8" s="3"/>
       <c r="V8" s="3"/>
       <c r="W8" s="3"/>
       <c r="X8" s="3"/>
-      <c r="Y8" s="6"/>
-      <c r="Z8" s="6"/>
+      <c r="Y8" s="3"/>
+      <c r="Z8" s="3"/>
     </row>
     <row r="9" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A9" s="3" t="s">
@@ -2700,26 +2673,26 @@
       <c r="E9" s="3"/>
       <c r="F9" s="3"/>
       <c r="G9" s="3"/>
-      <c r="H9" s="5">
+      <c r="H9" s="4">
         <v>0</v>
       </c>
       <c r="I9" s="3">
         <v>1</v>
       </c>
-      <c r="J9" s="6"/>
-      <c r="K9" s="5"/>
-      <c r="N9" s="6"/>
-      <c r="O9" s="5"/>
-      <c r="Q9" s="6"/>
-      <c r="R9" s="6"/>
-      <c r="S9" s="5"/>
-      <c r="T9" s="6"/>
+      <c r="J9" s="3"/>
+      <c r="K9" s="4"/>
+      <c r="N9" s="3"/>
+      <c r="O9" s="4"/>
+      <c r="Q9" s="3"/>
+      <c r="R9" s="3"/>
+      <c r="S9" s="4"/>
+      <c r="T9" s="3"/>
       <c r="U9" s="3"/>
       <c r="V9" s="3"/>
       <c r="W9" s="3"/>
       <c r="X9" s="3"/>
-      <c r="Y9" s="6"/>
-      <c r="Z9" s="6"/>
+      <c r="Y9" s="3"/>
+      <c r="Z9" s="3"/>
     </row>
     <row r="10" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A10" s="3" t="s">
@@ -2737,30 +2710,30 @@
       <c r="E10" s="3"/>
       <c r="F10" s="3"/>
       <c r="G10" s="3"/>
-      <c r="H10" s="5">
+      <c r="H10" s="4">
         <v>0.38</v>
       </c>
       <c r="I10" s="3">
         <v>1</v>
       </c>
-      <c r="J10" s="6"/>
-      <c r="K10" s="5"/>
-      <c r="N10" s="6"/>
-      <c r="O10" s="5"/>
-      <c r="Q10" s="6"/>
-      <c r="R10" s="6"/>
-      <c r="S10" s="5">
+      <c r="J10" s="3"/>
+      <c r="K10" s="4"/>
+      <c r="N10" s="3"/>
+      <c r="O10" s="4"/>
+      <c r="Q10" s="3"/>
+      <c r="R10" s="3"/>
+      <c r="S10" s="4">
         <v>69</v>
       </c>
-      <c r="T10" s="6"/>
+      <c r="T10" s="3"/>
       <c r="U10" s="3"/>
       <c r="V10" s="3"/>
       <c r="W10" s="3"/>
       <c r="X10" s="3"/>
-      <c r="Y10" s="6"/>
-      <c r="Z10" s="6"/>
-    </row>
-    <row r="11" spans="1:26" s="9" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="Y10" s="3"/>
+      <c r="Z10" s="3"/>
+    </row>
+    <row r="11" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A11" s="3" t="s">
         <v>134</v>
       </c>
@@ -2776,31 +2749,31 @@
       <c r="E11" s="3"/>
       <c r="F11" s="3"/>
       <c r="G11" s="3"/>
-      <c r="H11" s="6">
+      <c r="H11" s="3">
         <v>0</v>
       </c>
       <c r="I11" s="3">
         <v>1</v>
       </c>
-      <c r="J11" s="6"/>
-      <c r="K11" s="5"/>
-      <c r="N11" s="6"/>
-      <c r="O11" s="5"/>
-      <c r="P11" s="6" t="s">
+      <c r="J11" s="3"/>
+      <c r="K11" s="4"/>
+      <c r="N11" s="3"/>
+      <c r="O11" s="4"/>
+      <c r="P11" s="3" t="s">
         <v>140</v>
       </c>
-      <c r="Q11" s="6"/>
-      <c r="R11" s="6"/>
-      <c r="S11" s="6">
-        <v>0</v>
-      </c>
-      <c r="T11" s="6"/>
+      <c r="Q11" s="3"/>
+      <c r="R11" s="3"/>
+      <c r="S11" s="3">
+        <v>0</v>
+      </c>
+      <c r="T11" s="3"/>
       <c r="U11" s="3"/>
       <c r="V11" s="3"/>
       <c r="W11" s="3"/>
       <c r="X11" s="3"/>
-      <c r="Y11" s="6"/>
-      <c r="Z11" s="6"/>
+      <c r="Y11" s="3"/>
+      <c r="Z11" s="3"/>
     </row>
     <row r="12" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A12" s="3"/>
@@ -2811,20 +2784,20 @@
       <c r="F12" s="3"/>
       <c r="G12" s="3"/>
       <c r="I12" s="3"/>
-      <c r="J12" s="6"/>
-      <c r="K12" s="5"/>
-      <c r="N12" s="6"/>
-      <c r="O12" s="5"/>
-      <c r="Q12" s="6"/>
-      <c r="R12" s="6"/>
-      <c r="S12" s="5"/>
-      <c r="T12" s="6"/>
+      <c r="J12" s="3"/>
+      <c r="K12" s="4"/>
+      <c r="N12" s="3"/>
+      <c r="O12" s="4"/>
+      <c r="Q12" s="3"/>
+      <c r="R12" s="3"/>
+      <c r="S12" s="4"/>
+      <c r="T12" s="3"/>
       <c r="U12" s="3"/>
       <c r="V12" s="3"/>
       <c r="W12" s="3"/>
       <c r="X12" s="3"/>
-      <c r="Y12" s="6"/>
-      <c r="Z12" s="6"/>
+      <c r="Y12" s="3"/>
+      <c r="Z12" s="3"/>
     </row>
     <row r="13" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A13" s="3" t="s">
@@ -2845,23 +2818,23 @@
       <c r="I13" s="3">
         <v>0.88</v>
       </c>
-      <c r="J13" s="6"/>
-      <c r="K13" s="5"/>
-      <c r="N13" s="6"/>
-      <c r="O13" s="5"/>
-      <c r="Q13" s="6"/>
-      <c r="R13" s="6"/>
-      <c r="S13" s="5"/>
-      <c r="T13" s="6"/>
+      <c r="J13" s="3"/>
+      <c r="K13" s="4"/>
+      <c r="N13" s="3"/>
+      <c r="O13" s="4"/>
+      <c r="Q13" s="3"/>
+      <c r="R13" s="3"/>
+      <c r="S13" s="4"/>
+      <c r="T13" s="3"/>
       <c r="U13" s="3"/>
       <c r="V13" s="3"/>
       <c r="W13" s="3"/>
       <c r="X13" s="3"/>
-      <c r="Y13" s="6"/>
-      <c r="Z13" s="6"/>
-    </row>
-    <row r="14" spans="1:26" s="9" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="9" t="s">
+      <c r="Y13" s="3"/>
+      <c r="Z13" s="3"/>
+    </row>
+    <row r="14" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="A14" t="s">
         <v>137</v>
       </c>
       <c r="B14" s="3" t="s">
@@ -2879,23 +2852,23 @@
       <c r="I14" s="3">
         <v>1</v>
       </c>
-      <c r="J14" s="6"/>
-      <c r="K14" s="5"/>
-      <c r="N14" s="6"/>
-      <c r="O14" s="5"/>
-      <c r="Q14" s="6"/>
-      <c r="R14" s="6"/>
-      <c r="S14" s="5"/>
-      <c r="T14" s="6"/>
+      <c r="J14" s="3"/>
+      <c r="K14" s="4"/>
+      <c r="N14" s="3"/>
+      <c r="O14" s="4"/>
+      <c r="Q14" s="3"/>
+      <c r="R14" s="3"/>
+      <c r="S14" s="4"/>
+      <c r="T14" s="3"/>
       <c r="U14" s="3"/>
       <c r="V14" s="3"/>
       <c r="W14" s="3"/>
       <c r="X14" s="3"/>
-      <c r="Y14" s="6"/>
-      <c r="Z14" s="6"/>
-    </row>
-    <row r="15" spans="1:26" s="9" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="9" t="s">
+      <c r="Y14" s="3"/>
+      <c r="Z14" s="3"/>
+    </row>
+    <row r="15" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="A15" t="s">
         <v>138</v>
       </c>
       <c r="B15" s="3" t="s">
@@ -2913,20 +2886,20 @@
       <c r="I15" s="3">
         <v>1</v>
       </c>
-      <c r="J15" s="6"/>
-      <c r="K15" s="5"/>
-      <c r="N15" s="6"/>
-      <c r="O15" s="5"/>
-      <c r="Q15" s="6"/>
-      <c r="R15" s="6"/>
-      <c r="S15" s="5"/>
-      <c r="T15" s="6"/>
+      <c r="J15" s="3"/>
+      <c r="K15" s="4"/>
+      <c r="N15" s="3"/>
+      <c r="O15" s="4"/>
+      <c r="Q15" s="3"/>
+      <c r="R15" s="3"/>
+      <c r="S15" s="4"/>
+      <c r="T15" s="3"/>
       <c r="U15" s="3"/>
       <c r="V15" s="3"/>
       <c r="W15" s="3"/>
       <c r="X15" s="3"/>
-      <c r="Y15" s="6"/>
-      <c r="Z15" s="6"/>
+      <c r="Y15" s="3"/>
+      <c r="Z15" s="3"/>
     </row>
     <row r="16" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A16" s="3"/>
@@ -2937,20 +2910,20 @@
       <c r="F16" s="3"/>
       <c r="G16" s="3"/>
       <c r="I16" s="3"/>
-      <c r="J16" s="6"/>
-      <c r="K16" s="5"/>
-      <c r="N16" s="6"/>
-      <c r="O16" s="5"/>
-      <c r="Q16" s="6"/>
-      <c r="R16" s="6"/>
-      <c r="S16" s="5"/>
-      <c r="T16" s="6"/>
+      <c r="J16" s="3"/>
+      <c r="K16" s="4"/>
+      <c r="N16" s="3"/>
+      <c r="O16" s="4"/>
+      <c r="Q16" s="3"/>
+      <c r="R16" s="3"/>
+      <c r="S16" s="4"/>
+      <c r="T16" s="3"/>
       <c r="U16" s="3"/>
       <c r="V16" s="3"/>
       <c r="W16" s="3"/>
       <c r="X16" s="3"/>
-      <c r="Y16" s="6"/>
-      <c r="Z16" s="6"/>
+      <c r="Y16" s="3"/>
+      <c r="Z16" s="3"/>
     </row>
     <row r="17" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A17" s="3" t="s">
@@ -2971,23 +2944,23 @@
       <c r="I17" s="3">
         <v>1</v>
       </c>
-      <c r="J17" s="6"/>
-      <c r="K17" s="5"/>
-      <c r="N17" s="6"/>
-      <c r="O17" s="5"/>
-      <c r="Q17" s="6"/>
-      <c r="R17" s="6"/>
-      <c r="T17" s="5" t="s">
+      <c r="J17" s="3"/>
+      <c r="K17" s="4"/>
+      <c r="N17" s="3"/>
+      <c r="O17" s="4"/>
+      <c r="Q17" s="3"/>
+      <c r="R17" s="3"/>
+      <c r="T17" s="4" t="s">
         <v>185</v>
       </c>
       <c r="U17" s="3"/>
       <c r="V17" s="3"/>
       <c r="W17" s="3"/>
       <c r="X17" s="3"/>
-      <c r="Y17" s="6" t="s">
+      <c r="Y17" s="3" t="s">
         <v>59</v>
       </c>
-      <c r="Z17" s="6"/>
+      <c r="Z17" s="3"/>
     </row>
     <row r="18" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A18" s="3" t="s">
@@ -3008,23 +2981,23 @@
       <c r="I18" s="3">
         <v>1</v>
       </c>
-      <c r="J18" s="6"/>
-      <c r="K18" s="5"/>
-      <c r="N18" s="6"/>
-      <c r="O18" s="5"/>
-      <c r="Q18" s="6"/>
-      <c r="R18" s="6"/>
-      <c r="T18" s="5">
+      <c r="J18" s="3"/>
+      <c r="K18" s="4"/>
+      <c r="N18" s="3"/>
+      <c r="O18" s="4"/>
+      <c r="Q18" s="3"/>
+      <c r="R18" s="3"/>
+      <c r="T18" s="4">
         <v>511</v>
       </c>
       <c r="U18" s="3"/>
       <c r="V18" s="3"/>
       <c r="W18" s="3"/>
       <c r="X18" s="3"/>
-      <c r="Y18" s="6" t="s">
+      <c r="Y18" s="3" t="s">
         <v>60</v>
       </c>
-      <c r="Z18" s="6"/>
+      <c r="Z18" s="3"/>
     </row>
     <row r="19" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A19" s="3" t="s">
@@ -3045,23 +3018,23 @@
       <c r="I19" s="3">
         <v>1</v>
       </c>
-      <c r="J19" s="6"/>
-      <c r="K19" s="5"/>
-      <c r="N19" s="6"/>
-      <c r="O19" s="5"/>
-      <c r="Q19" s="6"/>
-      <c r="R19" s="6"/>
-      <c r="T19" s="5">
+      <c r="J19" s="3"/>
+      <c r="K19" s="4"/>
+      <c r="N19" s="3"/>
+      <c r="O19" s="4"/>
+      <c r="Q19" s="3"/>
+      <c r="R19" s="3"/>
+      <c r="T19" s="4">
         <v>250</v>
       </c>
       <c r="U19" s="3"/>
       <c r="V19" s="3"/>
       <c r="W19" s="3"/>
       <c r="X19" s="3"/>
-      <c r="Y19" s="6" t="s">
+      <c r="Y19" s="3" t="s">
         <v>61</v>
       </c>
-      <c r="Z19" s="6"/>
+      <c r="Z19" s="3"/>
     </row>
     <row r="20" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A20" s="3" t="s">
@@ -3082,23 +3055,23 @@
       <c r="I20" s="3">
         <v>1</v>
       </c>
-      <c r="J20" s="6"/>
-      <c r="K20" s="5"/>
-      <c r="N20" s="6"/>
-      <c r="O20" s="5"/>
-      <c r="Q20" s="6"/>
-      <c r="R20" s="6"/>
-      <c r="T20" s="5">
+      <c r="J20" s="3"/>
+      <c r="K20" s="4"/>
+      <c r="N20" s="3"/>
+      <c r="O20" s="4"/>
+      <c r="Q20" s="3"/>
+      <c r="R20" s="3"/>
+      <c r="T20" s="4">
         <v>245</v>
       </c>
       <c r="U20" s="3"/>
       <c r="V20" s="3"/>
       <c r="W20" s="3"/>
       <c r="X20" s="3"/>
-      <c r="Y20" s="6" t="s">
+      <c r="Y20" s="3" t="s">
         <v>61</v>
       </c>
-      <c r="Z20" s="6"/>
+      <c r="Z20" s="3"/>
     </row>
     <row r="21" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A21" s="3" t="s">
@@ -3119,23 +3092,23 @@
       <c r="I21" s="3">
         <v>1</v>
       </c>
-      <c r="J21" s="6"/>
-      <c r="K21" s="5"/>
-      <c r="N21" s="6"/>
-      <c r="O21" s="5"/>
-      <c r="Q21" s="6"/>
-      <c r="R21" s="6"/>
-      <c r="T21" s="5">
+      <c r="J21" s="3"/>
+      <c r="K21" s="4"/>
+      <c r="N21" s="3"/>
+      <c r="O21" s="4"/>
+      <c r="Q21" s="3"/>
+      <c r="R21" s="3"/>
+      <c r="T21" s="4">
         <v>210</v>
       </c>
       <c r="U21" s="3"/>
       <c r="V21" s="3"/>
       <c r="W21" s="3"/>
       <c r="X21" s="3"/>
-      <c r="Y21" s="6" t="s">
+      <c r="Y21" s="3" t="s">
         <v>61</v>
       </c>
-      <c r="Z21" s="6"/>
+      <c r="Z21" s="3"/>
     </row>
     <row r="22" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A22" s="3" t="s">
@@ -3156,26 +3129,26 @@
       <c r="I22" s="3">
         <v>1</v>
       </c>
-      <c r="J22" s="6"/>
-      <c r="K22" s="5"/>
-      <c r="N22" s="6"/>
-      <c r="O22" s="5"/>
-      <c r="Q22" s="6"/>
-      <c r="R22" s="6"/>
-      <c r="T22" s="5">
+      <c r="J22" s="3"/>
+      <c r="K22" s="4"/>
+      <c r="N22" s="3"/>
+      <c r="O22" s="4"/>
+      <c r="Q22" s="3"/>
+      <c r="R22" s="3"/>
+      <c r="T22" s="4">
         <v>11</v>
       </c>
       <c r="U22" s="3"/>
       <c r="V22" s="3"/>
       <c r="W22" s="3"/>
       <c r="X22" s="3"/>
-      <c r="Y22" s="6" t="s">
+      <c r="Y22" s="3" t="s">
         <v>61</v>
       </c>
-      <c r="Z22" s="6"/>
+      <c r="Z22" s="3"/>
     </row>
     <row r="23" spans="1:26" x14ac:dyDescent="0.3">
-      <c r="A23" s="9" t="s">
+      <c r="A23" t="s">
         <v>165</v>
       </c>
       <c r="B23" s="3" t="s">
@@ -3193,23 +3166,23 @@
       <c r="I23" s="3">
         <v>1</v>
       </c>
-      <c r="J23" s="6"/>
-      <c r="K23" s="5"/>
-      <c r="N23" s="6"/>
-      <c r="O23" s="5"/>
-      <c r="Q23" s="6"/>
-      <c r="R23" s="6"/>
-      <c r="T23" s="5">
+      <c r="J23" s="3"/>
+      <c r="K23" s="4"/>
+      <c r="N23" s="3"/>
+      <c r="O23" s="4"/>
+      <c r="Q23" s="3"/>
+      <c r="R23" s="3"/>
+      <c r="T23" s="4">
         <v>135</v>
       </c>
       <c r="U23" s="3"/>
       <c r="V23" s="3"/>
       <c r="W23" s="3"/>
       <c r="X23" s="3"/>
-      <c r="Y23" s="6" t="s">
+      <c r="Y23" s="3" t="s">
         <v>61</v>
       </c>
-      <c r="Z23" s="6"/>
+      <c r="Z23" s="3"/>
     </row>
     <row r="24" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A24" s="3"/>
@@ -3220,20 +3193,20 @@
       <c r="F24" s="3"/>
       <c r="G24" s="3"/>
       <c r="I24" s="3"/>
-      <c r="J24" s="6"/>
-      <c r="K24" s="5"/>
-      <c r="N24" s="6"/>
-      <c r="O24" s="5"/>
-      <c r="Q24" s="6"/>
-      <c r="R24" s="6"/>
-      <c r="S24" s="5"/>
-      <c r="T24" s="6"/>
+      <c r="J24" s="3"/>
+      <c r="K24" s="4"/>
+      <c r="N24" s="3"/>
+      <c r="O24" s="4"/>
+      <c r="Q24" s="3"/>
+      <c r="R24" s="3"/>
+      <c r="S24" s="4"/>
+      <c r="T24" s="3"/>
       <c r="U24" s="3"/>
       <c r="V24" s="3"/>
       <c r="W24" s="3"/>
       <c r="X24" s="3"/>
-      <c r="Y24" s="6"/>
-      <c r="Z24" s="6"/>
+      <c r="Y24" s="3"/>
+      <c r="Z24" s="3"/>
     </row>
     <row r="25" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A25" s="3" t="s">
@@ -3254,33 +3227,33 @@
       <c r="I25" s="3">
         <v>0.3</v>
       </c>
-      <c r="J25" s="6">
+      <c r="J25" s="3">
         <v>0.86</v>
       </c>
-      <c r="K25" s="5" t="s">
+      <c r="K25" s="4" t="s">
         <v>187</v>
       </c>
-      <c r="L25" s="6"/>
-      <c r="N25" s="6" t="s">
+      <c r="L25" s="3"/>
+      <c r="N25" s="3" t="s">
         <v>192</v>
       </c>
-      <c r="O25" s="5">
+      <c r="O25" s="4">
         <v>30</v>
       </c>
-      <c r="Q25" s="6">
+      <c r="Q25" s="3">
         <v>165</v>
       </c>
-      <c r="R25" s="6" t="s">
+      <c r="R25" s="3" t="s">
         <v>186</v>
       </c>
-      <c r="S25" s="5"/>
-      <c r="T25" s="6"/>
+      <c r="S25" s="4"/>
+      <c r="T25" s="3"/>
       <c r="U25" s="3"/>
       <c r="V25" s="3"/>
       <c r="W25" s="3"/>
       <c r="X25" s="3"/>
-      <c r="Y25" s="6"/>
-      <c r="Z25" s="6"/>
+      <c r="Y25" s="3"/>
+      <c r="Z25" s="3"/>
     </row>
     <row r="26" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A26" s="3" t="s">
@@ -3301,33 +3274,33 @@
       <c r="I26" s="3">
         <v>0.38</v>
       </c>
-      <c r="J26" s="6">
+      <c r="J26" s="3">
         <v>0.86</v>
       </c>
-      <c r="K26" s="5" t="s">
+      <c r="K26" s="4" t="s">
         <v>188</v>
       </c>
-      <c r="L26" s="5"/>
-      <c r="N26" s="6" t="s">
+      <c r="L26" s="4"/>
+      <c r="N26" s="3" t="s">
         <v>193</v>
       </c>
-      <c r="O26" s="5">
+      <c r="O26" s="4">
         <v>40</v>
       </c>
-      <c r="Q26" s="6">
+      <c r="Q26" s="3">
         <v>20</v>
       </c>
-      <c r="R26" s="6">
+      <c r="R26" s="3">
         <v>1500</v>
       </c>
-      <c r="S26" s="5"/>
-      <c r="T26" s="6"/>
+      <c r="S26" s="4"/>
+      <c r="T26" s="3"/>
       <c r="U26" s="3"/>
       <c r="V26" s="3"/>
       <c r="W26" s="3"/>
       <c r="X26" s="3"/>
-      <c r="Y26" s="6"/>
-      <c r="Z26" s="6"/>
+      <c r="Y26" s="3"/>
+      <c r="Z26" s="3"/>
     </row>
     <row r="27" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A27" s="3" t="s">
@@ -3348,33 +3321,33 @@
       <c r="I27" s="3">
         <v>0.4</v>
       </c>
-      <c r="J27" s="6">
+      <c r="J27" s="3">
         <v>0.95</v>
       </c>
-      <c r="K27" s="5" t="s">
+      <c r="K27" s="4" t="s">
         <v>189</v>
       </c>
-      <c r="L27" s="5"/>
-      <c r="N27" s="6" t="s">
+      <c r="L27" s="4"/>
+      <c r="N27" s="3" t="s">
         <v>194</v>
       </c>
-      <c r="O27" s="5">
+      <c r="O27" s="4">
         <v>25</v>
       </c>
-      <c r="Q27" s="6">
+      <c r="Q27" s="3">
         <v>13</v>
       </c>
-      <c r="R27" s="6">
+      <c r="R27" s="3">
         <v>400</v>
       </c>
-      <c r="S27" s="5"/>
-      <c r="T27" s="6"/>
+      <c r="S27" s="4"/>
+      <c r="T27" s="3"/>
       <c r="U27" s="3"/>
       <c r="V27" s="3"/>
       <c r="W27" s="3"/>
       <c r="X27" s="3"/>
-      <c r="Y27" s="6"/>
-      <c r="Z27" s="6"/>
+      <c r="Y27" s="3"/>
+      <c r="Z27" s="3"/>
     </row>
     <row r="28" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A28" s="3" t="s">
@@ -3395,33 +3368,33 @@
       <c r="I28" s="3">
         <v>0.37</v>
       </c>
-      <c r="J28" s="6">
+      <c r="J28" s="3">
         <v>0.76</v>
       </c>
-      <c r="K28" s="5" t="s">
+      <c r="K28" s="4" t="s">
         <v>190</v>
       </c>
-      <c r="L28" s="5"/>
-      <c r="N28" s="6" t="s">
-        <v>195</v>
-      </c>
-      <c r="O28" s="5">
+      <c r="L28" s="4"/>
+      <c r="N28" s="3" t="s">
+        <v>244</v>
+      </c>
+      <c r="O28" s="4">
         <v>40</v>
       </c>
-      <c r="Q28" s="6">
+      <c r="Q28" s="3">
         <v>50</v>
       </c>
-      <c r="R28" s="6">
+      <c r="R28" s="3">
         <v>1600</v>
       </c>
-      <c r="S28" s="5"/>
-      <c r="T28" s="6"/>
+      <c r="S28" s="4"/>
+      <c r="T28" s="3"/>
       <c r="U28" s="3"/>
       <c r="V28" s="3"/>
       <c r="W28" s="3"/>
       <c r="X28" s="3"/>
-      <c r="Y28" s="6"/>
-      <c r="Z28" s="6"/>
+      <c r="Y28" s="3"/>
+      <c r="Z28" s="3"/>
     </row>
     <row r="29" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A29" s="3" t="s">
@@ -3442,35 +3415,35 @@
       <c r="I29" s="3">
         <v>0.33</v>
       </c>
-      <c r="J29" s="6">
+      <c r="J29" s="3">
         <v>0.95</v>
       </c>
-      <c r="K29" s="5" t="s">
+      <c r="K29" s="4" t="s">
         <v>191</v>
       </c>
-      <c r="L29" s="5"/>
-      <c r="N29" s="6" t="s">
+      <c r="L29" s="4"/>
+      <c r="N29" s="3" t="s">
         <v>191</v>
       </c>
-      <c r="O29" s="5">
+      <c r="O29" s="4">
         <v>60</v>
       </c>
-      <c r="Q29" s="6">
+      <c r="Q29" s="3">
         <v>102</v>
       </c>
-      <c r="R29" s="6">
+      <c r="R29" s="3">
         <v>3323</v>
       </c>
-      <c r="S29" s="5"/>
-      <c r="T29" s="6"/>
+      <c r="S29" s="4"/>
+      <c r="T29" s="3"/>
       <c r="U29" s="3"/>
       <c r="V29" s="3"/>
       <c r="W29" s="3"/>
       <c r="X29" s="3"/>
-      <c r="Y29" s="6" t="s">
+      <c r="Y29" s="3" t="s">
         <v>61</v>
       </c>
-      <c r="Z29" s="6"/>
+      <c r="Z29" s="3"/>
     </row>
     <row r="30" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A30" s="3"/>
@@ -3481,25 +3454,25 @@
       <c r="F30" s="3"/>
       <c r="G30" s="3"/>
       <c r="I30" s="3"/>
-      <c r="J30" s="6"/>
-      <c r="K30" s="5"/>
-      <c r="L30" s="5"/>
-      <c r="N30" s="6"/>
-      <c r="O30" s="5"/>
-      <c r="Q30" s="6"/>
-      <c r="R30" s="6"/>
-      <c r="S30" s="5"/>
-      <c r="T30" s="6"/>
+      <c r="J30" s="3"/>
+      <c r="K30" s="4"/>
+      <c r="L30" s="4"/>
+      <c r="N30" s="3"/>
+      <c r="O30" s="4"/>
+      <c r="Q30" s="3"/>
+      <c r="R30" s="3"/>
+      <c r="S30" s="4"/>
+      <c r="T30" s="3"/>
       <c r="U30" s="3"/>
       <c r="V30" s="3"/>
       <c r="W30" s="3"/>
       <c r="X30" s="3"/>
-      <c r="Y30" s="6"/>
-      <c r="Z30" s="6"/>
+      <c r="Y30" s="3"/>
+      <c r="Z30" s="3"/>
     </row>
     <row r="31" spans="1:26" x14ac:dyDescent="0.3">
-      <c r="A31" s="9" t="s">
-        <v>200</v>
+      <c r="A31" t="s">
+        <v>199</v>
       </c>
       <c r="B31" s="3" t="s">
         <v>17</v>
@@ -3516,33 +3489,33 @@
       <c r="I31" s="3">
         <v>1</v>
       </c>
-      <c r="J31" s="6"/>
-      <c r="K31" s="5" t="s">
-        <v>205</v>
-      </c>
-      <c r="L31" s="6"/>
-      <c r="N31" s="6" t="s">
-        <v>205</v>
-      </c>
-      <c r="O31" s="5"/>
-      <c r="Q31" s="6">
+      <c r="J31" s="3"/>
+      <c r="K31" s="4" t="s">
+        <v>204</v>
+      </c>
+      <c r="L31" s="3"/>
+      <c r="N31" s="3" t="s">
+        <v>204</v>
+      </c>
+      <c r="O31" s="4"/>
+      <c r="Q31" s="3">
         <v>15</v>
       </c>
-      <c r="R31" s="6"/>
-      <c r="S31" s="5"/>
-      <c r="T31" s="6"/>
+      <c r="R31" s="3"/>
+      <c r="S31" s="4"/>
+      <c r="T31" s="3"/>
       <c r="U31" s="3"/>
       <c r="V31" s="3"/>
       <c r="W31" s="3"/>
       <c r="X31" s="3"/>
-      <c r="Y31" s="6"/>
-      <c r="Z31" s="6" t="s">
+      <c r="Y31" s="3"/>
+      <c r="Z31" s="3" t="s">
         <v>66</v>
       </c>
     </row>
     <row r="32" spans="1:26" x14ac:dyDescent="0.3">
-      <c r="A32" s="9" t="s">
-        <v>201</v>
+      <c r="A32" t="s">
+        <v>200</v>
       </c>
       <c r="B32" s="3" t="s">
         <v>17</v>
@@ -3559,36 +3532,36 @@
       <c r="I32" s="3">
         <v>1</v>
       </c>
-      <c r="J32" s="6"/>
-      <c r="K32" s="5">
-        <v>0</v>
-      </c>
-      <c r="L32" s="6"/>
-      <c r="N32" s="6" t="s">
-        <v>208</v>
-      </c>
-      <c r="O32" s="5">
+      <c r="J32" s="3"/>
+      <c r="K32" s="4">
+        <v>0</v>
+      </c>
+      <c r="L32" s="3"/>
+      <c r="N32" s="3" t="s">
+        <v>207</v>
+      </c>
+      <c r="O32" s="4">
         <v>25</v>
       </c>
-      <c r="Q32" s="6">
+      <c r="Q32" s="3">
         <v>15</v>
       </c>
-      <c r="R32" s="6" t="s">
-        <v>202</v>
-      </c>
-      <c r="S32" s="5"/>
-      <c r="T32" s="6"/>
+      <c r="R32" s="3" t="s">
+        <v>201</v>
+      </c>
+      <c r="S32" s="4"/>
+      <c r="T32" s="3"/>
       <c r="U32" s="3"/>
       <c r="V32" s="3"/>
       <c r="W32" s="3"/>
       <c r="X32" s="3"/>
-      <c r="Y32" s="6"/>
-      <c r="Z32" s="8" t="s">
+      <c r="Y32" s="3"/>
+      <c r="Z32" s="6" t="s">
         <v>67</v>
       </c>
     </row>
     <row r="33" spans="1:26" x14ac:dyDescent="0.3">
-      <c r="A33" s="9" t="s">
+      <c r="A33" t="s">
         <v>174</v>
       </c>
       <c r="B33" s="3" t="s">
@@ -3606,35 +3579,35 @@
       <c r="I33" s="3">
         <v>1</v>
       </c>
-      <c r="J33" s="6"/>
-      <c r="K33" s="5">
+      <c r="J33" s="3"/>
+      <c r="K33" s="4">
         <v>3.8</v>
       </c>
-      <c r="L33" s="6"/>
-      <c r="N33" s="6">
+      <c r="L33" s="3"/>
+      <c r="N33" s="3">
         <v>3.8</v>
       </c>
-      <c r="O33" s="5">
+      <c r="O33" s="4">
         <v>100</v>
       </c>
-      <c r="Q33" s="6">
+      <c r="Q33" s="3">
         <v>12</v>
       </c>
-      <c r="R33" s="6">
+      <c r="R33" s="3">
         <v>5000</v>
       </c>
-      <c r="S33" s="5"/>
-      <c r="T33" s="6"/>
+      <c r="S33" s="4"/>
+      <c r="T33" s="3"/>
       <c r="U33" s="3"/>
       <c r="V33" s="3"/>
       <c r="W33" s="3"/>
       <c r="X33" s="3"/>
-      <c r="Y33" s="6"/>
-      <c r="Z33" s="6"/>
+      <c r="Y33" s="3"/>
+      <c r="Z33" s="3"/>
     </row>
     <row r="34" spans="1:26" x14ac:dyDescent="0.3">
-      <c r="A34" s="9" t="s">
-        <v>196</v>
+      <c r="A34" t="s">
+        <v>195</v>
       </c>
       <c r="B34" s="3" t="s">
         <v>17</v>
@@ -3651,35 +3624,35 @@
       <c r="I34" s="3">
         <v>1</v>
       </c>
-      <c r="J34" s="6"/>
-      <c r="K34" s="5" t="s">
-        <v>206</v>
-      </c>
-      <c r="L34" s="6" t="s">
-        <v>206</v>
-      </c>
-      <c r="N34" s="6" t="s">
-        <v>206</v>
-      </c>
-      <c r="O34" s="5"/>
-      <c r="Q34" s="6">
+      <c r="J34" s="3"/>
+      <c r="K34" s="4" t="s">
+        <v>205</v>
+      </c>
+      <c r="L34" s="3" t="s">
+        <v>205</v>
+      </c>
+      <c r="N34" s="3" t="s">
+        <v>205</v>
+      </c>
+      <c r="O34" s="4"/>
+      <c r="Q34" s="3">
         <v>93</v>
       </c>
-      <c r="R34" s="6"/>
-      <c r="S34" s="5"/>
-      <c r="T34" s="6"/>
+      <c r="R34" s="3"/>
+      <c r="S34" s="4"/>
+      <c r="T34" s="3"/>
       <c r="U34" s="3"/>
       <c r="V34" s="3"/>
       <c r="W34" s="3"/>
       <c r="X34" s="3"/>
-      <c r="Y34" s="6"/>
-      <c r="Z34" s="6" t="s">
+      <c r="Y34" s="3"/>
+      <c r="Z34" s="3" t="s">
         <v>62</v>
       </c>
     </row>
     <row r="35" spans="1:26" x14ac:dyDescent="0.3">
-      <c r="A35" s="9" t="s">
-        <v>197</v>
+      <c r="A35" t="s">
+        <v>196</v>
       </c>
       <c r="B35" s="3" t="s">
         <v>17</v>
@@ -3696,37 +3669,37 @@
       <c r="I35" s="3">
         <v>1</v>
       </c>
-      <c r="J35" s="6"/>
-      <c r="K35" s="5">
-        <v>0</v>
-      </c>
-      <c r="L35" s="6"/>
-      <c r="N35" s="6" t="s">
-        <v>241</v>
-      </c>
-      <c r="O35" s="5">
+      <c r="J35" s="3"/>
+      <c r="K35" s="4">
+        <v>0</v>
+      </c>
+      <c r="L35" s="3"/>
+      <c r="N35" s="3" t="s">
+        <v>240</v>
+      </c>
+      <c r="O35" s="4">
         <v>25</v>
       </c>
-      <c r="Q35" s="6">
+      <c r="Q35" s="3">
         <v>93</v>
       </c>
-      <c r="R35" s="6" t="s">
-        <v>203</v>
-      </c>
-      <c r="S35" s="5"/>
-      <c r="T35" s="6"/>
+      <c r="R35" s="3" t="s">
+        <v>202</v>
+      </c>
+      <c r="S35" s="4"/>
+      <c r="T35" s="3"/>
       <c r="U35" s="3"/>
       <c r="V35" s="3"/>
       <c r="W35" s="3"/>
       <c r="X35" s="3"/>
-      <c r="Y35" s="6"/>
-      <c r="Z35" s="6" t="s">
+      <c r="Y35" s="3"/>
+      <c r="Z35" s="3" t="s">
         <v>63</v>
       </c>
     </row>
     <row r="36" spans="1:26" x14ac:dyDescent="0.3">
-      <c r="A36" s="9" t="s">
-        <v>198</v>
+      <c r="A36" t="s">
+        <v>197</v>
       </c>
       <c r="B36" s="3" t="s">
         <v>17</v>
@@ -3743,35 +3716,35 @@
       <c r="I36" s="3">
         <v>1</v>
       </c>
-      <c r="J36" s="6"/>
-      <c r="K36" s="5" t="s">
-        <v>207</v>
-      </c>
-      <c r="L36" s="6" t="s">
-        <v>207</v>
-      </c>
-      <c r="N36" s="6" t="s">
-        <v>207</v>
-      </c>
-      <c r="O36" s="5"/>
-      <c r="Q36" s="6">
+      <c r="J36" s="3"/>
+      <c r="K36" s="4" t="s">
+        <v>206</v>
+      </c>
+      <c r="L36" s="3" t="s">
+        <v>206</v>
+      </c>
+      <c r="N36" s="3" t="s">
+        <v>206</v>
+      </c>
+      <c r="O36" s="4"/>
+      <c r="Q36" s="3">
         <v>13</v>
       </c>
-      <c r="R36" s="6"/>
-      <c r="S36" s="5"/>
-      <c r="T36" s="6"/>
+      <c r="R36" s="3"/>
+      <c r="S36" s="4"/>
+      <c r="T36" s="3"/>
       <c r="U36" s="3"/>
       <c r="V36" s="3"/>
       <c r="W36" s="3"/>
       <c r="X36" s="3"/>
-      <c r="Y36" s="6"/>
-      <c r="Z36" s="6" t="s">
+      <c r="Y36" s="3"/>
+      <c r="Z36" s="3" t="s">
         <v>64</v>
       </c>
     </row>
     <row r="37" spans="1:26" x14ac:dyDescent="0.3">
-      <c r="A37" s="9" t="s">
-        <v>199</v>
+      <c r="A37" t="s">
+        <v>198</v>
       </c>
       <c r="B37" s="3" t="s">
         <v>17</v>
@@ -3788,37 +3761,37 @@
       <c r="I37" s="3">
         <v>1</v>
       </c>
-      <c r="J37" s="6"/>
-      <c r="K37" s="5">
-        <v>0</v>
-      </c>
-      <c r="L37" s="6"/>
-      <c r="N37" s="6" t="s">
-        <v>240</v>
-      </c>
-      <c r="O37" s="5">
+      <c r="J37" s="3"/>
+      <c r="K37" s="4">
+        <v>0</v>
+      </c>
+      <c r="L37" s="3"/>
+      <c r="N37" s="3" t="s">
+        <v>239</v>
+      </c>
+      <c r="O37" s="4">
         <v>25</v>
       </c>
-      <c r="Q37" s="6">
+      <c r="Q37" s="3">
         <v>13</v>
       </c>
-      <c r="R37" s="6" t="s">
-        <v>204</v>
-      </c>
-      <c r="S37" s="5"/>
-      <c r="T37" s="6"/>
+      <c r="R37" s="3" t="s">
+        <v>203</v>
+      </c>
+      <c r="S37" s="4"/>
+      <c r="T37" s="3"/>
       <c r="U37" s="3"/>
       <c r="V37" s="3"/>
       <c r="W37" s="3"/>
       <c r="X37" s="3"/>
-      <c r="Y37" s="6"/>
-      <c r="Z37" s="6" t="s">
+      <c r="Y37" s="3"/>
+      <c r="Z37" s="3" t="s">
         <v>65</v>
       </c>
     </row>
     <row r="40" spans="1:26" x14ac:dyDescent="0.3">
-      <c r="A40" s="9" t="s">
-        <v>211</v>
+      <c r="A40" t="s">
+        <v>210</v>
       </c>
       <c r="B40" s="3" t="s">
         <v>18</v>
@@ -3835,34 +3808,34 @@
       <c r="I40" s="3">
         <v>0.83</v>
       </c>
-      <c r="J40" s="6"/>
-      <c r="K40" s="5"/>
-      <c r="N40" s="6"/>
-      <c r="O40" s="5">
+      <c r="J40" s="3"/>
+      <c r="K40" s="4"/>
+      <c r="N40" s="3"/>
+      <c r="O40" s="4">
         <v>15</v>
       </c>
-      <c r="Q40" s="6">
+      <c r="Q40" s="3">
         <v>3.2</v>
       </c>
-      <c r="R40" s="6">
+      <c r="R40" s="3">
         <v>220</v>
       </c>
-      <c r="S40" s="5">
+      <c r="S40" s="4">
         <v>120</v>
       </c>
-      <c r="T40" s="5">
+      <c r="T40" s="4">
         <v>70</v>
       </c>
       <c r="U40" s="3"/>
       <c r="V40" s="3"/>
       <c r="W40" s="3"/>
       <c r="X40" s="3"/>
-      <c r="Y40" s="6"/>
-      <c r="Z40" s="6"/>
+      <c r="Y40" s="3"/>
+      <c r="Z40" s="3"/>
     </row>
     <row r="41" spans="1:26" x14ac:dyDescent="0.3">
-      <c r="A41" s="9" t="s">
-        <v>210</v>
+      <c r="A41" t="s">
+        <v>209</v>
       </c>
       <c r="B41" s="3" t="s">
         <v>19</v>
@@ -3879,34 +3852,34 @@
       <c r="I41" s="3">
         <v>1</v>
       </c>
-      <c r="J41" s="6"/>
-      <c r="K41" s="5"/>
-      <c r="N41" s="6"/>
-      <c r="O41" s="5">
+      <c r="J41" s="3"/>
+      <c r="K41" s="4"/>
+      <c r="N41" s="3"/>
+      <c r="O41" s="4">
         <v>13</v>
       </c>
-      <c r="Q41" s="6">
-        <v>0</v>
-      </c>
-      <c r="R41" s="6">
+      <c r="Q41" s="3">
+        <v>0</v>
+      </c>
+      <c r="R41" s="3">
         <v>60</v>
       </c>
-      <c r="S41" s="5"/>
-      <c r="T41" s="6">
+      <c r="S41" s="4"/>
+      <c r="T41" s="3">
         <v>40</v>
       </c>
       <c r="U41" s="3"/>
       <c r="V41" s="3"/>
       <c r="W41" s="3"/>
       <c r="X41" s="3"/>
-      <c r="Y41" s="6" t="s">
+      <c r="Y41" s="3" t="s">
         <v>61</v>
       </c>
-      <c r="Z41" s="6"/>
+      <c r="Z41" s="3"/>
     </row>
     <row r="42" spans="1:26" x14ac:dyDescent="0.3">
-      <c r="A42" s="9" t="s">
-        <v>209</v>
+      <c r="A42" t="s">
+        <v>208</v>
       </c>
       <c r="B42" s="3" t="s">
         <v>136</v>
@@ -3923,26 +3896,26 @@
       <c r="I42" s="3">
         <v>0.95</v>
       </c>
-      <c r="J42" s="6"/>
-      <c r="K42" s="5"/>
-      <c r="N42" s="6"/>
-      <c r="O42" s="5">
+      <c r="J42" s="3"/>
+      <c r="K42" s="4"/>
+      <c r="N42" s="3"/>
+      <c r="O42" s="4">
         <v>15</v>
       </c>
-      <c r="Q42" s="6">
+      <c r="Q42" s="3">
         <v>0.2</v>
       </c>
-      <c r="R42" s="6">
+      <c r="R42" s="3">
         <v>15</v>
       </c>
-      <c r="S42" s="5"/>
-      <c r="T42" s="6"/>
+      <c r="S42" s="4"/>
+      <c r="T42" s="3"/>
       <c r="U42" s="3"/>
       <c r="V42" s="3"/>
       <c r="W42" s="3"/>
       <c r="X42" s="3"/>
-      <c r="Y42" s="6"/>
-      <c r="Z42" s="6"/>
+      <c r="Y42" s="3"/>
+      <c r="Z42" s="3"/>
     </row>
     <row r="44" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A44" s="3" t="s">
@@ -3961,24 +3934,24 @@
       <c r="F44" s="3"/>
       <c r="G44" s="3"/>
       <c r="I44" s="3"/>
-      <c r="J44" s="6"/>
-      <c r="K44" s="5"/>
-      <c r="N44" s="6"/>
-      <c r="O44" s="5"/>
-      <c r="Q44" s="6"/>
-      <c r="R44" s="6"/>
-      <c r="S44" s="5"/>
-      <c r="T44" s="6"/>
+      <c r="J44" s="3"/>
+      <c r="K44" s="4"/>
+      <c r="N44" s="3"/>
+      <c r="O44" s="4"/>
+      <c r="Q44" s="3"/>
+      <c r="R44" s="3"/>
+      <c r="S44" s="4"/>
+      <c r="T44" s="3"/>
       <c r="U44" s="3"/>
       <c r="V44" s="3"/>
       <c r="W44" s="3"/>
       <c r="X44" s="3"/>
-      <c r="Y44" s="6"/>
-      <c r="Z44" s="6"/>
+      <c r="Y44" s="3"/>
+      <c r="Z44" s="3"/>
     </row>
     <row r="46" spans="1:26" x14ac:dyDescent="0.3">
-      <c r="A46" s="9" t="s">
-        <v>213</v>
+      <c r="A46" t="s">
+        <v>212</v>
       </c>
       <c r="B46" s="3" t="s">
         <v>45</v>
@@ -3995,30 +3968,30 @@
       <c r="I46" s="3">
         <v>0.9</v>
       </c>
-      <c r="J46" s="6"/>
-      <c r="K46" s="5"/>
-      <c r="N46" s="6"/>
-      <c r="O46" s="5">
+      <c r="J46" s="3"/>
+      <c r="K46" s="4"/>
+      <c r="N46" s="3"/>
+      <c r="O46" s="4">
         <v>15</v>
       </c>
-      <c r="Q46" s="6">
+      <c r="Q46" s="3">
         <v>3.2</v>
       </c>
-      <c r="R46" s="6">
+      <c r="R46" s="3">
         <v>220</v>
       </c>
-      <c r="S46" s="5"/>
-      <c r="T46" s="6"/>
+      <c r="S46" s="4"/>
+      <c r="T46" s="3"/>
       <c r="U46" s="3"/>
       <c r="V46" s="3"/>
       <c r="W46" s="3"/>
       <c r="X46" s="3"/>
-      <c r="Y46" s="6"/>
-      <c r="Z46" s="6"/>
+      <c r="Y46" s="3"/>
+      <c r="Z46" s="3"/>
     </row>
     <row r="47" spans="1:26" x14ac:dyDescent="0.3">
-      <c r="A47" s="9" t="s">
-        <v>212</v>
+      <c r="A47" t="s">
+        <v>211</v>
       </c>
       <c r="B47" s="3" t="s">
         <v>19</v>
@@ -4035,30 +4008,30 @@
       <c r="I47" s="3">
         <v>3</v>
       </c>
-      <c r="J47" s="6"/>
-      <c r="K47" s="5"/>
-      <c r="N47" s="6"/>
-      <c r="O47" s="5">
+      <c r="J47" s="3"/>
+      <c r="K47" s="4"/>
+      <c r="N47" s="3"/>
+      <c r="O47" s="4">
         <v>20</v>
       </c>
-      <c r="Q47" s="6">
+      <c r="Q47" s="3">
         <v>1.5</v>
       </c>
-      <c r="R47" s="6" t="s">
-        <v>215</v>
-      </c>
-      <c r="S47" s="5"/>
-      <c r="T47" s="6"/>
+      <c r="R47" s="3" t="s">
+        <v>214</v>
+      </c>
+      <c r="S47" s="4"/>
+      <c r="T47" s="3"/>
       <c r="U47" s="3"/>
       <c r="V47" s="3"/>
       <c r="W47" s="3"/>
       <c r="X47" s="3"/>
-      <c r="Y47" s="6"/>
-      <c r="Z47" s="6"/>
+      <c r="Y47" s="3"/>
+      <c r="Z47" s="3"/>
     </row>
     <row r="48" spans="1:26" x14ac:dyDescent="0.3">
-      <c r="A48" s="9" t="s">
-        <v>214</v>
+      <c r="A48" t="s">
+        <v>213</v>
       </c>
       <c r="B48" s="3" t="s">
         <v>46</v>
@@ -4075,28 +4048,28 @@
       <c r="I48" s="3">
         <v>0.7</v>
       </c>
-      <c r="J48" s="6"/>
-      <c r="K48" s="5"/>
-      <c r="N48" s="6"/>
-      <c r="O48" s="5">
+      <c r="J48" s="3"/>
+      <c r="K48" s="4"/>
+      <c r="N48" s="3"/>
+      <c r="O48" s="4">
         <v>15</v>
       </c>
-      <c r="Q48" s="6">
+      <c r="Q48" s="3">
         <v>3.2</v>
       </c>
-      <c r="R48" s="6">
+      <c r="R48" s="3">
         <v>220</v>
       </c>
-      <c r="S48" s="5"/>
-      <c r="T48" s="6"/>
+      <c r="S48" s="4"/>
+      <c r="T48" s="3"/>
       <c r="U48" s="3"/>
       <c r="V48" s="3"/>
       <c r="W48" s="3"/>
       <c r="X48" s="3"/>
-      <c r="Y48" s="6" t="s">
+      <c r="Y48" s="3" t="s">
         <v>61</v>
       </c>
-      <c r="Z48" s="6"/>
+      <c r="Z48" s="3"/>
     </row>
     <row r="49" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A49" s="3"/>
@@ -4107,20 +4080,20 @@
       <c r="F49" s="3"/>
       <c r="G49" s="3"/>
       <c r="I49" s="3"/>
-      <c r="J49" s="6"/>
-      <c r="K49" s="5"/>
-      <c r="N49" s="6"/>
-      <c r="O49" s="5"/>
-      <c r="Q49" s="6"/>
-      <c r="R49" s="6"/>
-      <c r="S49" s="5"/>
-      <c r="T49" s="6"/>
+      <c r="J49" s="3"/>
+      <c r="K49" s="4"/>
+      <c r="N49" s="3"/>
+      <c r="O49" s="4"/>
+      <c r="Q49" s="3"/>
+      <c r="R49" s="3"/>
+      <c r="S49" s="4"/>
+      <c r="T49" s="3"/>
       <c r="U49" s="3"/>
       <c r="V49" s="3"/>
       <c r="W49" s="3"/>
       <c r="X49" s="3"/>
-      <c r="Y49" s="6"/>
-      <c r="Z49" s="6"/>
+      <c r="Y49" s="3"/>
+      <c r="Z49" s="3"/>
     </row>
     <row r="50" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A50" s="3" t="s">
@@ -4141,37 +4114,37 @@
       <c r="I50" s="3">
         <v>0.9</v>
       </c>
-      <c r="J50" s="6"/>
-      <c r="K50" s="5" t="s">
+      <c r="J50" s="3"/>
+      <c r="K50" s="4" t="s">
+        <v>216</v>
+      </c>
+      <c r="L50" s="3" t="s">
+        <v>216</v>
+      </c>
+      <c r="N50" s="4" t="s">
         <v>217</v>
       </c>
-      <c r="L50" s="6" t="s">
-        <v>217</v>
-      </c>
-      <c r="N50" s="5" t="s">
+      <c r="O50" s="4">
+        <v>25</v>
+      </c>
+      <c r="Q50" s="3">
+        <v>1.93</v>
+      </c>
+      <c r="R50" s="3" t="s">
+        <v>215</v>
+      </c>
+      <c r="S50" s="4"/>
+      <c r="T50" s="3"/>
+      <c r="U50" s="3" t="s">
+        <v>236</v>
+      </c>
+      <c r="V50" s="3" t="s">
         <v>218</v>
-      </c>
-      <c r="O50" s="5">
-        <v>25</v>
-      </c>
-      <c r="Q50" s="6">
-        <v>1.93</v>
-      </c>
-      <c r="R50" s="6" t="s">
-        <v>216</v>
-      </c>
-      <c r="S50" s="5"/>
-      <c r="T50" s="6"/>
-      <c r="U50" s="3" t="s">
-        <v>237</v>
-      </c>
-      <c r="V50" s="3" t="s">
-        <v>219</v>
       </c>
       <c r="W50" s="3"/>
       <c r="X50" s="3"/>
-      <c r="Y50" s="6"/>
-      <c r="Z50" s="6"/>
+      <c r="Y50" s="3"/>
+      <c r="Z50" s="3"/>
     </row>
     <row r="51" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A51" s="3"/>
@@ -4182,25 +4155,25 @@
       <c r="F51" s="3"/>
       <c r="G51" s="3"/>
       <c r="I51" s="3"/>
-      <c r="J51" s="6"/>
-      <c r="K51" s="5"/>
-      <c r="L51" s="5"/>
-      <c r="N51" s="5"/>
-      <c r="O51" s="5"/>
-      <c r="Q51" s="6"/>
-      <c r="R51" s="6"/>
-      <c r="S51" s="5"/>
-      <c r="T51" s="6"/>
+      <c r="J51" s="3"/>
+      <c r="K51" s="4"/>
+      <c r="L51" s="4"/>
+      <c r="N51" s="4"/>
+      <c r="O51" s="4"/>
+      <c r="Q51" s="3"/>
+      <c r="R51" s="3"/>
+      <c r="S51" s="4"/>
+      <c r="T51" s="3"/>
       <c r="U51" s="3"/>
       <c r="V51" s="3"/>
       <c r="W51" s="3"/>
       <c r="X51" s="3"/>
-      <c r="Y51" s="6"/>
-      <c r="Z51" s="6"/>
+      <c r="Y51" s="3"/>
+      <c r="Z51" s="3"/>
     </row>
     <row r="52" spans="1:26" x14ac:dyDescent="0.3">
-      <c r="A52" s="9" t="s">
-        <v>222</v>
+      <c r="A52" t="s">
+        <v>221</v>
       </c>
       <c r="B52" s="3" t="s">
         <v>45</v>
@@ -4217,41 +4190,41 @@
       <c r="I52" s="3">
         <v>0.62</v>
       </c>
-      <c r="J52" s="6"/>
-      <c r="K52" s="5" t="s">
-        <v>217</v>
-      </c>
-      <c r="L52" s="6" t="s">
-        <v>217</v>
-      </c>
-      <c r="N52" s="5" t="s">
+      <c r="J52" s="3"/>
+      <c r="K52" s="4" t="s">
+        <v>216</v>
+      </c>
+      <c r="L52" s="3" t="s">
+        <v>216</v>
+      </c>
+      <c r="N52" s="4" t="s">
         <v>93</v>
       </c>
-      <c r="O52" s="5">
+      <c r="O52" s="4">
         <v>20</v>
       </c>
-      <c r="Q52" s="6">
+      <c r="Q52" s="3">
         <v>20</v>
       </c>
-      <c r="R52" s="6" t="s">
-        <v>229</v>
-      </c>
-      <c r="S52" s="5"/>
-      <c r="T52" s="6"/>
+      <c r="R52" s="3" t="s">
+        <v>228</v>
+      </c>
+      <c r="S52" s="4"/>
+      <c r="T52" s="3"/>
       <c r="U52" s="3" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="V52" s="3"/>
       <c r="W52" s="3"/>
       <c r="X52" s="3"/>
-      <c r="Y52" s="6" t="s">
+      <c r="Y52" s="3" t="s">
         <v>59</v>
       </c>
-      <c r="Z52" s="6"/>
+      <c r="Z52" s="3"/>
     </row>
     <row r="53" spans="1:26" x14ac:dyDescent="0.3">
-      <c r="A53" s="9" t="s">
-        <v>223</v>
+      <c r="A53" t="s">
+        <v>222</v>
       </c>
       <c r="B53" s="3" t="s">
         <v>136</v>
@@ -4268,43 +4241,43 @@
       <c r="I53" s="3">
         <v>0.97</v>
       </c>
-      <c r="J53" s="6"/>
-      <c r="K53" s="5" t="s">
-        <v>234</v>
-      </c>
-      <c r="L53" s="6" t="s">
-        <v>234</v>
-      </c>
-      <c r="N53" s="5" t="s">
+      <c r="J53" s="3"/>
+      <c r="K53" s="4" t="s">
+        <v>233</v>
+      </c>
+      <c r="L53" s="3" t="s">
+        <v>233</v>
+      </c>
+      <c r="N53" s="4" t="s">
         <v>94</v>
       </c>
-      <c r="O53" s="5">
+      <c r="O53" s="4">
         <v>20</v>
       </c>
-      <c r="Q53" s="6">
+      <c r="Q53" s="3">
         <v>10</v>
       </c>
-      <c r="R53" s="6" t="s">
-        <v>230</v>
-      </c>
-      <c r="S53" s="5"/>
-      <c r="T53" s="6"/>
+      <c r="R53" s="3" t="s">
+        <v>229</v>
+      </c>
+      <c r="S53" s="4"/>
+      <c r="T53" s="3"/>
       <c r="U53" s="3" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="V53" s="3">
         <v>0.55000000000000004</v>
       </c>
       <c r="W53" s="3"/>
       <c r="X53" s="3"/>
-      <c r="Y53" s="6" t="s">
+      <c r="Y53" s="3" t="s">
         <v>59</v>
       </c>
-      <c r="Z53" s="6"/>
+      <c r="Z53" s="3"/>
     </row>
     <row r="54" spans="1:26" x14ac:dyDescent="0.3">
-      <c r="A54" s="9" t="s">
-        <v>220</v>
+      <c r="A54" t="s">
+        <v>219</v>
       </c>
       <c r="B54" s="3" t="s">
         <v>19</v>
@@ -4321,37 +4294,37 @@
       <c r="I54" s="3">
         <v>3.7</v>
       </c>
-      <c r="J54" s="6"/>
-      <c r="K54" s="5"/>
-      <c r="L54" s="6"/>
-      <c r="N54" s="5" t="s">
+      <c r="J54" s="3"/>
+      <c r="K54" s="4"/>
+      <c r="L54" s="3"/>
+      <c r="N54" s="4" t="s">
         <v>54</v>
       </c>
-      <c r="O54" s="5">
+      <c r="O54" s="4">
         <v>17</v>
       </c>
-      <c r="Q54" s="6">
+      <c r="Q54" s="3">
         <v>18</v>
       </c>
-      <c r="R54" s="6" t="s">
-        <v>231</v>
-      </c>
-      <c r="S54" s="5"/>
-      <c r="T54" s="6"/>
+      <c r="R54" s="3" t="s">
+        <v>230</v>
+      </c>
+      <c r="S54" s="4"/>
+      <c r="T54" s="3"/>
       <c r="U54" s="3" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="V54" s="3"/>
       <c r="W54" s="3"/>
       <c r="X54" s="3"/>
-      <c r="Y54" s="6" t="s">
+      <c r="Y54" s="3" t="s">
         <v>59</v>
       </c>
-      <c r="Z54" s="6"/>
+      <c r="Z54" s="3"/>
     </row>
     <row r="55" spans="1:26" x14ac:dyDescent="0.3">
-      <c r="A55" s="9" t="s">
-        <v>224</v>
+      <c r="A55" t="s">
+        <v>223</v>
       </c>
       <c r="B55" s="3" t="s">
         <v>80</v>
@@ -4368,41 +4341,41 @@
       <c r="I55" s="3">
         <v>0.92</v>
       </c>
-      <c r="J55" s="6"/>
-      <c r="K55" s="5" t="s">
-        <v>235</v>
-      </c>
-      <c r="L55" s="6" t="s">
-        <v>235</v>
-      </c>
-      <c r="N55" s="5" t="s">
+      <c r="J55" s="3"/>
+      <c r="K55" s="4" t="s">
+        <v>234</v>
+      </c>
+      <c r="L55" s="3" t="s">
+        <v>234</v>
+      </c>
+      <c r="N55" s="4" t="s">
         <v>95</v>
       </c>
-      <c r="O55" s="5">
+      <c r="O55" s="4">
         <v>20</v>
       </c>
-      <c r="Q55" s="6">
+      <c r="Q55" s="3">
         <v>15</v>
       </c>
-      <c r="R55" s="6" t="s">
-        <v>232</v>
-      </c>
-      <c r="S55" s="5"/>
-      <c r="T55" s="6"/>
+      <c r="R55" s="3" t="s">
+        <v>231</v>
+      </c>
+      <c r="S55" s="4"/>
+      <c r="T55" s="3"/>
       <c r="U55" s="3" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="V55" s="3"/>
       <c r="W55" s="3"/>
       <c r="X55" s="3"/>
-      <c r="Y55" s="6" t="s">
+      <c r="Y55" s="3" t="s">
         <v>59</v>
       </c>
-      <c r="Z55" s="6"/>
+      <c r="Z55" s="3"/>
     </row>
     <row r="56" spans="1:26" x14ac:dyDescent="0.3">
-      <c r="A56" s="9" t="s">
-        <v>221</v>
+      <c r="A56" t="s">
+        <v>220</v>
       </c>
       <c r="B56" s="3" t="s">
         <v>19</v>
@@ -4419,33 +4392,33 @@
       <c r="I56" s="3">
         <v>1</v>
       </c>
-      <c r="J56" s="6"/>
-      <c r="K56" s="6" t="s">
+      <c r="J56" s="3"/>
+      <c r="K56" s="3" t="s">
         <v>56</v>
       </c>
-      <c r="L56" s="6"/>
-      <c r="N56" s="6"/>
-      <c r="O56" s="5">
+      <c r="L56" s="3"/>
+      <c r="N56" s="3"/>
+      <c r="O56" s="4">
         <v>20</v>
       </c>
-      <c r="Q56" s="6">
+      <c r="Q56" s="3">
         <v>15</v>
       </c>
-      <c r="R56" s="6" t="s">
-        <v>233</v>
-      </c>
-      <c r="S56" s="5"/>
-      <c r="T56" s="6"/>
+      <c r="R56" s="3" t="s">
+        <v>232</v>
+      </c>
+      <c r="S56" s="4"/>
+      <c r="T56" s="3"/>
       <c r="U56" s="3" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="V56" s="3"/>
       <c r="W56" s="3"/>
       <c r="X56" s="3"/>
-      <c r="Y56" s="6" t="s">
+      <c r="Y56" s="3" t="s">
         <v>59</v>
       </c>
-      <c r="Z56" s="6"/>
+      <c r="Z56" s="3"/>
     </row>
     <row r="57" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A57" s="3"/>
@@ -4456,20 +4429,20 @@
       <c r="F57" s="3"/>
       <c r="G57" s="3"/>
       <c r="I57" s="3"/>
-      <c r="J57" s="6"/>
-      <c r="K57" s="5"/>
-      <c r="N57" s="6"/>
-      <c r="O57" s="5"/>
-      <c r="Q57" s="6"/>
-      <c r="R57" s="6"/>
-      <c r="S57" s="5"/>
-      <c r="T57" s="6"/>
+      <c r="J57" s="3"/>
+      <c r="K57" s="4"/>
+      <c r="N57" s="3"/>
+      <c r="O57" s="4"/>
+      <c r="Q57" s="3"/>
+      <c r="R57" s="3"/>
+      <c r="S57" s="4"/>
+      <c r="T57" s="3"/>
       <c r="U57" s="3"/>
       <c r="V57" s="3"/>
       <c r="W57" s="3"/>
       <c r="X57" s="3"/>
-      <c r="Y57" s="6"/>
-      <c r="Z57" s="6"/>
+      <c r="Y57" s="3"/>
+      <c r="Z57" s="3"/>
     </row>
     <row r="58" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A58" s="3"/>
@@ -4480,20 +4453,20 @@
       <c r="F58" s="3"/>
       <c r="G58" s="3"/>
       <c r="I58" s="3"/>
-      <c r="J58" s="6"/>
-      <c r="K58" s="5"/>
-      <c r="N58" s="6"/>
-      <c r="O58" s="5"/>
-      <c r="Q58" s="6"/>
-      <c r="R58" s="6"/>
-      <c r="S58" s="5"/>
-      <c r="T58" s="6"/>
+      <c r="J58" s="3"/>
+      <c r="K58" s="4"/>
+      <c r="N58" s="3"/>
+      <c r="O58" s="4"/>
+      <c r="Q58" s="3"/>
+      <c r="R58" s="3"/>
+      <c r="S58" s="4"/>
+      <c r="T58" s="3"/>
       <c r="U58" s="3"/>
       <c r="V58" s="3"/>
       <c r="W58" s="3"/>
       <c r="X58" s="3"/>
-      <c r="Y58" s="6"/>
-      <c r="Z58" s="6"/>
+      <c r="Y58" s="3"/>
+      <c r="Z58" s="3"/>
     </row>
     <row r="59" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A59" s="3" t="s">
@@ -4514,20 +4487,20 @@
       <c r="I59" s="3">
         <v>1</v>
       </c>
-      <c r="J59" s="6"/>
-      <c r="K59" s="5"/>
-      <c r="N59" s="6"/>
-      <c r="O59" s="5"/>
-      <c r="Q59" s="6"/>
-      <c r="R59" s="6"/>
-      <c r="S59" s="5"/>
-      <c r="T59" s="6"/>
+      <c r="J59" s="3"/>
+      <c r="K59" s="4"/>
+      <c r="N59" s="3"/>
+      <c r="O59" s="4"/>
+      <c r="Q59" s="3"/>
+      <c r="R59" s="3"/>
+      <c r="S59" s="4"/>
+      <c r="T59" s="3"/>
       <c r="U59" s="3"/>
       <c r="V59" s="3"/>
       <c r="W59" s="3"/>
       <c r="X59" s="3"/>
-      <c r="Y59" s="6"/>
-      <c r="Z59" s="6"/>
+      <c r="Y59" s="3"/>
+      <c r="Z59" s="3"/>
     </row>
     <row r="60" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A60" s="3" t="s">
@@ -4548,22 +4521,22 @@
       <c r="I60" s="3">
         <v>1</v>
       </c>
-      <c r="J60" s="6"/>
-      <c r="K60" s="5"/>
-      <c r="N60" s="6"/>
-      <c r="O60" s="5"/>
-      <c r="Q60" s="6"/>
-      <c r="R60" s="6"/>
-      <c r="S60" s="5"/>
-      <c r="T60" s="6"/>
+      <c r="J60" s="3"/>
+      <c r="K60" s="4"/>
+      <c r="N60" s="3"/>
+      <c r="O60" s="4"/>
+      <c r="Q60" s="3"/>
+      <c r="R60" s="3"/>
+      <c r="S60" s="4"/>
+      <c r="T60" s="3"/>
       <c r="U60" s="3"/>
       <c r="V60" s="3"/>
       <c r="W60" s="3">
         <v>0.2</v>
       </c>
       <c r="X60" s="3"/>
-      <c r="Y60" s="6"/>
-      <c r="Z60" s="6"/>
+      <c r="Y60" s="3"/>
+      <c r="Z60" s="3"/>
     </row>
     <row r="61" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A61" s="3" t="s">
@@ -4584,26 +4557,26 @@
       <c r="I61" s="3">
         <v>1</v>
       </c>
-      <c r="J61" s="6">
+      <c r="J61" s="3">
         <v>0.86</v>
       </c>
-      <c r="K61" s="5">
+      <c r="K61" s="4">
         <v>3.5</v>
       </c>
-      <c r="N61" s="6">
+      <c r="N61" s="3">
         <v>3.5</v>
       </c>
-      <c r="O61" s="5">
+      <c r="O61" s="4">
         <v>45</v>
       </c>
-      <c r="Q61" s="6">
+      <c r="Q61" s="3">
         <v>104</v>
       </c>
-      <c r="R61" s="6">
+      <c r="R61" s="3">
         <v>3500</v>
       </c>
-      <c r="S61" s="5"/>
-      <c r="T61" s="6"/>
+      <c r="S61" s="4"/>
+      <c r="T61" s="3"/>
       <c r="U61" s="3"/>
       <c r="V61" s="3"/>
       <c r="W61" s="3">
@@ -4612,8 +4585,8 @@
       <c r="X61" s="3">
         <v>0.3</v>
       </c>
-      <c r="Y61" s="6"/>
-      <c r="Z61" s="6"/>
+      <c r="Y61" s="3"/>
+      <c r="Z61" s="3"/>
     </row>
     <row r="62" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A62" s="3" t="s">
@@ -4634,20 +4607,20 @@
       <c r="I62" s="3">
         <v>1</v>
       </c>
-      <c r="J62" s="6"/>
-      <c r="K62" s="5"/>
-      <c r="N62" s="6"/>
-      <c r="O62" s="5"/>
-      <c r="Q62" s="6"/>
-      <c r="R62" s="6"/>
-      <c r="S62" s="5"/>
-      <c r="T62" s="6"/>
+      <c r="J62" s="3"/>
+      <c r="K62" s="4"/>
+      <c r="N62" s="3"/>
+      <c r="O62" s="4"/>
+      <c r="Q62" s="3"/>
+      <c r="R62" s="3"/>
+      <c r="S62" s="4"/>
+      <c r="T62" s="3"/>
       <c r="U62" s="3"/>
       <c r="V62" s="3"/>
       <c r="W62" s="3"/>
       <c r="X62" s="3"/>
-      <c r="Y62" s="6"/>
-      <c r="Z62" s="6"/>
+      <c r="Y62" s="3"/>
+      <c r="Z62" s="3"/>
     </row>
     <row r="63" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A63" s="3"/>
@@ -4658,20 +4631,20 @@
       <c r="F63" s="3"/>
       <c r="G63" s="3"/>
       <c r="I63" s="3"/>
-      <c r="J63" s="6"/>
-      <c r="K63" s="5"/>
-      <c r="N63" s="6"/>
-      <c r="O63" s="5"/>
-      <c r="Q63" s="6"/>
-      <c r="R63" s="6"/>
-      <c r="S63" s="5"/>
-      <c r="T63" s="6"/>
+      <c r="J63" s="3"/>
+      <c r="K63" s="4"/>
+      <c r="N63" s="3"/>
+      <c r="O63" s="4"/>
+      <c r="Q63" s="3"/>
+      <c r="R63" s="3"/>
+      <c r="S63" s="4"/>
+      <c r="T63" s="3"/>
       <c r="U63" s="3"/>
       <c r="V63" s="3"/>
       <c r="W63" s="3"/>
       <c r="X63" s="3"/>
-      <c r="Y63" s="6"/>
-      <c r="Z63" s="6"/>
+      <c r="Y63" s="3"/>
+      <c r="Z63" s="3"/>
     </row>
     <row r="64" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A64" s="3" t="s">
@@ -4692,20 +4665,20 @@
       <c r="I64" s="3">
         <v>1</v>
       </c>
-      <c r="J64" s="6"/>
-      <c r="K64" s="5"/>
-      <c r="N64" s="6"/>
-      <c r="O64" s="5"/>
-      <c r="Q64" s="6"/>
-      <c r="R64" s="6"/>
-      <c r="S64" s="5"/>
-      <c r="T64" s="6"/>
+      <c r="J64" s="3"/>
+      <c r="K64" s="4"/>
+      <c r="N64" s="3"/>
+      <c r="O64" s="4"/>
+      <c r="Q64" s="3"/>
+      <c r="R64" s="3"/>
+      <c r="S64" s="4"/>
+      <c r="T64" s="3"/>
       <c r="U64" s="3"/>
       <c r="V64" s="3"/>
       <c r="W64" s="3"/>
       <c r="X64" s="3"/>
-      <c r="Y64" s="6"/>
-      <c r="Z64" s="6"/>
+      <c r="Y64" s="3"/>
+      <c r="Z64" s="3"/>
     </row>
     <row r="65" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A65" s="3" t="s">
@@ -4724,22 +4697,22 @@
       <c r="F65" s="3"/>
       <c r="G65" s="3"/>
       <c r="I65" s="3"/>
-      <c r="J65" s="6"/>
-      <c r="K65" s="5"/>
-      <c r="N65" s="6"/>
-      <c r="O65" s="5"/>
-      <c r="Q65" s="6"/>
-      <c r="R65" s="6"/>
-      <c r="S65" s="5"/>
-      <c r="T65" s="6"/>
+      <c r="J65" s="3"/>
+      <c r="K65" s="4"/>
+      <c r="N65" s="3"/>
+      <c r="O65" s="4"/>
+      <c r="Q65" s="3"/>
+      <c r="R65" s="3"/>
+      <c r="S65" s="4"/>
+      <c r="T65" s="3"/>
       <c r="U65" s="3"/>
       <c r="V65" s="3"/>
       <c r="W65" s="3">
         <v>0.1</v>
       </c>
       <c r="X65" s="3"/>
-      <c r="Y65" s="6"/>
-      <c r="Z65" s="6"/>
+      <c r="Y65" s="3"/>
+      <c r="Z65" s="3"/>
     </row>
     <row r="66" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A66" s="3" t="s">
@@ -4758,28 +4731,27 @@
       <c r="F66" s="3"/>
       <c r="G66" s="3"/>
       <c r="I66" s="3"/>
-      <c r="J66" s="6">
+      <c r="J66" s="3">
         <v>0.75</v>
       </c>
-      <c r="K66" s="5" t="s">
+      <c r="K66" s="4" t="s">
         <v>179</v>
       </c>
-      <c r="L66" s="5" t="s">
+      <c r="L66" s="4" t="s">
         <v>180</v>
       </c>
-      <c r="N66" s="6"/>
-      <c r="O66" s="5">
+      <c r="N66" s="3"/>
+      <c r="O66" s="4">
         <v>45</v>
       </c>
-      <c r="P66" s="9"/>
-      <c r="Q66" s="6">
+      <c r="Q66" s="3">
         <v>54</v>
       </c>
-      <c r="R66" s="6">
+      <c r="R66" s="3">
         <v>2880</v>
       </c>
-      <c r="S66" s="5"/>
-      <c r="T66" s="6"/>
+      <c r="S66" s="4"/>
+      <c r="T66" s="3"/>
       <c r="U66" s="3"/>
       <c r="V66" s="3"/>
       <c r="W66" s="3">
@@ -4788,8 +4760,8 @@
       <c r="X66" s="3">
         <v>0.3</v>
       </c>
-      <c r="Y66" s="6"/>
-      <c r="Z66" s="6"/>
+      <c r="Y66" s="3"/>
+      <c r="Z66" s="3"/>
     </row>
     <row r="67" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A67" s="3" t="s">
@@ -4808,24 +4780,24 @@
       <c r="F67" s="3"/>
       <c r="G67" s="3"/>
       <c r="I67" s="3"/>
-      <c r="J67" s="6"/>
-      <c r="K67" s="5"/>
-      <c r="N67" s="6"/>
-      <c r="O67" s="5"/>
-      <c r="Q67" s="6"/>
-      <c r="R67" s="6"/>
-      <c r="S67" s="5"/>
-      <c r="T67" s="6"/>
+      <c r="J67" s="3"/>
+      <c r="K67" s="4"/>
+      <c r="N67" s="3"/>
+      <c r="O67" s="4"/>
+      <c r="Q67" s="3"/>
+      <c r="R67" s="3"/>
+      <c r="S67" s="4"/>
+      <c r="T67" s="3"/>
       <c r="U67" s="3"/>
       <c r="V67" s="3"/>
       <c r="W67" s="3"/>
       <c r="X67" s="3"/>
-      <c r="Y67" s="6" t="s">
+      <c r="Y67" s="3" t="s">
         <v>59</v>
       </c>
-      <c r="Z67" s="6"/>
-    </row>
-    <row r="68" spans="1:26" s="9" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="Z67" s="3"/>
+    </row>
+    <row r="68" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A68" s="3"/>
       <c r="B68" s="3"/>
       <c r="C68" s="3"/>
@@ -4834,20 +4806,20 @@
       <c r="F68" s="3"/>
       <c r="G68" s="3"/>
       <c r="I68" s="3"/>
-      <c r="J68" s="6"/>
-      <c r="K68" s="5"/>
-      <c r="N68" s="6"/>
-      <c r="O68" s="5"/>
-      <c r="Q68" s="6"/>
-      <c r="R68" s="6"/>
-      <c r="S68" s="5"/>
-      <c r="T68" s="6"/>
+      <c r="J68" s="3"/>
+      <c r="K68" s="4"/>
+      <c r="N68" s="3"/>
+      <c r="O68" s="4"/>
+      <c r="Q68" s="3"/>
+      <c r="R68" s="3"/>
+      <c r="S68" s="4"/>
+      <c r="T68" s="3"/>
       <c r="U68" s="3"/>
       <c r="V68" s="3"/>
       <c r="W68" s="3"/>
       <c r="X68" s="3"/>
-      <c r="Y68" s="6"/>
-      <c r="Z68" s="6"/>
+      <c r="Y68" s="3"/>
+      <c r="Z68" s="3"/>
     </row>
     <row r="69" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A69" s="3" t="s">
@@ -4868,22 +4840,22 @@
       <c r="I69" s="3">
         <v>1</v>
       </c>
-      <c r="J69" s="6">
+      <c r="J69" s="3">
         <v>0.95</v>
       </c>
-      <c r="K69" s="5"/>
-      <c r="N69" s="6"/>
-      <c r="O69" s="5"/>
-      <c r="Q69" s="6"/>
-      <c r="R69" s="6"/>
-      <c r="S69" s="5"/>
-      <c r="T69" s="6"/>
+      <c r="K69" s="4"/>
+      <c r="N69" s="3"/>
+      <c r="O69" s="4"/>
+      <c r="Q69" s="3"/>
+      <c r="R69" s="3"/>
+      <c r="S69" s="4"/>
+      <c r="T69" s="3"/>
       <c r="U69" s="3"/>
       <c r="V69" s="3"/>
       <c r="W69" s="3"/>
       <c r="X69" s="3"/>
-      <c r="Y69" s="6"/>
-      <c r="Z69" s="6"/>
+      <c r="Y69" s="3"/>
+      <c r="Z69" s="3"/>
     </row>
     <row r="70" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A70" s="3" t="s">
@@ -4902,22 +4874,22 @@
       <c r="F70" s="3"/>
       <c r="G70" s="3"/>
       <c r="I70" s="3"/>
-      <c r="J70" s="6"/>
-      <c r="K70" s="5"/>
-      <c r="N70" s="6"/>
-      <c r="O70" s="5"/>
-      <c r="Q70" s="6"/>
-      <c r="R70" s="6"/>
-      <c r="S70" s="5"/>
-      <c r="T70" s="6"/>
+      <c r="J70" s="3"/>
+      <c r="K70" s="4"/>
+      <c r="N70" s="3"/>
+      <c r="O70" s="4"/>
+      <c r="Q70" s="3"/>
+      <c r="R70" s="3"/>
+      <c r="S70" s="4"/>
+      <c r="T70" s="3"/>
       <c r="U70" s="3"/>
       <c r="V70" s="3"/>
       <c r="W70" s="3">
         <v>0.2</v>
       </c>
       <c r="X70" s="3"/>
-      <c r="Y70" s="6"/>
-      <c r="Z70" s="6"/>
+      <c r="Y70" s="3"/>
+      <c r="Z70" s="3"/>
     </row>
     <row r="71" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A71" s="3" t="s">
@@ -4936,25 +4908,25 @@
       <c r="F71" s="3"/>
       <c r="G71" s="3"/>
       <c r="I71" s="3"/>
-      <c r="J71" s="6"/>
-      <c r="K71" s="5" t="s">
+      <c r="J71" s="3"/>
+      <c r="K71" s="4" t="s">
         <v>178</v>
       </c>
-      <c r="L71" s="5"/>
-      <c r="N71" s="6" t="s">
-        <v>244</v>
-      </c>
-      <c r="O71" s="5">
+      <c r="L71" s="4"/>
+      <c r="N71" s="3" t="s">
+        <v>243</v>
+      </c>
+      <c r="O71" s="4">
         <v>30</v>
       </c>
-      <c r="Q71" s="6">
+      <c r="Q71" s="3">
         <v>41</v>
       </c>
-      <c r="R71" s="6">
+      <c r="R71" s="3">
         <v>1020</v>
       </c>
-      <c r="S71" s="5"/>
-      <c r="T71" s="6"/>
+      <c r="S71" s="4"/>
+      <c r="T71" s="3"/>
       <c r="U71" s="3"/>
       <c r="V71" s="3"/>
       <c r="W71" s="3">
@@ -4963,8 +4935,8 @@
       <c r="X71" s="3">
         <v>0.42</v>
       </c>
-      <c r="Y71" s="6"/>
-      <c r="Z71" s="6"/>
+      <c r="Y71" s="3"/>
+      <c r="Z71" s="3"/>
     </row>
     <row r="72" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A72" s="3" t="s">
@@ -4983,26 +4955,26 @@
       <c r="F72" s="3"/>
       <c r="G72" s="3"/>
       <c r="I72" s="3"/>
-      <c r="J72" s="6"/>
-      <c r="K72" s="5"/>
-      <c r="N72" s="6"/>
-      <c r="O72" s="5"/>
-      <c r="Q72" s="6"/>
-      <c r="R72" s="6"/>
-      <c r="S72" s="5"/>
-      <c r="T72" s="6"/>
+      <c r="J72" s="3"/>
+      <c r="K72" s="4"/>
+      <c r="N72" s="3"/>
+      <c r="O72" s="4"/>
+      <c r="Q72" s="3"/>
+      <c r="R72" s="3"/>
+      <c r="S72" s="4"/>
+      <c r="T72" s="3"/>
       <c r="U72" s="3"/>
       <c r="V72" s="3"/>
       <c r="W72" s="3"/>
       <c r="X72" s="3"/>
-      <c r="Y72" s="6"/>
-      <c r="Z72" s="6"/>
+      <c r="Y72" s="3"/>
+      <c r="Z72" s="3"/>
     </row>
     <row r="73" spans="1:26" x14ac:dyDescent="0.3">
-      <c r="K73" s="5" t="s">
+      <c r="K73" s="4" t="s">
         <v>181</v>
       </c>
-      <c r="L73" s="5" t="s">
+      <c r="L73" s="4" t="s">
         <v>181</v>
       </c>
     </row>
@@ -5025,77 +4997,66 @@
       <c r="I74" s="3">
         <v>0.36</v>
       </c>
-      <c r="J74" s="6"/>
-      <c r="K74" s="5" t="s">
+      <c r="J74" s="3"/>
+      <c r="K74" s="4" t="s">
         <v>55</v>
       </c>
-      <c r="N74" s="6"/>
-      <c r="O74" s="5">
+      <c r="N74" s="3"/>
+      <c r="O74" s="4">
         <v>15</v>
       </c>
-      <c r="Q74" s="6">
+      <c r="Q74" s="3">
         <v>590</v>
       </c>
-      <c r="R74" s="6">
+      <c r="R74" s="3">
         <v>1000</v>
       </c>
-      <c r="S74" s="5"/>
-      <c r="T74" s="6"/>
+      <c r="S74" s="4"/>
+      <c r="T74" s="3"/>
       <c r="U74" s="3"/>
       <c r="V74" s="3"/>
       <c r="W74" s="3"/>
       <c r="X74" s="3"/>
-      <c r="Y74" s="6" t="s">
+      <c r="Y74" s="3" t="s">
         <v>61</v>
       </c>
-      <c r="Z74" s="6"/>
+      <c r="Z74" s="3"/>
     </row>
     <row r="75" spans="1:26" x14ac:dyDescent="0.3">
-      <c r="A75" s="4" t="s">
+      <c r="A75" t="s">
         <v>49</v>
       </c>
-      <c r="B75" s="4" t="s">
+      <c r="B75" t="s">
         <v>19</v>
       </c>
-      <c r="C75" s="4" t="s">
+      <c r="C75" t="s">
         <v>88</v>
       </c>
-      <c r="D75" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="E75" s="4"/>
-      <c r="F75" s="4"/>
-      <c r="G75" s="4"/>
-      <c r="I75" s="4">
+      <c r="D75" t="s">
+        <v>0</v>
+      </c>
+      <c r="I75">
         <v>1</v>
       </c>
-      <c r="J75" s="4"/>
-      <c r="K75" s="4"/>
       <c r="N75" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="O75" s="4">
+      <c r="O75">
         <v>15</v>
       </c>
-      <c r="Q75" s="4">
+      <c r="Q75">
         <v>450</v>
       </c>
-      <c r="R75" s="4" t="s">
+      <c r="R75" t="s">
         <v>176</v>
       </c>
-      <c r="S75" s="4"/>
-      <c r="T75" s="4"/>
-      <c r="U75" s="4"/>
-      <c r="V75" s="4"/>
-      <c r="W75" s="4"/>
-      <c r="X75" s="4"/>
-      <c r="Y75" s="4" t="s">
+      <c r="Y75" t="s">
         <v>61</v>
       </c>
-      <c r="Z75" s="6"/>
+      <c r="Z75" s="3"/>
     </row>
     <row r="76" spans="1:26" x14ac:dyDescent="0.3">
-      <c r="A76" s="9" t="s">
+      <c r="A76" t="s">
         <v>135</v>
       </c>
       <c r="B76" t="s">
@@ -5107,251 +5068,243 @@
       <c r="D76" t="s">
         <v>0</v>
       </c>
-      <c r="I76" s="4">
+      <c r="I76">
         <v>0.7</v>
       </c>
-      <c r="Q76" s="4" t="s">
+      <c r="Q76" t="s">
         <v>142</v>
       </c>
-      <c r="R76" s="4" t="s">
+      <c r="R76" t="s">
         <v>141</v>
       </c>
       <c r="S76">
         <v>0</v>
       </c>
     </row>
-    <row r="77" spans="1:26" s="9" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="I77" s="4"/>
-      <c r="Q77" s="4"/>
-      <c r="R77" s="4"/>
-    </row>
-    <row r="78" spans="1:26" s="9" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A78" s="9" t="s">
-        <v>236</v>
-      </c>
-      <c r="B78" s="9" t="s">
+    <row r="78" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="A78" t="s">
+        <v>235</v>
+      </c>
+      <c r="B78" t="s">
         <v>17</v>
       </c>
-      <c r="C78" s="9" t="s">
-        <v>236</v>
-      </c>
-      <c r="D78" s="9" t="s">
-        <v>0</v>
-      </c>
-      <c r="I78" s="4"/>
-      <c r="P78" s="9">
+      <c r="C78" t="s">
+        <v>235</v>
+      </c>
+      <c r="D78" t="s">
+        <v>0</v>
+      </c>
+      <c r="P78">
         <v>100000</v>
       </c>
-      <c r="Q78" s="4"/>
-      <c r="R78" s="4"/>
     </row>
     <row r="79" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A79" t="s">
-        <v>236</v>
-      </c>
-      <c r="B79" s="9" t="s">
-        <v>236</v>
-      </c>
-      <c r="C79" s="9" t="s">
+        <v>235</v>
+      </c>
+      <c r="B79" t="s">
+        <v>235</v>
+      </c>
+      <c r="C79" t="s">
         <v>88</v>
       </c>
-      <c r="D79" s="9" t="s">
+      <c r="D79" t="s">
         <v>0</v>
       </c>
     </row>
     <row r="80" spans="1:26" x14ac:dyDescent="0.3">
-      <c r="A80" s="9" t="s">
-        <v>236</v>
-      </c>
-      <c r="B80" s="9" t="s">
-        <v>236</v>
-      </c>
-      <c r="C80" s="9" t="s">
+      <c r="A80" t="s">
+        <v>235</v>
+      </c>
+      <c r="B80" t="s">
+        <v>235</v>
+      </c>
+      <c r="C80" t="s">
         <v>82</v>
       </c>
-      <c r="D80" s="9" t="s">
+      <c r="D80" t="s">
         <v>0</v>
       </c>
     </row>
     <row r="81" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A81" s="9" t="s">
-        <v>236</v>
-      </c>
-      <c r="B81" s="9" t="s">
-        <v>236</v>
-      </c>
-      <c r="C81" s="9" t="s">
+      <c r="A81" t="s">
+        <v>235</v>
+      </c>
+      <c r="B81" t="s">
+        <v>235</v>
+      </c>
+      <c r="C81" t="s">
         <v>86</v>
       </c>
-      <c r="D81" s="9" t="s">
+      <c r="D81" t="s">
         <v>0</v>
       </c>
     </row>
     <row r="82" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A82" s="9" t="s">
-        <v>236</v>
-      </c>
-      <c r="B82" s="9" t="s">
-        <v>236</v>
-      </c>
-      <c r="C82" s="9" t="s">
+      <c r="A82" t="s">
+        <v>235</v>
+      </c>
+      <c r="B82" t="s">
+        <v>235</v>
+      </c>
+      <c r="C82" t="s">
         <v>84</v>
       </c>
-      <c r="D82" s="9" t="s">
+      <c r="D82" t="s">
         <v>0</v>
       </c>
     </row>
     <row r="83" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A83" s="9" t="s">
-        <v>236</v>
-      </c>
-      <c r="B83" s="9" t="s">
-        <v>236</v>
-      </c>
-      <c r="C83" s="9" t="s">
+      <c r="A83" t="s">
+        <v>235</v>
+      </c>
+      <c r="B83" t="s">
+        <v>235</v>
+      </c>
+      <c r="C83" t="s">
         <v>19</v>
       </c>
-      <c r="D83" s="9" t="s">
+      <c r="D83" t="s">
         <v>0</v>
       </c>
     </row>
     <row r="84" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A84" s="9" t="s">
-        <v>236</v>
-      </c>
-      <c r="B84" s="9" t="s">
-        <v>236</v>
-      </c>
-      <c r="C84" s="9" t="s">
+      <c r="A84" t="s">
+        <v>235</v>
+      </c>
+      <c r="B84" t="s">
+        <v>235</v>
+      </c>
+      <c r="C84" t="s">
         <v>45</v>
       </c>
-      <c r="D84" s="9" t="s">
+      <c r="D84" t="s">
         <v>0</v>
       </c>
     </row>
     <row r="85" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A85" s="9" t="s">
-        <v>236</v>
-      </c>
-      <c r="B85" s="9" t="s">
-        <v>236</v>
-      </c>
-      <c r="C85" s="9" t="s">
+      <c r="A85" t="s">
+        <v>235</v>
+      </c>
+      <c r="B85" t="s">
+        <v>235</v>
+      </c>
+      <c r="C85" t="s">
         <v>46</v>
       </c>
-      <c r="D85" s="9" t="s">
+      <c r="D85" t="s">
         <v>0</v>
       </c>
     </row>
     <row r="86" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A86" s="9" t="s">
-        <v>236</v>
-      </c>
-      <c r="B86" s="9" t="s">
-        <v>236</v>
-      </c>
-      <c r="C86" s="9" t="s">
+      <c r="A86" t="s">
+        <v>235</v>
+      </c>
+      <c r="B86" t="s">
+        <v>235</v>
+      </c>
+      <c r="C86" t="s">
         <v>47</v>
       </c>
-      <c r="D86" s="9" t="s">
+      <c r="D86" t="s">
         <v>0</v>
       </c>
     </row>
     <row r="87" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A87" s="9" t="s">
-        <v>236</v>
-      </c>
-      <c r="B87" s="9" t="s">
-        <v>236</v>
-      </c>
-      <c r="C87" s="9" t="s">
+      <c r="A87" t="s">
+        <v>235</v>
+      </c>
+      <c r="B87" t="s">
+        <v>235</v>
+      </c>
+      <c r="C87" t="s">
         <v>80</v>
       </c>
-      <c r="D87" s="9" t="s">
+      <c r="D87" t="s">
         <v>0</v>
       </c>
     </row>
     <row r="88" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A88" s="9" t="s">
-        <v>236</v>
-      </c>
-      <c r="B88" s="9" t="s">
-        <v>236</v>
-      </c>
-      <c r="C88" s="9" t="s">
+      <c r="A88" t="s">
+        <v>235</v>
+      </c>
+      <c r="B88" t="s">
+        <v>235</v>
+      </c>
+      <c r="C88" t="s">
         <v>73</v>
       </c>
-      <c r="D88" s="9" t="s">
+      <c r="D88" t="s">
         <v>0</v>
       </c>
     </row>
     <row r="89" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A89" s="9" t="s">
-        <v>236</v>
-      </c>
-      <c r="B89" s="9" t="s">
-        <v>236</v>
-      </c>
-      <c r="C89" s="9" t="s">
+      <c r="A89" t="s">
+        <v>235</v>
+      </c>
+      <c r="B89" t="s">
+        <v>235</v>
+      </c>
+      <c r="C89" t="s">
         <v>48</v>
       </c>
-      <c r="D89" s="9" t="s">
+      <c r="D89" t="s">
         <v>0</v>
       </c>
     </row>
     <row r="90" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A90" s="9" t="s">
-        <v>236</v>
-      </c>
-      <c r="B90" s="9" t="s">
-        <v>236</v>
-      </c>
-      <c r="C90" s="9" t="s">
+      <c r="A90" t="s">
+        <v>235</v>
+      </c>
+      <c r="B90" t="s">
+        <v>235</v>
+      </c>
+      <c r="C90" t="s">
         <v>18</v>
       </c>
-      <c r="D90" s="9" t="s">
+      <c r="D90" t="s">
         <v>0</v>
       </c>
     </row>
     <row r="91" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A91" s="9" t="s">
-        <v>236</v>
-      </c>
-      <c r="B91" s="9" t="s">
-        <v>236</v>
-      </c>
-      <c r="C91" s="9" t="s">
+      <c r="A91" t="s">
+        <v>235</v>
+      </c>
+      <c r="B91" t="s">
+        <v>235</v>
+      </c>
+      <c r="C91" t="s">
         <v>76</v>
       </c>
-      <c r="D91" s="9" t="s">
+      <c r="D91" t="s">
         <v>0</v>
       </c>
     </row>
     <row r="92" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A92" s="9" t="s">
-        <v>236</v>
-      </c>
-      <c r="B92" s="9" t="s">
-        <v>236</v>
-      </c>
-      <c r="C92" s="9" t="s">
+      <c r="A92" t="s">
+        <v>235</v>
+      </c>
+      <c r="B92" t="s">
+        <v>235</v>
+      </c>
+      <c r="C92" t="s">
         <v>139</v>
       </c>
-      <c r="D92" s="9" t="s">
+      <c r="D92" t="s">
         <v>0</v>
       </c>
     </row>
     <row r="93" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A93" s="9" t="s">
-        <v>236</v>
-      </c>
-      <c r="B93" s="9" t="s">
-        <v>236</v>
-      </c>
-      <c r="C93" s="9" t="s">
+      <c r="A93" t="s">
+        <v>235</v>
+      </c>
+      <c r="B93" t="s">
+        <v>235</v>
+      </c>
+      <c r="C93" t="s">
         <v>136</v>
       </c>
-      <c r="D93" s="9" t="s">
+      <c r="D93" t="s">
         <v>0</v>
       </c>
     </row>
@@ -5402,7 +5355,7 @@
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="B3" t="s">
         <v>29</v>
